--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="2" activeTab="13"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="1542">
   <si>
     <t>Date</t>
   </si>
@@ -4606,6 +4606,9 @@
   </si>
   <si>
     <t>Largest Number After Digit Swaps by Parity</t>
+  </si>
+  <si>
+    <t>Total Distance Traveled</t>
   </si>
   <si>
     <t>Print in Order</t>
@@ -13717,7 +13720,7 @@
   <sheetPr/>
   <dimension ref="A1:AV280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
@@ -41508,8 +41511,8 @@
   <sheetPr/>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -43107,9 +43110,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
+    <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A111" s="4">
+        <v>45131</v>
+      </c>
+      <c r="B111" s="12">
+        <v>2739</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A112" s="11"/>
@@ -43436,7 +43449,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43668,7 +43681,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43685,7 +43698,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43704,7 +43717,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43723,7 +43736,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43743,7 +43756,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43763,7 +43776,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43784,7 +43797,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43804,7 +43817,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43814,10 +43827,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43849,7 +43862,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43869,7 +43882,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -43889,7 +43902,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -43912,7 +43925,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -43932,7 +43945,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -43952,19 +43965,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -43978,7 +43991,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -43996,7 +44009,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44016,7 +44029,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44025,7 +44038,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44039,7 +44052,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44059,7 +44072,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44077,7 +44090,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44097,7 +44110,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44106,10 +44119,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44121,7 +44134,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44141,7 +44154,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44159,7 +44172,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44242,7 +44255,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44262,7 +44275,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44282,7 +44295,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44292,7 +44305,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44304,7 +44317,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44324,7 +44337,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44458,7 +44471,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44472,7 +44485,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44486,7 +44499,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44500,13 +44513,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
@@ -44725,13 +44738,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44745,13 +44758,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44762,7 +44775,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44776,7 +44789,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44790,7 +44803,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44804,7 +44817,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44836,7 +44849,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44887,7 +44900,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44908,14 +44921,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -44931,7 +44944,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -44966,7 +44979,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -44975,7 +44988,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45012,7 +45025,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45033,7 +45046,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45043,7 +45056,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46517,13 +46530,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46564,7 +46577,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46579,7 +46592,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46639,7 +46652,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46652,7 +46665,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46677,7 +46690,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46690,7 +46703,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46703,7 +46716,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46716,7 +46729,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46731,7 +46744,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46746,7 +46759,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46759,7 +46772,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46774,7 +46787,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="20"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="1543">
   <si>
     <t>Date</t>
   </si>
@@ -3618,6 +3618,9 @@
   </si>
   <si>
     <t>Remove Letter To Equalize Frequency</t>
+  </si>
+  <si>
+    <t>Sort Vowels in a String</t>
   </si>
   <si>
     <t>Split Strings by Separator</t>
@@ -25233,8 +25236,8 @@
   <sheetPr/>
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -27996,8 +27999,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="35"/>
+    <row r="208" spans="1:4">
+      <c r="A208" s="38">
+        <v>45133</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2785</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="38">
@@ -28007,7 +28021,7 @@
         <v>2788</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -28853,7 +28867,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -28876,7 +28890,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -28896,7 +28910,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -28916,7 +28930,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -28936,7 +28950,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -28954,7 +28968,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -28972,7 +28986,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -28990,7 +29004,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29010,7 +29024,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29028,7 +29042,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29046,7 +29060,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29064,7 +29078,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29082,7 +29096,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29156,7 +29170,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29174,7 +29188,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29194,7 +29208,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29206,7 +29220,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29219,7 +29233,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29239,7 +29253,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29262,7 +29276,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29283,7 +29297,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29304,7 +29318,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29324,7 +29338,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29342,7 +29356,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29360,7 +29374,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29378,7 +29392,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29396,7 +29410,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29432,7 +29446,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29452,7 +29466,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29461,7 +29475,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29472,7 +29486,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29490,7 +29504,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29512,7 +29526,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29521,7 +29535,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29537,7 +29551,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29563,7 +29577,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29578,7 +29592,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29592,7 +29606,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29606,7 +29620,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29618,7 +29632,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29632,7 +29646,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29644,7 +29658,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29656,7 +29670,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29670,7 +29684,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29684,7 +29698,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -30985,7 +30999,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31003,7 +31017,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31025,7 +31039,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31045,7 +31059,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31065,7 +31079,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31083,7 +31097,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31101,7 +31115,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31119,7 +31133,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31135,7 +31149,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32576,7 +32590,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32597,7 +32611,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32615,7 +32629,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32633,7 +32647,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32651,7 +32665,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32672,7 +32686,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32683,7 +32697,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32693,7 +32707,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32714,7 +32728,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32732,7 +32746,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32750,7 +32764,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32768,7 +32782,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32786,7 +32800,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32804,7 +32818,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -32824,7 +32838,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -32845,7 +32859,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -32864,7 +32878,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -32885,7 +32899,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -32905,7 +32919,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -32923,7 +32937,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -32943,7 +32957,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -32963,7 +32977,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33013,7 +33027,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33033,7 +33047,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33051,7 +33065,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33069,7 +33083,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33087,7 +33101,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33107,7 +33121,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33125,7 +33139,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33143,7 +33157,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33161,7 +33175,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33179,7 +33193,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33197,7 +33211,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33215,7 +33229,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33233,7 +33247,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33253,7 +33267,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33271,7 +33285,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33289,7 +33303,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33307,7 +33321,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33327,7 +33341,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33347,7 +33361,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33368,7 +33382,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33388,7 +33402,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33406,7 +33420,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33426,7 +33440,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34676,7 +34690,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34694,7 +34708,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34714,7 +34728,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -34729,7 +34743,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -34744,7 +34758,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34759,7 +34773,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34768,10 +34782,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -34783,14 +34797,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34801,7 +34815,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -34821,7 +34835,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -34839,7 +34853,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -34857,7 +34871,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34877,7 +34891,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34897,7 +34911,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -34933,7 +34947,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -34951,7 +34965,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -34969,7 +34983,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -34987,7 +35001,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35027,7 +35041,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35045,7 +35059,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35065,7 +35079,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35083,7 +35097,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35106,7 +35120,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35127,7 +35141,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35146,7 +35160,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35166,7 +35180,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35188,7 +35202,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35224,7 +35238,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35244,7 +35258,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35264,7 +35278,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35282,7 +35296,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35300,7 +35314,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35318,7 +35332,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35338,7 +35352,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35358,7 +35372,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35378,7 +35392,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35387,10 +35401,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35402,7 +35416,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35420,7 +35434,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35432,7 +35446,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35444,7 +35458,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35459,7 +35473,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35483,7 +35497,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35497,7 +35511,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35509,7 +35523,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35523,7 +35537,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35537,7 +35551,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35549,7 +35563,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35561,7 +35575,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35573,7 +35587,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35585,7 +35599,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35597,7 +35611,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35609,7 +35623,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35621,7 +35635,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35635,7 +35649,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35647,7 +35661,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35659,7 +35673,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35673,7 +35687,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35685,7 +35699,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35697,7 +35711,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -35709,7 +35723,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35721,7 +35735,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35772,7 +35786,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -35823,7 +35837,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -35876,7 +35890,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -35929,7 +35943,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -35980,7 +35994,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36031,7 +36045,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36082,7 +36096,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36135,7 +36149,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36186,7 +36200,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36239,7 +36253,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36290,7 +36304,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36341,7 +36355,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36394,7 +36408,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36445,7 +36459,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36498,7 +36512,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36600,7 +36614,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36704,7 +36718,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -36862,7 +36876,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -36915,7 +36929,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37017,7 +37031,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37070,7 +37084,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37079,7 +37093,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37179,7 +37193,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37230,7 +37244,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37283,7 +37297,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37336,7 +37350,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37440,7 +37454,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37538,7 +37552,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -40717,7 +40731,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40734,7 +40748,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40751,7 +40765,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40768,7 +40782,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40787,7 +40801,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40804,7 +40818,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -40821,7 +40835,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -40838,7 +40852,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -40857,7 +40871,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -40874,7 +40888,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -40891,7 +40905,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -40908,7 +40922,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -40925,7 +40939,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -40944,7 +40958,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -40961,7 +40975,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -40978,7 +40992,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41511,7 +41525,7 @@
   <sheetPr/>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
@@ -41563,14 +41577,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41583,17 +41597,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41603,7 +41617,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41621,7 +41635,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41637,7 +41651,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41653,7 +41667,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41669,7 +41683,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41685,7 +41699,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41703,17 +41717,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41723,7 +41737,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41741,17 +41755,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41763,17 +41777,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41785,7 +41799,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41793,7 +41807,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41803,7 +41817,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -41820,7 +41834,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -41837,7 +41851,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -41856,7 +41870,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -41874,14 +41888,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -41894,14 +41908,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -41912,7 +41926,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -41928,14 +41942,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="28" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -41946,7 +41960,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -41964,7 +41978,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -41973,7 +41987,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -41984,7 +41998,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42000,7 +42014,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42016,7 +42030,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42032,7 +42046,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42048,7 +42062,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42066,7 +42080,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42082,7 +42096,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42098,7 +42112,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42114,7 +42128,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42130,7 +42144,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42164,14 +42178,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="28" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42184,7 +42198,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42200,7 +42214,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42216,7 +42230,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42250,7 +42264,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42266,7 +42280,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42284,7 +42298,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42302,7 +42316,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42320,13 +42334,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42337,7 +42351,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42351,7 +42365,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42365,7 +42379,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42379,7 +42393,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42391,7 +42405,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42405,7 +42419,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42419,7 +42433,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42433,7 +42447,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42447,7 +42461,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42461,7 +42475,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42473,7 +42487,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42490,7 +42504,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42502,7 +42516,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42516,7 +42530,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42533,7 +42547,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42550,13 +42564,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42565,7 +42579,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42579,7 +42593,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42597,7 +42611,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42611,13 +42625,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42628,7 +42642,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42642,7 +42656,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42656,7 +42670,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42670,7 +42684,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42682,7 +42696,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -42700,7 +42714,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -42714,13 +42728,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42731,7 +42745,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -42743,7 +42757,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -42757,13 +42771,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42772,7 +42786,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -42784,7 +42798,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -42798,7 +42812,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -42810,7 +42824,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -42822,7 +42836,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -42834,7 +42848,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -42848,13 +42862,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42865,7 +42879,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -42879,7 +42893,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -42893,7 +42907,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -42931,7 +42945,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -42945,7 +42959,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -42959,7 +42973,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -42989,7 +43003,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43003,7 +43017,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43017,7 +43031,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43031,7 +43045,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43045,7 +43059,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43059,7 +43073,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43073,7 +43087,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43087,13 +43101,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43104,7 +43118,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43118,7 +43132,7 @@
         <v>2739</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43449,7 +43463,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43681,7 +43695,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43698,7 +43712,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43717,7 +43731,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43736,7 +43750,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43756,7 +43770,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43776,7 +43790,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43797,7 +43811,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43817,7 +43831,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43827,10 +43841,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43862,7 +43876,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43882,7 +43896,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -43902,7 +43916,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -43925,7 +43939,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -43945,7 +43959,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -43965,19 +43979,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -43991,7 +44005,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44009,7 +44023,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44029,7 +44043,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44038,7 +44052,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44052,7 +44066,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44072,7 +44086,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44090,7 +44104,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44110,7 +44124,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44119,10 +44133,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44134,7 +44148,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44154,7 +44168,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44172,7 +44186,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44255,7 +44269,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44275,7 +44289,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44295,7 +44309,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44305,7 +44319,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44317,7 +44331,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44337,7 +44351,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44471,7 +44485,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44485,7 +44499,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44499,7 +44513,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44513,13 +44527,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
@@ -44716,7 +44730,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44738,13 +44752,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44758,13 +44772,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44775,7 +44789,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44789,7 +44803,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44803,7 +44817,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44817,7 +44831,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44840,7 +44854,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44849,7 +44863,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44900,7 +44914,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44921,14 +44935,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -44944,7 +44958,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -44979,7 +44993,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -44988,7 +45002,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45025,7 +45039,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45046,7 +45060,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45056,7 +45070,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46515,7 +46529,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46530,13 +46544,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46577,7 +46591,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46592,7 +46606,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46652,7 +46666,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46665,7 +46679,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46690,7 +46704,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46703,7 +46717,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46716,7 +46730,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46729,7 +46743,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46744,7 +46758,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46759,7 +46773,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46772,7 +46786,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46787,7 +46801,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="1544">
   <si>
     <t>Date</t>
   </si>
@@ -2914,6 +2914,9 @@
   </si>
   <si>
     <t>Check if an Array Is Consecutive</t>
+  </si>
+  <si>
+    <t>Longest Alternating Subarray</t>
   </si>
   <si>
     <t>Sum of Squares of Special Element</t>
@@ -13721,10 +13724,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV280"/>
+  <dimension ref="A1:AV281"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -21966,11 +21969,11 @@
       </c>
     </row>
     <row r="273" s="1" customFormat="1" spans="1:4">
-      <c r="A273" s="38">
-        <v>45131</v>
+      <c r="A273" s="26">
+        <v>45133</v>
       </c>
       <c r="B273" s="1">
-        <v>2778</v>
+        <v>2765</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>917</v>
@@ -21984,7 +21987,7 @@
         <v>45131</v>
       </c>
       <c r="B274" s="1">
-        <v>2784</v>
+        <v>2778</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>918</v>
@@ -21993,12 +21996,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1"/>
+    <row r="275" s="1" customFormat="1" spans="1:4">
+      <c r="A275" s="38">
+        <v>45131</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2784</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="276" s="1" customFormat="1"/>
     <row r="277" s="1" customFormat="1"/>
     <row r="278" s="1" customFormat="1"/>
     <row r="279" s="1" customFormat="1"/>
     <row r="280" s="1" customFormat="1"/>
+    <row r="281" s="1" customFormat="1"/>
   </sheetData>
   <sortState ref="A5:H116">
     <sortCondition ref="B5"/>
@@ -24237,7 +24254,7 @@
       <formula>"Amazon"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:E85 A142:E146 B141:E141 A237:E239 I147:XFD162 G1:XFD146 A86:E140 A240:B240 D240:E240 A1:E84 G237:XFD272 A241:E272 F268:F272 A274:E1048576 G274:XFD1048576 F274:F280 $A273:$XFD273">
+  <conditionalFormatting sqref="B85:E85 A142:E146 B141:E141 A237:E239 I147:XFD162 G1:XFD146 A86:E140 A240:B240 D240:E240 A1:E84 G237:XFD272 A241:E272 F268:F272 $A273:$XFD274 F275:F281 G275:XFD1048576 A275:E1048576">
     <cfRule type="cellIs" dxfId="1" priority="778" operator="between">
       <formula>"Hard"</formula>
       <formula>"Hard"</formula>
@@ -25175,7 +25192,7 @@
       <formula>"Amazon"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A268:$XFD280">
+  <conditionalFormatting sqref="$A268:$XFD281">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
@@ -25236,7 +25253,7 @@
   <sheetPr/>
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
@@ -25287,7 +25304,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -25302,7 +25319,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -25314,7 +25331,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -25329,13 +25346,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -25346,19 +25363,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -25369,16 +25386,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -25387,7 +25404,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -25401,13 +25418,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:9">
@@ -25418,16 +25435,16 @@
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I10" s="36"/>
     </row>
@@ -25437,7 +25454,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -25452,13 +25469,13 @@
         <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -25469,7 +25486,7 @@
         <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -25481,7 +25498,7 @@
         <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -25498,13 +25515,13 @@
         <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I15" s="34"/>
     </row>
@@ -25514,7 +25531,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -25531,7 +25548,7 @@
         <v>214</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
@@ -25547,13 +25564,13 @@
         <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -25562,7 +25579,7 @@
         <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -25577,7 +25594,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -25589,7 +25606,7 @@
         <v>306</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -25603,13 +25620,13 @@
         <v>383</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -25620,7 +25637,7 @@
         <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -25632,7 +25649,7 @@
         <v>408</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -25641,7 +25658,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -25652,7 +25669,7 @@
         <v>415</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -25664,7 +25681,7 @@
         <v>420</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -25678,16 +25695,16 @@
         <v>434</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="I27" s="36"/>
     </row>
@@ -25699,7 +25716,7 @@
         <v>443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -25714,16 +25731,16 @@
         <v>459</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -25732,7 +25749,7 @@
         <v>468</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -25747,13 +25764,13 @@
         <v>482</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H31" s="29"/>
     </row>
@@ -25765,13 +25782,13 @@
         <v>500</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -25782,13 +25799,13 @@
         <v>520</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -25799,7 +25816,7 @@
         <v>521</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -25813,7 +25830,7 @@
         <v>522</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -25827,13 +25844,13 @@
         <v>524</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -25842,7 +25859,7 @@
         <v>527</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -25859,7 +25876,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -25873,13 +25890,13 @@
         <v>541</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -25890,7 +25907,7 @@
         <v>551</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -25899,7 +25916,7 @@
         <v>434</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H40" s="29"/>
     </row>
@@ -25909,7 +25926,7 @@
         <v>556</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -25924,13 +25941,13 @@
         <v>557</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -25939,7 +25956,7 @@
         <v>564</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -25951,7 +25968,7 @@
         <v>591</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -25963,7 +25980,7 @@
         <v>616</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -25980,7 +25997,7 @@
         <v>647</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -25994,7 +26011,7 @@
         <v>648</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -26008,13 +26025,13 @@
         <v>657</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -26023,7 +26040,7 @@
         <v>678</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -26037,7 +26054,7 @@
         <v>680</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -26049,7 +26066,7 @@
         <v>681</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -26063,7 +26080,7 @@
         <v>686</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -26077,7 +26094,7 @@
         <v>696</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -26091,7 +26108,7 @@
         <v>709</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -26105,7 +26122,7 @@
         <v>720</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -26114,7 +26131,7 @@
         <v>90</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -26123,7 +26140,7 @@
         <v>722</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -26135,7 +26152,7 @@
         <v>751</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -26147,7 +26164,7 @@
         <v>758</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -26156,7 +26173,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -26167,7 +26184,7 @@
         <v>791</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -26181,13 +26198,13 @@
         <v>796</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -26198,13 +26215,13 @@
         <v>804</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -26215,13 +26232,13 @@
         <v>806</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -26229,7 +26246,7 @@
         <v>809</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -26240,7 +26257,7 @@
         <v>816</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -26254,7 +26271,7 @@
         <v>819</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -26268,7 +26285,7 @@
         <v>820</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -26282,7 +26299,7 @@
         <v>824</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -26293,7 +26310,7 @@
         <v>831</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -26304,7 +26321,7 @@
         <v>833</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -26315,7 +26332,7 @@
         <v>839</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>16</v>
@@ -26329,7 +26346,7 @@
         <v>848</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -26343,13 +26360,13 @@
         <v>859</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -26357,7 +26374,7 @@
         <v>880</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -26371,7 +26388,7 @@
         <v>884</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -26382,7 +26399,7 @@
         <v>890</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -26396,13 +26413,13 @@
         <v>893</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -26410,7 +26427,7 @@
         <v>916</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -26424,7 +26441,7 @@
         <v>917</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -26438,7 +26455,7 @@
         <v>925</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -26452,7 +26469,7 @@
         <v>929</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -26463,7 +26480,7 @@
         <v>939</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -26477,7 +26494,7 @@
         <v>942</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -26491,7 +26508,7 @@
         <v>944</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -26505,7 +26522,7 @@
         <v>953</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -26516,7 +26533,7 @@
         <v>955</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -26527,7 +26544,7 @@
         <v>1016</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -26538,7 +26555,7 @@
         <v>1023</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -26552,7 +26569,7 @@
         <v>1056</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -26561,7 +26578,7 @@
         <v>24</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -26569,7 +26586,7 @@
         <v>1061</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -26586,13 +26603,13 @@
         <v>1071</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -26603,7 +26620,7 @@
         <v>1078</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -26614,7 +26631,7 @@
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -26631,13 +26648,13 @@
         <v>1108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -26648,7 +26665,7 @@
         <v>1119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -26662,7 +26679,7 @@
         <v>1147</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -26698,7 +26715,7 @@
         <v>1177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -26709,7 +26726,7 @@
         <v>1178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>16</v>
@@ -26723,7 +26740,7 @@
         <v>1189</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -26734,7 +26751,7 @@
         <v>1233</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -26745,7 +26762,7 @@
         <v>1234</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -26759,7 +26776,7 @@
         <v>1271</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -26773,7 +26790,7 @@
         <v>1297</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -26787,7 +26804,7 @@
         <v>1309</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -26798,7 +26815,7 @@
         <v>1324</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -26809,7 +26826,7 @@
         <v>1328</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -26823,7 +26840,7 @@
         <v>1332</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
@@ -26837,7 +26854,7 @@
         <v>1347</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -26848,7 +26865,7 @@
         <v>1358</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -26862,7 +26879,7 @@
         <v>1370</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -26873,7 +26890,7 @@
         <v>1371</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -26887,7 +26904,7 @@
         <v>1374</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -26898,7 +26915,7 @@
         <v>1392</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>16</v>
@@ -26912,7 +26929,7 @@
         <v>1400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -26926,7 +26943,7 @@
         <v>1408</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -26940,7 +26957,7 @@
         <v>1410</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -26954,7 +26971,7 @@
         <v>1417</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -26982,7 +26999,7 @@
         <v>1436</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -26996,7 +27013,7 @@
         <v>1446</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -27010,7 +27027,7 @@
         <v>1455</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -27021,7 +27038,7 @@
         <v>1461</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -27035,7 +27052,7 @@
         <v>1496</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
@@ -27049,7 +27066,7 @@
         <v>1507</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -27063,7 +27080,7 @@
         <v>1528</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
@@ -27077,7 +27094,7 @@
         <v>1529</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -27088,7 +27105,7 @@
         <v>1540</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -27099,7 +27116,7 @@
         <v>1542</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>16</v>
@@ -27113,7 +27130,7 @@
         <v>1544</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -27124,7 +27141,7 @@
         <v>1545</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -27135,7 +27152,7 @@
         <v>1554</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -27149,7 +27166,7 @@
         <v>1556</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>11</v>
@@ -27160,7 +27177,7 @@
         <v>1573</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -27174,7 +27191,7 @@
         <v>1576</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
@@ -27188,7 +27205,7 @@
         <v>1592</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>11</v>
@@ -27202,7 +27219,7 @@
         <v>1598</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>11</v>
@@ -27216,7 +27233,7 @@
         <v>1614</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
@@ -27230,7 +27247,7 @@
         <v>1624</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
@@ -27241,7 +27258,7 @@
         <v>1638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -27255,7 +27272,7 @@
         <v>1662</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>11</v>
@@ -27269,7 +27286,7 @@
         <v>1668</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>11</v>
@@ -27283,7 +27300,7 @@
         <v>1678</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
@@ -27297,7 +27314,7 @@
         <v>1684</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
@@ -27311,7 +27328,7 @@
         <v>1694</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
@@ -27325,7 +27342,7 @@
         <v>1704</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>11</v>
@@ -27342,7 +27359,7 @@
         <v>1758</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
@@ -27356,7 +27373,7 @@
         <v>1763</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
@@ -27370,7 +27387,7 @@
         <v>1768</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>11</v>
@@ -27384,7 +27401,7 @@
         <v>1784</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
@@ -27398,7 +27415,7 @@
         <v>1790</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
@@ -27412,7 +27429,7 @@
         <v>1796</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>11</v>
@@ -27426,7 +27443,7 @@
         <v>1816</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
@@ -27440,13 +27457,13 @@
         <v>1832</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27457,7 +27474,7 @@
         <v>1844</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>11</v>
@@ -27471,7 +27488,7 @@
         <v>1859</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -27485,7 +27502,7 @@
         <v>1869</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
@@ -27499,7 +27516,7 @@
         <v>1876</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
@@ -27513,7 +27530,7 @@
         <v>1880</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
@@ -27527,7 +27544,7 @@
         <v>1897</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
@@ -27541,7 +27558,7 @@
         <v>1903</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -27555,7 +27572,7 @@
         <v>1910</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -27569,7 +27586,7 @@
         <v>1933</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
@@ -27583,13 +27600,13 @@
         <v>1935</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -27600,7 +27617,7 @@
         <v>1941</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>11</v>
@@ -27614,7 +27631,7 @@
         <v>1945</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
@@ -27628,7 +27645,7 @@
         <v>1961</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -27642,7 +27659,7 @@
         <v>1967</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
@@ -27656,7 +27673,7 @@
         <v>1974</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
@@ -27670,7 +27687,7 @@
         <v>2000</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
@@ -27684,7 +27701,7 @@
         <v>2011</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -27698,7 +27715,7 @@
         <v>2027</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
@@ -27712,7 +27729,7 @@
         <v>2042</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>11</v>
@@ -27726,7 +27743,7 @@
         <v>2062</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
@@ -27740,7 +27757,7 @@
         <v>2063</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -27754,7 +27771,7 @@
         <v>2068</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>11</v>
@@ -27768,7 +27785,7 @@
         <v>2083</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -27782,7 +27799,7 @@
         <v>2103</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>11</v>
@@ -27796,7 +27813,7 @@
         <v>2108</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -27810,7 +27827,7 @@
         <v>2109</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -27824,7 +27841,7 @@
         <v>2114</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>11</v>
@@ -27838,13 +27855,13 @@
         <v>2124</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H193" s="29" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -27855,7 +27872,7 @@
         <v>2129</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
@@ -27869,7 +27886,7 @@
         <v>2138</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>11</v>
@@ -27883,7 +27900,7 @@
         <v>2185</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>11</v>
@@ -27897,7 +27914,7 @@
         <v>2186</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -27911,7 +27928,7 @@
         <v>2194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>11</v>
@@ -27925,7 +27942,7 @@
         <v>2224</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>11</v>
@@ -27939,7 +27956,7 @@
         <v>2255</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>11</v>
@@ -27953,7 +27970,7 @@
         <v>2259</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>11</v>
@@ -27967,7 +27984,7 @@
         <v>2278</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>11</v>
@@ -27993,7 +28010,7 @@
         <v>2423</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
@@ -28007,7 +28024,7 @@
         <v>2785</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
@@ -28021,7 +28038,7 @@
         <v>2788</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -28867,7 +28884,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -28890,7 +28907,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -28910,7 +28927,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -28930,7 +28947,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -28950,7 +28967,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -28968,7 +28985,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -28986,7 +29003,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29004,7 +29021,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29024,7 +29041,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29042,7 +29059,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29060,7 +29077,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29078,7 +29095,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29096,7 +29113,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29170,7 +29187,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29188,7 +29205,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29208,7 +29225,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29220,7 +29237,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29233,7 +29250,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29253,7 +29270,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29276,7 +29293,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29297,7 +29314,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29318,7 +29335,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29338,7 +29355,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29356,7 +29373,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29374,7 +29391,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29392,7 +29409,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29410,7 +29427,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29446,7 +29463,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29466,7 +29483,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29475,7 +29492,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29486,7 +29503,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29504,7 +29521,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29526,7 +29543,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29535,7 +29552,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29551,7 +29568,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29577,7 +29594,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29592,7 +29609,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29606,7 +29623,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29620,7 +29637,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29632,7 +29649,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29646,7 +29663,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29658,7 +29675,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29670,7 +29687,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29684,7 +29701,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29698,7 +29715,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -30999,7 +31016,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31017,7 +31034,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31039,7 +31056,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31059,7 +31076,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31079,7 +31096,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31097,7 +31114,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31115,7 +31132,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31133,7 +31150,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31149,7 +31166,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32590,7 +32607,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32611,7 +32628,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32629,7 +32646,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32647,7 +32664,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32665,7 +32682,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32686,7 +32703,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32697,7 +32714,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32707,7 +32724,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32728,7 +32745,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32746,7 +32763,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32764,7 +32781,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32782,7 +32799,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32800,7 +32817,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32818,7 +32835,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -32838,7 +32855,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -32859,7 +32876,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -32878,7 +32895,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -32899,7 +32916,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -32919,7 +32936,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -32937,7 +32954,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -32957,7 +32974,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -32977,7 +32994,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -32997,7 +33014,7 @@
         <v>556</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
@@ -33027,7 +33044,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33047,7 +33064,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33065,7 +33082,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33083,7 +33100,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33101,7 +33118,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33121,7 +33138,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33139,7 +33156,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33157,7 +33174,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33175,7 +33192,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33193,7 +33210,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33211,7 +33228,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33229,7 +33246,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33247,7 +33264,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33267,7 +33284,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33285,7 +33302,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33303,7 +33320,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33321,7 +33338,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33341,7 +33358,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33361,7 +33378,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33382,7 +33399,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33402,7 +33419,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33420,7 +33437,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33440,7 +33457,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34690,7 +34707,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34708,7 +34725,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34728,7 +34745,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -34743,7 +34760,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -34758,7 +34775,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34773,7 +34790,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34782,10 +34799,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -34797,14 +34814,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34815,7 +34832,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -34835,7 +34852,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -34853,7 +34870,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -34871,7 +34888,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34891,7 +34908,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34911,7 +34928,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -34947,7 +34964,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -34965,7 +34982,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -34983,7 +35000,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35001,7 +35018,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35041,7 +35058,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35059,7 +35076,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35079,7 +35096,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35097,7 +35114,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35120,7 +35137,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35141,7 +35158,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35160,7 +35177,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35180,7 +35197,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35202,7 +35219,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35238,7 +35255,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35258,7 +35275,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35278,7 +35295,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35296,7 +35313,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35314,7 +35331,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35332,7 +35349,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35352,7 +35369,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35372,7 +35389,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35392,7 +35409,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35401,10 +35418,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35416,7 +35433,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35434,7 +35451,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35446,7 +35463,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35458,7 +35475,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35473,7 +35490,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35497,7 +35514,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35511,7 +35528,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35523,7 +35540,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35537,7 +35554,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35551,7 +35568,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35563,7 +35580,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35575,7 +35592,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35587,7 +35604,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35599,7 +35616,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35611,7 +35628,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35623,7 +35640,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35635,7 +35652,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35649,7 +35666,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35661,7 +35678,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35673,7 +35690,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35687,7 +35704,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35699,7 +35716,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35711,7 +35728,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -35723,7 +35740,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35735,7 +35752,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35786,7 +35803,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -35837,7 +35854,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -35890,7 +35907,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -35943,7 +35960,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -35994,7 +36011,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36045,7 +36062,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36096,7 +36113,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36149,7 +36166,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36200,7 +36217,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36253,7 +36270,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36304,7 +36321,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36355,7 +36372,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36408,7 +36425,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36459,7 +36476,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36512,7 +36529,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36614,7 +36631,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36718,7 +36735,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -36876,7 +36893,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -36929,7 +36946,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37031,7 +37048,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37084,7 +37101,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37093,7 +37110,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37193,7 +37210,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37244,7 +37261,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37297,7 +37314,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37350,7 +37367,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37454,7 +37471,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37552,7 +37569,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -40731,7 +40748,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40748,7 +40765,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40765,7 +40782,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40782,7 +40799,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40801,7 +40818,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40818,7 +40835,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -40835,7 +40852,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -40852,7 +40869,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -40871,7 +40888,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -40888,7 +40905,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -40905,7 +40922,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -40922,7 +40939,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -40939,7 +40956,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -40958,7 +40975,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -40975,7 +40992,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -40992,7 +41009,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41577,14 +41594,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41597,17 +41614,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41617,7 +41634,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41635,7 +41652,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41651,7 +41668,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41667,7 +41684,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41683,7 +41700,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41699,7 +41716,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41717,17 +41734,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41737,7 +41754,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41755,17 +41772,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41777,17 +41794,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41799,7 +41816,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41807,7 +41824,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41817,7 +41834,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -41834,7 +41851,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -41851,7 +41868,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -41870,7 +41887,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -41888,14 +41905,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -41908,14 +41925,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -41926,7 +41943,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -41942,14 +41959,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="28" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -41960,7 +41977,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -41978,7 +41995,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -41987,7 +42004,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -41998,7 +42015,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42014,7 +42031,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42030,7 +42047,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42046,7 +42063,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42062,7 +42079,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42080,7 +42097,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42096,7 +42113,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42112,7 +42129,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42128,7 +42145,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42144,7 +42161,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42178,14 +42195,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="28" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42198,7 +42215,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42214,7 +42231,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42230,7 +42247,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42264,7 +42281,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42280,7 +42297,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42298,7 +42315,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42316,7 +42333,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42334,13 +42351,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42351,7 +42368,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42365,7 +42382,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42379,7 +42396,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42393,7 +42410,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42405,7 +42422,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42419,7 +42436,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42433,7 +42450,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42447,7 +42464,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42461,7 +42478,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42475,7 +42492,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42487,7 +42504,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42504,7 +42521,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42516,7 +42533,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42530,7 +42547,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42547,7 +42564,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42564,13 +42581,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42579,7 +42596,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42593,7 +42610,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42611,7 +42628,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42625,13 +42642,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42642,7 +42659,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42656,7 +42673,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42670,7 +42687,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42684,7 +42701,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42696,7 +42713,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -42714,7 +42731,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -42728,13 +42745,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42745,7 +42762,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -42757,7 +42774,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -42771,13 +42788,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42786,7 +42803,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -42798,7 +42815,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -42812,7 +42829,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -42824,7 +42841,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -42836,7 +42853,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -42848,7 +42865,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -42862,13 +42879,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42879,7 +42896,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -42893,7 +42910,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -42907,7 +42924,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -42945,7 +42962,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -42959,7 +42976,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -42973,7 +42990,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -43003,7 +43020,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43017,7 +43034,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43031,7 +43048,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43045,7 +43062,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43059,7 +43076,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43073,7 +43090,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43087,7 +43104,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43101,13 +43118,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43118,7 +43135,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43132,7 +43149,7 @@
         <v>2739</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43463,7 +43480,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43695,7 +43712,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43712,7 +43729,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43731,7 +43748,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43750,7 +43767,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43770,7 +43787,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43790,7 +43807,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43811,7 +43828,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43831,7 +43848,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43841,10 +43858,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43876,7 +43893,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43896,7 +43913,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -43916,7 +43933,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -43939,7 +43956,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -43959,7 +43976,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -43979,19 +43996,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44005,7 +44022,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44023,7 +44040,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44043,7 +44060,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44052,7 +44069,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44066,7 +44083,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44086,7 +44103,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44104,7 +44121,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44124,7 +44141,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44133,10 +44150,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44148,7 +44165,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44168,7 +44185,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44186,7 +44203,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44269,7 +44286,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44289,7 +44306,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44309,7 +44326,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44319,7 +44336,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44331,7 +44348,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44351,7 +44368,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44485,7 +44502,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44499,7 +44516,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44513,7 +44530,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44527,13 +44544,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
@@ -44730,7 +44747,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44752,13 +44769,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44772,13 +44789,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44789,7 +44806,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44803,7 +44820,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44817,7 +44834,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44831,7 +44848,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44854,7 +44871,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44863,7 +44880,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44914,7 +44931,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44935,14 +44952,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -44958,7 +44975,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -44993,7 +45010,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45002,7 +45019,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45039,7 +45056,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45060,7 +45077,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45070,7 +45087,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46529,7 +46546,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46544,13 +46561,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46591,7 +46608,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46606,7 +46623,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46651,7 +46668,7 @@
         <v>1371</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -46666,7 +46683,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46679,7 +46696,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46692,7 +46709,7 @@
         <v>1542</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -46704,7 +46721,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46717,7 +46734,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46730,7 +46747,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46743,7 +46760,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46758,7 +46775,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46773,7 +46790,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46786,7 +46803,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46801,7 +46818,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="13"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="1544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="1545">
   <si>
     <t>Date</t>
   </si>
@@ -3621,6 +3621,9 @@
   </si>
   <si>
     <t>Remove Letter To Equalize Frequency</t>
+  </si>
+  <si>
+    <t>Find Maximum Number of String Pairs</t>
   </si>
   <si>
     <t>Sort Vowels in a String</t>
@@ -13726,7 +13729,7 @@
   <sheetPr/>
   <dimension ref="A1:AV281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
@@ -25251,10 +25254,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -28018,34 +28021,48 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="38">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B208" s="1">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="38">
+        <v>45133</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2785</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="38">
         <v>45131</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B210" s="1">
         <v>2788</v>
       </c>
-      <c r="C209" s="16" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D209" s="1" t="s">
+      <c r="C210" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="35"/>
+    <row r="211" spans="1:1">
+      <c r="A211" s="35"/>
     </row>
   </sheetData>
   <sortState ref="A5:I62">
@@ -28333,262 +28350,262 @@
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207">
+  <conditionalFormatting sqref="F209">
+    <cfRule type="containsText" dxfId="5" priority="27" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F209)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="35" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F209)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="43" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="51" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="75" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="83" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="91" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D210">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210">
+    <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="34" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="82" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="90" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F211">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="41" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="81" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="89" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:A208">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
+  <conditionalFormatting sqref="E45:E47">
+    <cfRule type="cellIs" dxfId="0" priority="192" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:F47">
+    <cfRule type="cellIs" dxfId="0" priority="185" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F207:F208">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="12" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="14" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 A212:E1048576 G212:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="194" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="196" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F212:F1048576">
+    <cfRule type="containsText" dxfId="5" priority="180" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="181" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="182" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="12" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208">
-    <cfRule type="cellIs" dxfId="3" priority="91" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="83" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="51" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="43" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="35" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F208)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="27" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F208)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D209">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F209">
-    <cfRule type="cellIs" dxfId="3" priority="90" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="82" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="34" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F209)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F209)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F210">
-    <cfRule type="cellIs" dxfId="3" priority="89" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="81" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="49" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="25" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E47">
-    <cfRule type="cellIs" dxfId="0" priority="192" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F47">
-    <cfRule type="cellIs" dxfId="0" priority="185" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 G211:XFD1048576 A196:B196 D196:E196 A197:E202 A211:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="193" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="194" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="196" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F211:F1048576">
-    <cfRule type="containsText" dxfId="5" priority="180" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="181" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="184" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="186" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="187" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="188" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="189" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="183" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="182" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="184" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="187" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="188" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="189" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:XFD187 A187:E187">
@@ -28723,92 +28740,92 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:XFD207 B207:E207">
+  <conditionalFormatting sqref="G207:XFD208 B207:E208">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="24" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208:XFD208 A208:E208">
+  <conditionalFormatting sqref="G209:XFD209 A209:E209">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="123" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="131" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="123" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="115" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:XFD209 A209:C209 E209">
+  <conditionalFormatting sqref="G210:XFD210 E210 A210:C210">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="114" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="122" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="130" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="122" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="114" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:XFD210 A210:E210">
+  <conditionalFormatting sqref="G211:XFD211 A211:E211">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="121" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="129" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="121" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="113" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -28884,7 +28901,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -28907,7 +28924,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -28927,7 +28944,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -28947,7 +28964,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -28967,7 +28984,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -28985,7 +29002,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -29003,7 +29020,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29021,7 +29038,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29041,7 +29058,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29059,7 +29076,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29077,7 +29094,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29095,7 +29112,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29113,7 +29130,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29187,7 +29204,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29205,7 +29222,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29225,7 +29242,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29237,7 +29254,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29250,7 +29267,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29270,7 +29287,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29293,7 +29310,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29314,7 +29331,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29335,7 +29352,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29355,7 +29372,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29373,7 +29390,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29391,7 +29408,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29409,7 +29426,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29427,7 +29444,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29463,7 +29480,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29483,7 +29500,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29492,7 +29509,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29503,7 +29520,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29521,7 +29538,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29543,7 +29560,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29552,7 +29569,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29568,7 +29585,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29594,7 +29611,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29609,7 +29626,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29623,7 +29640,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29637,7 +29654,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29649,7 +29666,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29663,7 +29680,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29675,7 +29692,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29687,7 +29704,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29701,7 +29718,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29715,7 +29732,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -31016,7 +31033,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31034,7 +31051,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31056,7 +31073,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31076,7 +31093,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31096,7 +31113,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31114,7 +31131,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31132,7 +31149,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31150,7 +31167,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31166,7 +31183,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32607,7 +32624,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32628,7 +32645,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32646,7 +32663,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32664,7 +32681,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32682,7 +32699,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32703,7 +32720,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32714,7 +32731,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32724,7 +32741,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32745,7 +32762,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32763,7 +32780,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32781,7 +32798,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32799,7 +32816,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32817,7 +32834,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32835,7 +32852,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -32855,7 +32872,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -32876,7 +32893,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -32895,7 +32912,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -32916,7 +32933,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -32936,7 +32953,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -32954,7 +32971,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -32974,7 +32991,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -32994,7 +33011,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33044,7 +33061,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33064,7 +33081,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33082,7 +33099,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33100,7 +33117,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33118,7 +33135,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33138,7 +33155,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33156,7 +33173,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33174,7 +33191,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33192,7 +33209,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33210,7 +33227,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33228,7 +33245,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33246,7 +33263,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33264,7 +33281,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33284,7 +33301,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33302,7 +33319,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33320,7 +33337,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33338,7 +33355,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33358,7 +33375,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33378,7 +33395,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33399,7 +33416,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33419,7 +33436,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33437,7 +33454,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33457,7 +33474,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34707,7 +34724,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34725,7 +34742,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34745,7 +34762,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -34760,7 +34777,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -34775,7 +34792,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34790,7 +34807,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34799,10 +34816,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -34814,14 +34831,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34832,7 +34849,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -34852,7 +34869,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -34870,7 +34887,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -34888,7 +34905,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34908,7 +34925,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34928,7 +34945,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -34964,7 +34981,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -34982,7 +34999,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -35000,7 +35017,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35018,7 +35035,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35058,7 +35075,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35076,7 +35093,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35096,7 +35113,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35114,7 +35131,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35137,7 +35154,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35158,7 +35175,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35177,7 +35194,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35197,7 +35214,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35219,7 +35236,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35255,7 +35272,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35275,7 +35292,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35295,7 +35312,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35313,7 +35330,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35331,7 +35348,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35349,7 +35366,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35369,7 +35386,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35389,7 +35406,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35409,7 +35426,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35418,10 +35435,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35433,7 +35450,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35451,7 +35468,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35463,7 +35480,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35475,7 +35492,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35490,7 +35507,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35514,7 +35531,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35528,7 +35545,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35540,7 +35557,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35554,7 +35571,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35568,7 +35585,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35580,7 +35597,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35592,7 +35609,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35604,7 +35621,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35616,7 +35633,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35628,7 +35645,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35640,7 +35657,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35652,7 +35669,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35666,7 +35683,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35678,7 +35695,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35690,7 +35707,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35704,7 +35721,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35716,7 +35733,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35728,7 +35745,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -35740,7 +35757,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35752,7 +35769,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35803,7 +35820,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -35854,7 +35871,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -35907,7 +35924,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -35960,7 +35977,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -36011,7 +36028,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36062,7 +36079,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36113,7 +36130,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36166,7 +36183,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36217,7 +36234,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36270,7 +36287,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36321,7 +36338,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36372,7 +36389,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36425,7 +36442,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36476,7 +36493,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36529,7 +36546,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36631,7 +36648,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36735,7 +36752,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -36893,7 +36910,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -36946,7 +36963,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37048,7 +37065,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37101,7 +37118,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37110,7 +37127,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37210,7 +37227,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37261,7 +37278,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37314,7 +37331,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37367,7 +37384,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37471,7 +37488,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37569,7 +37586,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -40748,7 +40765,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40765,7 +40782,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40782,7 +40799,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40799,7 +40816,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40818,7 +40835,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40835,7 +40852,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -40852,7 +40869,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -40869,7 +40886,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -40888,7 +40905,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -40905,7 +40922,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -40922,7 +40939,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -40939,7 +40956,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -40956,7 +40973,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -40975,7 +40992,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -40992,7 +41009,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -41009,7 +41026,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41594,14 +41611,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41614,17 +41631,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41634,7 +41651,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41652,7 +41669,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41668,7 +41685,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41684,7 +41701,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41700,7 +41717,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41716,7 +41733,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41734,17 +41751,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41754,7 +41771,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41772,17 +41789,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41794,17 +41811,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41816,7 +41833,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41824,7 +41841,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41834,7 +41851,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -41851,7 +41868,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -41868,7 +41885,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -41887,7 +41904,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -41905,14 +41922,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -41925,14 +41942,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -41943,7 +41960,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -41959,14 +41976,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="28" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -41977,7 +41994,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -41995,7 +42012,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -42004,7 +42021,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42015,7 +42032,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42031,7 +42048,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42047,7 +42064,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42063,7 +42080,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42079,7 +42096,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42097,7 +42114,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42113,7 +42130,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42129,7 +42146,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42145,7 +42162,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42161,7 +42178,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42195,14 +42212,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="28" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42215,7 +42232,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42231,7 +42248,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42247,7 +42264,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42281,7 +42298,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42297,7 +42314,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42315,7 +42332,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42333,7 +42350,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42351,13 +42368,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42368,7 +42385,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42382,7 +42399,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42396,7 +42413,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42410,7 +42427,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42422,7 +42439,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42436,7 +42453,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42450,7 +42467,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42464,7 +42481,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42478,7 +42495,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42492,7 +42509,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42504,7 +42521,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42521,7 +42538,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42533,7 +42550,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42547,7 +42564,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42564,7 +42581,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42581,13 +42598,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42596,7 +42613,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42610,7 +42627,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42628,7 +42645,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42642,13 +42659,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42659,7 +42676,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42673,7 +42690,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42687,7 +42704,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42701,7 +42718,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42713,7 +42730,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -42731,7 +42748,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -42745,13 +42762,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42762,7 +42779,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -42774,7 +42791,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -42788,13 +42805,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42803,7 +42820,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -42815,7 +42832,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -42829,7 +42846,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -42841,7 +42858,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -42853,7 +42870,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -42865,7 +42882,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -42879,13 +42896,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42896,7 +42913,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -42910,7 +42927,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -42924,7 +42941,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -42962,7 +42979,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -42976,7 +42993,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -42990,7 +43007,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -43020,7 +43037,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43034,7 +43051,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43048,7 +43065,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43062,7 +43079,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43076,7 +43093,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43090,7 +43107,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43104,7 +43121,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43118,13 +43135,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43135,7 +43152,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43149,7 +43166,7 @@
         <v>2739</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43480,7 +43497,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43712,7 +43729,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43729,7 +43746,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43748,7 +43765,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43767,7 +43784,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43787,7 +43804,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43807,7 +43824,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43828,7 +43845,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43848,7 +43865,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43858,10 +43875,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43893,7 +43910,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43913,7 +43930,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -43933,7 +43950,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -43956,7 +43973,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -43976,7 +43993,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -43996,19 +44013,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44022,7 +44039,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44040,7 +44057,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44060,7 +44077,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44069,7 +44086,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44083,7 +44100,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44103,7 +44120,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44121,7 +44138,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44141,7 +44158,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44150,10 +44167,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44165,7 +44182,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44185,7 +44202,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44203,7 +44220,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44286,7 +44303,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44306,7 +44323,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44326,7 +44343,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44336,7 +44353,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44348,7 +44365,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44368,7 +44385,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44502,7 +44519,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44516,7 +44533,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44530,7 +44547,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44544,13 +44561,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
@@ -44747,7 +44764,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44769,13 +44786,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44789,13 +44806,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44806,7 +44823,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44820,7 +44837,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44834,7 +44851,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44848,7 +44865,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44871,7 +44888,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44880,7 +44897,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44931,7 +44948,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44952,14 +44969,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -44975,7 +44992,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45010,7 +45027,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45019,7 +45036,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45056,7 +45073,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45077,7 +45094,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45087,7 +45104,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46546,7 +46563,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46561,13 +46578,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46608,7 +46625,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46623,7 +46640,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46683,7 +46700,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46696,7 +46713,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46721,7 +46738,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46734,7 +46751,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46747,7 +46764,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46760,7 +46777,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46775,7 +46792,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46790,7 +46807,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46803,7 +46820,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46818,7 +46835,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="20"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="1547">
   <si>
     <t>Date</t>
   </si>
@@ -3621,6 +3621,9 @@
   </si>
   <si>
     <t>Remove Letter To Equalize Frequency</t>
+  </si>
+  <si>
+    <t>Number of Senior Citizens</t>
   </si>
   <si>
     <t>Find Maximum Number of String Pairs</t>
@@ -25260,10 +25263,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -28027,10 +28030,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="39">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B208" s="1">
-        <v>2744</v>
+        <v>2678</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1147</v>
@@ -28041,34 +28044,48 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="39">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B209" s="1">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="39">
+        <v>45133</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2785</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="39">
         <v>45131</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B211" s="1">
         <v>2788</v>
       </c>
-      <c r="C210" s="16" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D210" s="1" t="s">
+      <c r="C211" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="36"/>
+    <row r="212" spans="1:1">
+      <c r="A212" s="36"/>
     </row>
   </sheetData>
   <sortState ref="A5:I62">
@@ -28356,12 +28373,12 @@
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F209">
+  <conditionalFormatting sqref="F210">
     <cfRule type="containsText" dxfId="5" priority="27" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F209)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="35" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F209)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="43" operator="between">
       <formula>"Amazon"</formula>
@@ -28392,7 +28409,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D210">
+  <conditionalFormatting sqref="D211">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28414,12 +28431,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210">
+  <conditionalFormatting sqref="F211">
     <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="34" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
       <formula>"Amazon"</formula>
@@ -28450,12 +28467,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F211">
+  <conditionalFormatting sqref="F212">
     <cfRule type="containsText" dxfId="5" priority="25" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="33" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="41" operator="between">
       <formula>"Amazon"</formula>
@@ -28486,7 +28503,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A208">
+  <conditionalFormatting sqref="A207:A209">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28520,7 +28537,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207:F208">
+  <conditionalFormatting sqref="F207:F209">
     <cfRule type="containsText" dxfId="5" priority="11" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
     </cfRule>
@@ -28556,7 +28573,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 A212:E1048576 G212:XFD1048576">
+  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 G213:XFD1048576 A213:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28578,7 +28595,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F212:F1048576">
+  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F213:F1048576">
     <cfRule type="containsText" dxfId="5" priority="180" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
@@ -28746,7 +28763,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:XFD208 B207:E208">
+  <conditionalFormatting sqref="G207:XFD209 B207:E209">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28768,7 +28785,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:XFD209 A209:E209">
+  <conditionalFormatting sqref="G210:XFD210 A210:E210">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28790,7 +28807,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:XFD210 E210 A210:C210">
+  <conditionalFormatting sqref="G211:XFD211 A211:C211 E211">
     <cfRule type="cellIs" dxfId="0" priority="98" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28812,7 +28829,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211:XFD211 A211:E211">
+  <conditionalFormatting sqref="G212:XFD212 A212:E212">
     <cfRule type="cellIs" dxfId="0" priority="97" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28907,7 +28924,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -28930,7 +28947,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -28950,7 +28967,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -28970,7 +28987,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -28990,7 +29007,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -29008,7 +29025,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -29026,7 +29043,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29044,7 +29061,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29064,7 +29081,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29082,7 +29099,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29100,7 +29117,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29118,7 +29135,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29136,7 +29153,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29210,7 +29227,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29228,7 +29245,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29248,7 +29265,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29260,7 +29277,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29273,7 +29290,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29293,7 +29310,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29316,7 +29333,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29337,7 +29354,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29358,7 +29375,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29378,7 +29395,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29396,7 +29413,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29414,7 +29431,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29432,7 +29449,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29450,7 +29467,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29486,7 +29503,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29506,7 +29523,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29515,7 +29532,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29526,7 +29543,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29544,7 +29561,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29566,7 +29583,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29575,7 +29592,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29591,7 +29608,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29617,7 +29634,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29632,7 +29649,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29646,7 +29663,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29660,7 +29677,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29672,7 +29689,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29686,7 +29703,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29698,7 +29715,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29710,7 +29727,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29724,7 +29741,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29738,7 +29755,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -31039,7 +31056,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31057,7 +31074,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31079,7 +31096,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31099,7 +31116,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31119,7 +31136,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31137,7 +31154,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31155,7 +31172,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31173,7 +31190,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31189,7 +31206,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32630,7 +32647,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32651,7 +32668,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32669,7 +32686,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32687,7 +32704,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32705,7 +32722,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32726,7 +32743,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32737,7 +32754,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32747,7 +32764,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32768,7 +32785,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32786,7 +32803,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32804,7 +32821,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32822,7 +32839,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32840,7 +32857,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32858,7 +32875,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -32878,7 +32895,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -32899,7 +32916,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -32918,7 +32935,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -32939,7 +32956,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -32959,7 +32976,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -32977,7 +32994,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -32997,7 +33014,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -33017,7 +33034,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33067,7 +33084,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33087,7 +33104,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33105,7 +33122,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33123,7 +33140,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33141,7 +33158,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33161,7 +33178,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33179,7 +33196,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33197,7 +33214,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33215,7 +33232,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33233,7 +33250,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33251,7 +33268,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33269,7 +33286,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33287,7 +33304,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33307,7 +33324,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33325,7 +33342,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33343,7 +33360,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33361,7 +33378,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33381,7 +33398,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33401,7 +33418,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33422,7 +33439,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33442,7 +33459,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33460,7 +33477,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33480,7 +33497,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34730,7 +34747,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34748,7 +34765,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34768,7 +34785,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -34783,7 +34800,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -34798,7 +34815,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34813,7 +34830,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34822,10 +34839,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -34837,14 +34854,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34855,7 +34872,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -34875,7 +34892,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -34893,7 +34910,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -34911,7 +34928,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34931,7 +34948,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34951,7 +34968,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -34987,7 +35004,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -35005,7 +35022,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -35023,7 +35040,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35041,7 +35058,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35081,7 +35098,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35099,7 +35116,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35119,7 +35136,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35137,7 +35154,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35160,7 +35177,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35181,7 +35198,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35200,7 +35217,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35220,7 +35237,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35242,7 +35259,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35278,7 +35295,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35298,7 +35315,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35318,7 +35335,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35336,7 +35353,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35354,7 +35371,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35372,7 +35389,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35392,7 +35409,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35412,7 +35429,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35432,7 +35449,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35441,10 +35458,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35456,7 +35473,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35474,7 +35491,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35486,7 +35503,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35498,7 +35515,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35513,7 +35530,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35537,7 +35554,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35551,7 +35568,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35563,7 +35580,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35577,7 +35594,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35591,7 +35608,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35603,7 +35620,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35615,7 +35632,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35627,7 +35644,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35639,7 +35656,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35651,7 +35668,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35663,7 +35680,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35675,7 +35692,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35689,7 +35706,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35701,7 +35718,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35713,7 +35730,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35727,7 +35744,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35739,7 +35756,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35751,7 +35768,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -35763,7 +35780,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35775,7 +35792,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35826,7 +35843,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -35877,7 +35894,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -35930,7 +35947,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -35983,7 +36000,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -36034,7 +36051,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36085,7 +36102,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36136,7 +36153,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36189,7 +36206,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36240,7 +36257,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36293,7 +36310,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36344,7 +36361,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36395,7 +36412,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36448,7 +36465,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36499,7 +36516,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36552,7 +36569,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36654,7 +36671,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36758,7 +36775,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -36916,7 +36933,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -36969,7 +36986,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37071,7 +37088,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37124,7 +37141,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37133,7 +37150,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37233,7 +37250,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37284,7 +37301,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37337,7 +37354,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37390,7 +37407,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37494,7 +37511,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37592,7 +37609,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -40771,7 +40788,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40788,7 +40805,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40805,7 +40822,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40822,7 +40839,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40841,7 +40858,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40858,7 +40875,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -40875,7 +40892,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -40892,7 +40909,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -40911,7 +40928,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -40928,7 +40945,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -40945,7 +40962,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -40962,7 +40979,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -40979,7 +40996,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -40998,7 +41015,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -41015,7 +41032,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -41032,7 +41049,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41565,7 +41582,7 @@
   <sheetPr/>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
@@ -41617,14 +41634,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41637,17 +41654,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41657,7 +41674,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41675,7 +41692,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41691,7 +41708,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41707,7 +41724,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41723,7 +41740,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41739,7 +41756,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41757,17 +41774,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41777,7 +41794,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41795,17 +41812,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41817,17 +41834,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41839,7 +41856,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41847,7 +41864,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41857,7 +41874,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -41874,7 +41891,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -41891,7 +41908,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -41910,7 +41927,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -41928,14 +41945,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -41948,14 +41965,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -41966,7 +41983,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -41982,14 +41999,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="28" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -42000,7 +42017,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -42018,7 +42035,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -42027,7 +42044,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42038,7 +42055,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42054,7 +42071,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42070,7 +42087,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42086,7 +42103,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42102,7 +42119,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42120,7 +42137,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42136,7 +42153,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42152,7 +42169,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42168,7 +42185,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42184,7 +42201,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42218,14 +42235,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="28" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42238,7 +42255,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42254,7 +42271,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42270,7 +42287,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42304,7 +42321,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42320,7 +42337,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42338,7 +42355,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42356,7 +42373,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42374,13 +42391,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42391,7 +42408,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42405,7 +42422,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42419,7 +42436,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42433,7 +42450,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42445,7 +42462,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42459,7 +42476,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42473,7 +42490,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42487,7 +42504,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42501,7 +42518,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42515,7 +42532,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42527,7 +42544,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42544,7 +42561,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42556,7 +42573,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42570,7 +42587,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42587,7 +42604,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42604,13 +42621,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42619,7 +42636,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42633,7 +42650,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42651,7 +42668,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42665,13 +42682,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42682,7 +42699,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42696,7 +42713,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42710,7 +42727,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42724,7 +42741,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42736,7 +42753,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -42754,7 +42771,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -42768,13 +42785,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42785,7 +42802,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -42797,7 +42814,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -42811,13 +42828,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42826,7 +42843,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -42838,7 +42855,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -42852,7 +42869,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -42864,7 +42881,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -42876,7 +42893,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -42888,7 +42905,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -42902,13 +42919,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42919,7 +42936,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -42933,7 +42950,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -42947,7 +42964,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -42985,7 +43002,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -42999,7 +43016,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -43013,7 +43030,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -43043,7 +43060,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43057,7 +43074,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43071,7 +43088,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43085,7 +43102,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43099,7 +43116,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43113,7 +43130,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43127,7 +43144,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43141,13 +43158,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43158,7 +43175,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43172,7 +43189,7 @@
         <v>2739</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43186,7 +43203,7 @@
         <v>2745</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -43513,7 +43530,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43745,7 +43762,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43762,7 +43779,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43781,7 +43798,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43800,7 +43817,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43820,7 +43837,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43840,7 +43857,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43861,7 +43878,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43881,7 +43898,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43891,10 +43908,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43926,7 +43943,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43946,7 +43963,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -43966,7 +43983,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -43989,7 +44006,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44009,7 +44026,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44029,19 +44046,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44055,7 +44072,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44073,7 +44090,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44093,7 +44110,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44102,7 +44119,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44116,7 +44133,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44136,7 +44153,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44154,7 +44171,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44174,7 +44191,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44183,10 +44200,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44198,7 +44215,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44218,7 +44235,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44236,7 +44253,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44319,7 +44336,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44339,7 +44356,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44359,7 +44376,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44369,7 +44386,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44381,7 +44398,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44401,7 +44418,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44535,7 +44552,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44549,7 +44566,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44563,7 +44580,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44577,13 +44594,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
@@ -44780,7 +44797,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44802,13 +44819,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44822,13 +44839,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44839,7 +44856,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44853,7 +44870,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44867,7 +44884,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44881,7 +44898,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44904,7 +44921,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44913,7 +44930,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44964,7 +44981,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44985,14 +45002,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45008,7 +45025,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45043,7 +45060,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45052,7 +45069,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45089,7 +45106,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45110,7 +45127,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45120,7 +45137,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46579,7 +46596,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46594,13 +46611,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46641,7 +46658,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46656,7 +46673,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46716,7 +46733,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46729,7 +46746,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46754,7 +46771,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46767,7 +46784,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46780,7 +46797,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46793,7 +46810,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46808,7 +46825,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46823,7 +46840,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46836,7 +46853,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46851,7 +46868,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="8" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="1548">
   <si>
     <t>Date</t>
   </si>
@@ -4750,6 +4750,9 @@
   </si>
   <si>
     <t>to_string</t>
+  </si>
+  <si>
+    <t>Find the Value of the Partition</t>
   </si>
   <si>
     <t>Range Sum Query - Immutable</t>
@@ -5645,12 +5648,12 @@
     <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -25265,7 +25268,7 @@
   <sheetPr/>
   <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
@@ -41588,7 +41591,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="11.4414414414414" style="27"/>
+    <col min="1" max="1" width="11.4414414414414" style="28"/>
     <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
     <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
     <col min="4" max="4" width="9.10810810810811" style="8"/>
@@ -41862,7 +41865,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
         <v>1379</v>
       </c>
@@ -41881,7 +41884,7 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="14"/>
       <c r="I15" s="19"/>
     </row>
@@ -41898,7 +41901,7 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="14"/>
       <c r="I16" s="19"/>
     </row>
@@ -41917,7 +41920,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="14"/>
       <c r="I17" s="19"/>
     </row>
@@ -41933,7 +41936,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="14"/>
       <c r="I18" s="19"/>
     </row>
@@ -42005,7 +42008,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="29" t="s">
         <v>1390</v>
       </c>
       <c r="H22" s="24"/>
@@ -42023,7 +42026,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="24"/>
       <c r="I23" s="19"/>
     </row>
@@ -42041,7 +42044,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
         <v>1393</v>
@@ -42061,7 +42064,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="24"/>
       <c r="I25" s="19"/>
     </row>
@@ -42077,7 +42080,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="24"/>
       <c r="I26" s="19"/>
     </row>
@@ -42093,7 +42096,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="24"/>
       <c r="I27" s="19"/>
     </row>
@@ -42109,7 +42112,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="24"/>
       <c r="I28" s="19"/>
     </row>
@@ -42125,7 +42128,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="24"/>
       <c r="I29" s="19"/>
     </row>
@@ -42143,7 +42146,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="24"/>
       <c r="I30" s="19"/>
     </row>
@@ -42159,7 +42162,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="24"/>
       <c r="I31" s="19"/>
     </row>
@@ -42175,7 +42178,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="24"/>
       <c r="I32" s="19"/>
     </row>
@@ -42191,7 +42194,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="24"/>
       <c r="I33" s="19"/>
     </row>
@@ -42207,7 +42210,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="24"/>
       <c r="I34" s="19"/>
     </row>
@@ -42223,7 +42226,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="24"/>
       <c r="I35" s="19"/>
     </row>
@@ -42241,7 +42244,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="29" t="s">
         <v>1404</v>
       </c>
       <c r="H36" s="24"/>
@@ -42261,7 +42264,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="24"/>
       <c r="I37" s="19"/>
     </row>
@@ -42277,7 +42280,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="24"/>
       <c r="I38" s="19"/>
     </row>
@@ -42295,7 +42298,7 @@
       <c r="E39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="24"/>
       <c r="I39" s="19"/>
     </row>
@@ -42311,7 +42314,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="14"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="24"/>
       <c r="I40" s="19"/>
     </row>
@@ -42327,7 +42330,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="24"/>
       <c r="I41" s="19"/>
     </row>
@@ -42343,7 +42346,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="24"/>
       <c r="I42" s="19"/>
     </row>
@@ -42361,7 +42364,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="14"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="24"/>
       <c r="I43" s="19"/>
     </row>
@@ -42379,7 +42382,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="14"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="24"/>
       <c r="I44" s="19"/>
     </row>
@@ -43196,7 +43199,7 @@
       </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A112" s="29">
+      <c r="A112" s="27">
         <v>45133</v>
       </c>
       <c r="B112" s="12">
@@ -43699,8 +43702,8 @@
   <sheetPr/>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -44603,9 +44606,19 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A50" s="27">
+        <v>45135</v>
+      </c>
+      <c r="B50" s="12">
+        <v>2740</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A51" s="11"/>
@@ -44819,13 +44832,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44839,13 +44852,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44856,7 +44869,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44870,7 +44883,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44884,7 +44897,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44898,7 +44911,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44930,7 +44943,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44981,7 +44994,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45002,14 +45015,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45025,7 +45038,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45060,7 +45073,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45069,7 +45082,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45106,7 +45119,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45127,7 +45140,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45137,7 +45150,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46611,13 +46624,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46658,7 +46671,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46733,7 +46746,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46746,7 +46759,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46771,7 +46784,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46784,7 +46797,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46797,7 +46810,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46810,7 +46823,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46825,7 +46838,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46840,7 +46853,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46853,7 +46866,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46868,7 +46881,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="8" activeTab="22"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1549">
   <si>
     <t>Date</t>
   </si>
@@ -2923,6 +2923,9 @@
   </si>
   <si>
     <t>Check if Array is Good</t>
+  </si>
+  <si>
+    <t>Number of Employees Who Met the Target</t>
   </si>
   <si>
     <t>Longest Palindromic Substring</t>
@@ -13741,8 +13744,8 @@
   <sheetPr/>
   <dimension ref="A1:AV281"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -22025,7 +22028,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" s="1" customFormat="1"/>
+    <row r="276" s="1" customFormat="1" spans="1:4">
+      <c r="A276" s="39">
+        <v>45136</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2798</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="277" s="1" customFormat="1"/>
     <row r="278" s="1" customFormat="1"/>
     <row r="279" s="1" customFormat="1"/>
@@ -25319,7 +25335,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -25334,7 +25350,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -25346,7 +25362,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -25361,13 +25377,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -25378,19 +25394,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -25401,16 +25417,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -25419,7 +25435,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -25433,13 +25449,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:9">
@@ -25450,16 +25466,16 @@
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I10" s="37"/>
     </row>
@@ -25469,7 +25485,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -25484,13 +25500,13 @@
         <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -25501,7 +25517,7 @@
         <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -25513,7 +25529,7 @@
         <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -25530,13 +25546,13 @@
         <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I15" s="35"/>
     </row>
@@ -25546,7 +25562,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -25563,7 +25579,7 @@
         <v>214</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
@@ -25579,13 +25595,13 @@
         <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -25594,7 +25610,7 @@
         <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -25609,7 +25625,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -25621,7 +25637,7 @@
         <v>306</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -25635,13 +25651,13 @@
         <v>383</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -25652,7 +25668,7 @@
         <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -25664,7 +25680,7 @@
         <v>408</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -25673,7 +25689,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -25684,7 +25700,7 @@
         <v>415</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -25696,7 +25712,7 @@
         <v>420</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -25710,16 +25726,16 @@
         <v>434</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I27" s="37"/>
     </row>
@@ -25731,7 +25747,7 @@
         <v>443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -25746,16 +25762,16 @@
         <v>459</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -25764,7 +25780,7 @@
         <v>468</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -25779,13 +25795,13 @@
         <v>482</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H31" s="30"/>
     </row>
@@ -25797,13 +25813,13 @@
         <v>500</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -25814,13 +25830,13 @@
         <v>520</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -25831,7 +25847,7 @@
         <v>521</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -25845,7 +25861,7 @@
         <v>522</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -25859,13 +25875,13 @@
         <v>524</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -25874,7 +25890,7 @@
         <v>527</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -25891,7 +25907,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -25905,13 +25921,13 @@
         <v>541</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -25922,7 +25938,7 @@
         <v>551</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -25931,7 +25947,7 @@
         <v>434</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H40" s="30"/>
     </row>
@@ -25941,7 +25957,7 @@
         <v>556</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -25956,13 +25972,13 @@
         <v>557</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -25971,7 +25987,7 @@
         <v>564</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -25983,7 +25999,7 @@
         <v>591</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -25995,7 +26011,7 @@
         <v>616</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -26012,7 +26028,7 @@
         <v>647</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -26026,7 +26042,7 @@
         <v>648</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -26040,13 +26056,13 @@
         <v>657</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -26055,7 +26071,7 @@
         <v>678</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -26069,7 +26085,7 @@
         <v>680</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -26081,7 +26097,7 @@
         <v>681</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -26095,7 +26111,7 @@
         <v>686</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -26109,7 +26125,7 @@
         <v>696</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -26123,7 +26139,7 @@
         <v>709</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -26137,7 +26153,7 @@
         <v>720</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -26146,7 +26162,7 @@
         <v>90</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -26155,7 +26171,7 @@
         <v>722</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -26167,7 +26183,7 @@
         <v>751</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -26179,7 +26195,7 @@
         <v>758</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -26188,7 +26204,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -26199,7 +26215,7 @@
         <v>791</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -26213,13 +26229,13 @@
         <v>796</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -26230,13 +26246,13 @@
         <v>804</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -26247,13 +26263,13 @@
         <v>806</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -26261,7 +26277,7 @@
         <v>809</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -26272,7 +26288,7 @@
         <v>816</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -26286,7 +26302,7 @@
         <v>819</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -26300,7 +26316,7 @@
         <v>820</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -26314,7 +26330,7 @@
         <v>824</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -26325,7 +26341,7 @@
         <v>831</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -26336,7 +26352,7 @@
         <v>833</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -26347,7 +26363,7 @@
         <v>839</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>16</v>
@@ -26361,7 +26377,7 @@
         <v>848</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -26375,13 +26391,13 @@
         <v>859</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -26389,7 +26405,7 @@
         <v>880</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -26403,7 +26419,7 @@
         <v>884</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -26414,7 +26430,7 @@
         <v>890</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -26428,13 +26444,13 @@
         <v>893</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -26442,7 +26458,7 @@
         <v>916</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -26456,7 +26472,7 @@
         <v>917</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -26470,7 +26486,7 @@
         <v>925</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -26484,7 +26500,7 @@
         <v>929</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -26495,7 +26511,7 @@
         <v>939</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -26509,7 +26525,7 @@
         <v>942</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -26523,7 +26539,7 @@
         <v>944</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -26537,7 +26553,7 @@
         <v>953</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -26548,7 +26564,7 @@
         <v>955</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -26559,7 +26575,7 @@
         <v>1016</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -26570,7 +26586,7 @@
         <v>1023</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -26584,7 +26600,7 @@
         <v>1056</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -26593,7 +26609,7 @@
         <v>24</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -26601,7 +26617,7 @@
         <v>1061</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -26618,13 +26634,13 @@
         <v>1071</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -26635,7 +26651,7 @@
         <v>1078</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -26646,7 +26662,7 @@
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -26663,13 +26679,13 @@
         <v>1108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -26680,7 +26696,7 @@
         <v>1119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -26694,7 +26710,7 @@
         <v>1147</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -26730,7 +26746,7 @@
         <v>1177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -26741,7 +26757,7 @@
         <v>1178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>16</v>
@@ -26755,7 +26771,7 @@
         <v>1189</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -26766,7 +26782,7 @@
         <v>1233</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -26777,7 +26793,7 @@
         <v>1234</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -26791,7 +26807,7 @@
         <v>1271</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -26805,7 +26821,7 @@
         <v>1297</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -26819,7 +26835,7 @@
         <v>1309</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -26830,7 +26846,7 @@
         <v>1324</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -26841,7 +26857,7 @@
         <v>1328</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -26855,7 +26871,7 @@
         <v>1332</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
@@ -26869,7 +26885,7 @@
         <v>1347</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -26880,7 +26896,7 @@
         <v>1358</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -26894,7 +26910,7 @@
         <v>1370</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -26905,7 +26921,7 @@
         <v>1371</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -26919,7 +26935,7 @@
         <v>1374</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -26930,7 +26946,7 @@
         <v>1392</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>16</v>
@@ -26944,7 +26960,7 @@
         <v>1400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -26958,7 +26974,7 @@
         <v>1408</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -26972,7 +26988,7 @@
         <v>1410</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -26986,7 +27002,7 @@
         <v>1417</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -27014,7 +27030,7 @@
         <v>1436</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -27028,7 +27044,7 @@
         <v>1446</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -27042,7 +27058,7 @@
         <v>1455</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -27053,7 +27069,7 @@
         <v>1461</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -27067,7 +27083,7 @@
         <v>1496</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
@@ -27081,7 +27097,7 @@
         <v>1507</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -27095,7 +27111,7 @@
         <v>1528</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
@@ -27109,7 +27125,7 @@
         <v>1529</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -27120,7 +27136,7 @@
         <v>1540</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -27131,7 +27147,7 @@
         <v>1542</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>16</v>
@@ -27145,7 +27161,7 @@
         <v>1544</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -27156,7 +27172,7 @@
         <v>1545</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -27167,7 +27183,7 @@
         <v>1554</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -27181,7 +27197,7 @@
         <v>1556</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>11</v>
@@ -27192,7 +27208,7 @@
         <v>1573</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -27206,7 +27222,7 @@
         <v>1576</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
@@ -27220,7 +27236,7 @@
         <v>1592</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>11</v>
@@ -27234,7 +27250,7 @@
         <v>1598</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>11</v>
@@ -27248,7 +27264,7 @@
         <v>1614</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
@@ -27262,7 +27278,7 @@
         <v>1624</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
@@ -27273,7 +27289,7 @@
         <v>1638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -27287,7 +27303,7 @@
         <v>1662</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>11</v>
@@ -27301,7 +27317,7 @@
         <v>1668</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>11</v>
@@ -27315,7 +27331,7 @@
         <v>1678</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
@@ -27329,7 +27345,7 @@
         <v>1684</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
@@ -27343,7 +27359,7 @@
         <v>1694</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
@@ -27357,7 +27373,7 @@
         <v>1704</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>11</v>
@@ -27374,7 +27390,7 @@
         <v>1758</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
@@ -27388,7 +27404,7 @@
         <v>1763</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
@@ -27402,7 +27418,7 @@
         <v>1768</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>11</v>
@@ -27416,7 +27432,7 @@
         <v>1784</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
@@ -27430,7 +27446,7 @@
         <v>1790</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
@@ -27444,7 +27460,7 @@
         <v>1796</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>11</v>
@@ -27458,7 +27474,7 @@
         <v>1816</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
@@ -27472,13 +27488,13 @@
         <v>1832</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27489,7 +27505,7 @@
         <v>1844</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>11</v>
@@ -27503,7 +27519,7 @@
         <v>1859</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -27517,7 +27533,7 @@
         <v>1869</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
@@ -27531,7 +27547,7 @@
         <v>1876</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
@@ -27545,7 +27561,7 @@
         <v>1880</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
@@ -27559,7 +27575,7 @@
         <v>1897</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
@@ -27573,7 +27589,7 @@
         <v>1903</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -27587,7 +27603,7 @@
         <v>1910</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -27601,7 +27617,7 @@
         <v>1933</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
@@ -27615,13 +27631,13 @@
         <v>1935</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -27632,7 +27648,7 @@
         <v>1941</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>11</v>
@@ -27646,7 +27662,7 @@
         <v>1945</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
@@ -27660,7 +27676,7 @@
         <v>1961</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -27674,7 +27690,7 @@
         <v>1967</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
@@ -27688,7 +27704,7 @@
         <v>1974</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
@@ -27702,7 +27718,7 @@
         <v>2000</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
@@ -27716,7 +27732,7 @@
         <v>2011</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -27730,7 +27746,7 @@
         <v>2027</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
@@ -27744,7 +27760,7 @@
         <v>2042</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>11</v>
@@ -27758,7 +27774,7 @@
         <v>2062</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
@@ -27772,7 +27788,7 @@
         <v>2063</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -27786,7 +27802,7 @@
         <v>2068</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>11</v>
@@ -27800,7 +27816,7 @@
         <v>2083</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -27814,7 +27830,7 @@
         <v>2103</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>11</v>
@@ -27828,7 +27844,7 @@
         <v>2108</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -27842,7 +27858,7 @@
         <v>2109</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -27856,7 +27872,7 @@
         <v>2114</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>11</v>
@@ -27870,13 +27886,13 @@
         <v>2124</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -27887,7 +27903,7 @@
         <v>2129</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
@@ -27901,7 +27917,7 @@
         <v>2138</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>11</v>
@@ -27915,7 +27931,7 @@
         <v>2185</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>11</v>
@@ -27929,7 +27945,7 @@
         <v>2186</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -27943,7 +27959,7 @@
         <v>2194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>11</v>
@@ -27957,7 +27973,7 @@
         <v>2224</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>11</v>
@@ -27971,7 +27987,7 @@
         <v>2255</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>11</v>
@@ -27985,7 +28001,7 @@
         <v>2259</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>11</v>
@@ -27999,7 +28015,7 @@
         <v>2278</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>11</v>
@@ -28025,7 +28041,7 @@
         <v>2423</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
@@ -28039,7 +28055,7 @@
         <v>2678</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
@@ -28053,7 +28069,7 @@
         <v>2744</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -28067,7 +28083,7 @@
         <v>2785</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>13</v>
@@ -28081,7 +28097,7 @@
         <v>2788</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
@@ -28927,7 +28943,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -28950,7 +28966,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -28970,7 +28986,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -28990,7 +29006,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -29010,7 +29026,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -29028,7 +29044,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -29046,7 +29062,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29064,7 +29080,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29084,7 +29100,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29102,7 +29118,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29120,7 +29136,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29138,7 +29154,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29156,7 +29172,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29230,7 +29246,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29248,7 +29264,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29268,7 +29284,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29280,7 +29296,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29293,7 +29309,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29313,7 +29329,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29336,7 +29352,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29357,7 +29373,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29378,7 +29394,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29398,7 +29414,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29416,7 +29432,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29434,7 +29450,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29452,7 +29468,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29470,7 +29486,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29506,7 +29522,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29526,7 +29542,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29535,7 +29551,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29546,7 +29562,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29564,7 +29580,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29586,7 +29602,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29595,7 +29611,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29611,7 +29627,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29637,7 +29653,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29652,7 +29668,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29666,7 +29682,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29680,7 +29696,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29692,7 +29708,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29706,7 +29722,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29718,7 +29734,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29730,7 +29746,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29744,7 +29760,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29758,7 +29774,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -31059,7 +31075,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31077,7 +31093,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31099,7 +31115,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31119,7 +31135,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31139,7 +31155,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31157,7 +31173,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31175,7 +31191,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31193,7 +31209,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31209,7 +31225,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32650,7 +32666,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32671,7 +32687,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32689,7 +32705,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32707,7 +32723,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32725,7 +32741,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32746,7 +32762,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32757,7 +32773,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32767,7 +32783,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32788,7 +32804,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32806,7 +32822,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32824,7 +32840,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32842,7 +32858,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32860,7 +32876,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32878,7 +32894,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -32898,7 +32914,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -32919,7 +32935,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -32938,7 +32954,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -32959,7 +32975,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -32979,7 +32995,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -32997,7 +33013,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -33017,7 +33033,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -33037,7 +33053,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33057,7 +33073,7 @@
         <v>556</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
@@ -33087,7 +33103,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33107,7 +33123,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33125,7 +33141,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33143,7 +33159,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33161,7 +33177,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33181,7 +33197,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33199,7 +33215,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33217,7 +33233,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33235,7 +33251,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33253,7 +33269,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33271,7 +33287,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33289,7 +33305,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33307,7 +33323,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33327,7 +33343,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33345,7 +33361,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33363,7 +33379,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33381,7 +33397,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33401,7 +33417,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33421,7 +33437,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33442,7 +33458,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33462,7 +33478,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33480,7 +33496,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33500,7 +33516,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34750,7 +34766,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34768,7 +34784,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34788,7 +34804,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -34803,7 +34819,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -34818,7 +34834,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34833,7 +34849,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34842,10 +34858,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -34857,14 +34873,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34875,7 +34891,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -34895,7 +34911,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -34913,7 +34929,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -34931,7 +34947,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34951,7 +34967,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34971,7 +34987,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -35007,7 +35023,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -35025,7 +35041,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -35043,7 +35059,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35061,7 +35077,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35101,7 +35117,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35119,7 +35135,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35139,7 +35155,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35157,7 +35173,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35180,7 +35196,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35201,7 +35217,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35220,7 +35236,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35240,7 +35256,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35262,7 +35278,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35298,7 +35314,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35318,7 +35334,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35338,7 +35354,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35356,7 +35372,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35374,7 +35390,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35392,7 +35408,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35412,7 +35428,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35432,7 +35448,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35452,7 +35468,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35461,10 +35477,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35476,7 +35492,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35494,7 +35510,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35506,7 +35522,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35518,7 +35534,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35533,7 +35549,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35557,7 +35573,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35571,7 +35587,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35583,7 +35599,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35597,7 +35613,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35611,7 +35627,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35623,7 +35639,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35635,7 +35651,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35647,7 +35663,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35659,7 +35675,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35671,7 +35687,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35683,7 +35699,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35695,7 +35711,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35709,7 +35725,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35721,7 +35737,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35733,7 +35749,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35747,7 +35763,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35759,7 +35775,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35771,7 +35787,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -35783,7 +35799,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35795,7 +35811,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35846,7 +35862,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -35897,7 +35913,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -35950,7 +35966,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -36003,7 +36019,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -36054,7 +36070,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36105,7 +36121,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36156,7 +36172,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36209,7 +36225,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36260,7 +36276,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36313,7 +36329,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36364,7 +36380,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36415,7 +36431,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36468,7 +36484,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36519,7 +36535,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36572,7 +36588,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36674,7 +36690,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36778,7 +36794,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -36936,7 +36952,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -36989,7 +37005,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37091,7 +37107,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37144,7 +37160,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37153,7 +37169,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37253,7 +37269,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37304,7 +37320,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37357,7 +37373,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37410,7 +37426,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37514,7 +37530,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37612,7 +37628,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -40791,7 +40807,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40808,7 +40824,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40825,7 +40841,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40842,7 +40858,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40861,7 +40877,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40878,7 +40894,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -40895,7 +40911,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -40912,7 +40928,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -40931,7 +40947,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -40948,7 +40964,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -40965,7 +40981,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -40982,7 +40998,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -40999,7 +41015,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -41018,7 +41034,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -41035,7 +41051,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -41052,7 +41068,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41637,14 +41653,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41657,17 +41673,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41677,7 +41693,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41695,7 +41711,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41711,7 +41727,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41727,7 +41743,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41743,7 +41759,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41759,7 +41775,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41777,17 +41793,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41797,7 +41813,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41815,17 +41831,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41837,17 +41853,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41859,7 +41875,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41867,7 +41883,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41877,7 +41893,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -41894,7 +41910,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -41911,7 +41927,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -41930,7 +41946,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -41948,14 +41964,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -41968,14 +41984,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -41986,7 +42002,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -42002,14 +42018,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -42020,7 +42036,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -42038,7 +42054,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -42047,7 +42063,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42058,7 +42074,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42074,7 +42090,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42090,7 +42106,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42106,7 +42122,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42122,7 +42138,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42140,7 +42156,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42156,7 +42172,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42172,7 +42188,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42188,7 +42204,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42204,7 +42220,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42238,14 +42254,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42258,7 +42274,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42274,7 +42290,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42290,7 +42306,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42324,7 +42340,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42340,7 +42356,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42358,7 +42374,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42376,7 +42392,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42394,13 +42410,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42411,7 +42427,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42425,7 +42441,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42439,7 +42455,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42453,7 +42469,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42465,7 +42481,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42479,7 +42495,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42493,7 +42509,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42507,7 +42523,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42521,7 +42537,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42535,7 +42551,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42547,7 +42563,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42564,7 +42580,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42576,7 +42592,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42590,7 +42606,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42607,7 +42623,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42624,13 +42640,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42639,7 +42655,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42653,7 +42669,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42671,7 +42687,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42685,13 +42701,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42702,7 +42718,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42716,7 +42732,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42730,7 +42746,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42744,7 +42760,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42756,7 +42772,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -42774,7 +42790,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -42788,13 +42804,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42805,7 +42821,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -42817,7 +42833,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -42831,13 +42847,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42846,7 +42862,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -42858,7 +42874,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -42872,7 +42888,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -42884,7 +42900,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -42896,7 +42912,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -42908,7 +42924,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -42922,13 +42938,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42939,7 +42955,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -42953,7 +42969,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -42967,7 +42983,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -43005,7 +43021,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -43019,7 +43035,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -43033,7 +43049,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -43063,7 +43079,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43077,7 +43093,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43091,7 +43107,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43105,7 +43121,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43119,7 +43135,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43133,7 +43149,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43147,7 +43163,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43161,13 +43177,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43178,7 +43194,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43192,7 +43208,7 @@
         <v>2739</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43206,7 +43222,7 @@
         <v>2745</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -43533,7 +43549,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43702,7 +43718,7 @@
   <sheetPr/>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -43765,7 +43781,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43782,7 +43798,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43801,7 +43817,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43820,7 +43836,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43840,7 +43856,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43860,7 +43876,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43881,7 +43897,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43901,7 +43917,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43911,10 +43927,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43946,7 +43962,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43966,7 +43982,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -43986,7 +44002,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44009,7 +44025,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44029,7 +44045,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44049,19 +44065,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44075,7 +44091,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44093,7 +44109,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44113,7 +44129,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44122,7 +44138,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44136,7 +44152,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44156,7 +44172,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44174,7 +44190,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44194,7 +44210,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44203,10 +44219,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44218,7 +44234,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44238,7 +44254,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44256,7 +44272,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44339,7 +44355,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44359,7 +44375,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44379,7 +44395,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44389,7 +44405,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44401,7 +44417,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44421,7 +44437,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44555,7 +44571,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44569,7 +44585,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44583,7 +44599,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44597,13 +44613,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44614,7 +44630,7 @@
         <v>2740</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -44810,7 +44826,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44832,13 +44848,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44852,13 +44868,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44869,7 +44885,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44883,7 +44899,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44897,7 +44913,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44911,7 +44927,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44934,7 +44950,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44943,7 +44959,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -44994,7 +45010,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45015,14 +45031,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45038,7 +45054,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45073,7 +45089,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45082,7 +45098,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45119,7 +45135,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45140,7 +45156,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45150,7 +45166,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46609,7 +46625,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46624,13 +46640,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46671,7 +46687,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46686,7 +46702,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46731,7 +46747,7 @@
         <v>1371</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -46746,7 +46762,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46759,7 +46775,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46772,7 +46788,7 @@
         <v>1542</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -46784,7 +46800,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46797,7 +46813,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46810,7 +46826,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46823,7 +46839,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46838,7 +46854,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46853,7 +46869,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46866,7 +46882,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46881,7 +46897,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1550">
   <si>
     <t>Date</t>
   </si>
@@ -4621,6 +4621,9 @@
   </si>
   <si>
     <t>Largest Number After Digit Swaps by Parity</t>
+  </si>
+  <si>
+    <t>Pass the Pillow</t>
   </si>
   <si>
     <t>Total Distance Traveled</t>
@@ -13744,7 +13747,7 @@
   <sheetPr/>
   <dimension ref="A1:AV281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
@@ -41599,10 +41602,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -43202,10 +43205,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A111" s="4">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B111" s="12">
-        <v>2739</v>
+        <v>2582</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1473</v>
@@ -43215,11 +43218,11 @@
       </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A112" s="27">
-        <v>45133</v>
+      <c r="A112" s="4">
+        <v>45131</v>
       </c>
       <c r="B112" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1474</v>
@@ -43228,9 +43231,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
+    <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A113" s="27">
+        <v>45133</v>
+      </c>
+      <c r="B113" s="12">
+        <v>2745</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A114" s="11"/>
@@ -43243,6 +43256,10 @@
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -43340,7 +43357,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F116">
+  <conditionalFormatting sqref="F107:F117">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -43350,94 +43367,94 @@
     <cfRule type="containsText" priority="3" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F107)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G118:XFD1048576 A118:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="56" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F88 F90:F105 F118:F1048576">
+    <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
+      <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="32" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A117:E1048576 G117:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="54" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="56" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F117:F1048576">
-    <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
-      <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="32" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="41" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="35" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="41" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:XFD106 A106:E106">
@@ -43462,7 +43479,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD116 A107:E116">
+  <conditionalFormatting sqref="G107:XFD117 A107:E117">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -43549,7 +43566,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43781,7 +43798,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43798,7 +43815,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43817,7 +43834,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43836,7 +43853,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43856,7 +43873,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43876,7 +43893,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43897,7 +43914,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43917,7 +43934,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43927,10 +43944,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43962,7 +43979,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -43982,7 +43999,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44002,7 +44019,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44025,7 +44042,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44045,7 +44062,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44065,19 +44082,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44091,7 +44108,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44109,7 +44126,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44129,7 +44146,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44138,7 +44155,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44152,7 +44169,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44172,7 +44189,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44190,7 +44207,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44210,7 +44227,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44219,10 +44236,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44234,7 +44251,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44254,7 +44271,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44272,7 +44289,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44355,7 +44372,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44375,7 +44392,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44395,7 +44412,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44405,7 +44422,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44417,7 +44434,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44437,7 +44454,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44571,7 +44588,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44585,7 +44602,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44599,7 +44616,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44613,13 +44630,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44630,7 +44647,7 @@
         <v>2740</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -44848,13 +44865,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44868,13 +44885,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44885,7 +44902,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44899,7 +44916,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -44913,7 +44930,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44927,7 +44944,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44959,7 +44976,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45010,7 +45027,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45031,14 +45048,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45054,7 +45071,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45089,7 +45106,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45098,7 +45115,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45135,7 +45152,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45156,7 +45173,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45166,7 +45183,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46640,13 +46657,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46687,7 +46704,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46702,7 +46719,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46762,7 +46779,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46775,7 +46792,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46800,7 +46817,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46813,7 +46830,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46826,7 +46843,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46839,7 +46856,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46854,7 +46871,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46869,7 +46886,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46882,7 +46899,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46897,7 +46914,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20297" windowHeight="11545" tabRatio="991" firstSheet="8" activeTab="20"/>
+    <workbookView windowHeight="14544" tabRatio="991" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -6256,17 +6256,17 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.1081081081081" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="12" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="1"/>
-    <col min="5" max="7" width="17.1081081081081" style="1" customWidth="1"/>
-    <col min="8" max="8" width="58.4414414414414" style="1" customWidth="1"/>
-    <col min="9" max="9" width="69.1081081081081" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5585585585586" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.10810810810811" style="1"/>
+    <col min="1" max="1" width="10.1111111111111" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="12" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="1"/>
+    <col min="5" max="7" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.1111111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5555555555556" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.11111111111111" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6656,7 +6656,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" s="8" customFormat="1" ht="14.1" spans="1:11">
+    <row r="22" s="8" customFormat="1" ht="13.8" spans="1:11">
       <c r="A22" s="4">
         <v>44512</v>
       </c>
@@ -7491,19 +7491,19 @@
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.1081081081081" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="6" max="6" width="39.8918918918919" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="1" max="1" width="10.1111111111111" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="6" max="6" width="39.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8115,7 +8115,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="30" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A30" s="11"/>
       <c r="B30" s="12">
         <v>340</v>
@@ -8130,7 +8130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="31" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
         <v>356</v>
@@ -8145,7 +8145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="32" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A32" s="4">
         <v>43690</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="33" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A33" s="11"/>
       <c r="B33" s="12">
         <v>388</v>
@@ -8171,7 +8171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="34" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A34" s="4">
         <v>43689</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="35" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A35" s="4">
         <v>44463</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="36" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="12">
         <v>424</v>
@@ -8211,7 +8211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A37" s="4">
         <v>43922</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A38" s="4">
         <v>43705</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="12">
         <v>454</v>
@@ -8254,7 +8254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
         <v>470</v>
@@ -8266,7 +8266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A41" s="11"/>
       <c r="B41" s="12">
         <v>473</v>
@@ -8278,7 +8278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A42" s="4">
         <v>44365</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:6">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A43" s="4">
         <v>44371</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
         <v>523</v>
@@ -8324,7 +8324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A45" s="4">
         <v>43698</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>554</v>
@@ -8350,7 +8350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A47" s="11"/>
       <c r="B47" s="12">
         <v>560</v>
@@ -8362,7 +8362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A48" s="4">
         <v>43698</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A49" s="4">
         <v>43698</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A50" s="4">
         <v>43698</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A51" s="4">
         <v>43698</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
         <v>609</v>
@@ -8430,7 +8430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
         <v>721</v>
@@ -11059,21 +11059,21 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.10810810810811" style="2"/>
+    <col min="1" max="1" width="9.77777777777778" style="2"/>
     <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5585585585586" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="1"/>
-    <col min="5" max="5" width="14.5585585585586" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="1"/>
+    <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5585585585586" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5585585585586" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.10810810810811" style="1"/>
+    <col min="7" max="7" width="46.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.11111111111111" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11157,7 +11157,9 @@
       <c r="H5" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
+      <c r="A8" s="27">
+        <v>45138</v>
+      </c>
       <c r="B8" s="1">
         <v>108</v>
       </c>
@@ -11165,7 +11167,7 @@
         <v>488</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="30"/>
     </row>
@@ -11509,19 +11511,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.10810810810811" style="6"/>
-    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.11111111111111" style="6"/>
+    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12520,83 +12522,83 @@
       <c r="J58" s="24"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="65" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="66" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="67" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="68" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="69" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="70" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="71" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="72" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="73" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="74" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="75" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="76" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="77" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="78" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
     </row>
@@ -12669,15 +12671,15 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.44144144144144" style="59" customWidth="1"/>
-    <col min="2" max="2" width="9.10810810810811" style="60"/>
+    <col min="1" max="1" width="9.44444444444444" style="59" customWidth="1"/>
+    <col min="2" max="2" width="9.11111111111111" style="60"/>
     <col min="3" max="3" width="63" style="60" customWidth="1"/>
     <col min="4" max="5" width="13.6666666666667" style="60" customWidth="1"/>
     <col min="6" max="6" width="69.3333333333333" style="60" customWidth="1"/>
-    <col min="7" max="7" width="59.1081081081081" style="60" customWidth="1"/>
-    <col min="8" max="16384" width="9.10810810810811" style="60"/>
+    <col min="7" max="7" width="59.1111111111111" style="60" customWidth="1"/>
+    <col min="8" max="16384" width="9.11111111111111" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12802,7 +12804,7 @@
       </c>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" s="58" customFormat="1" ht="25.7" spans="1:7">
+    <row r="7" s="58" customFormat="1" ht="26.4" spans="1:7">
       <c r="A7" s="63">
         <v>43669</v>
       </c>
@@ -12916,7 +12918,7 @@
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" s="58" customFormat="1" ht="51.45" spans="1:7">
+    <row r="13" s="58" customFormat="1" ht="52.8" spans="1:7">
       <c r="A13" s="63">
         <v>43671</v>
       </c>
@@ -12937,7 +12939,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="14" s="58" customFormat="1" ht="25.3" spans="1:7">
+    <row r="14" s="58" customFormat="1" ht="25.2" spans="1:7">
       <c r="A14" s="66"/>
       <c r="B14" s="16">
         <v>393</v>
@@ -13022,7 +13024,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="19" s="58" customFormat="1" ht="64.3" spans="1:7">
+    <row r="19" s="58" customFormat="1" ht="66" spans="1:7">
       <c r="A19" s="16"/>
       <c r="B19" s="16">
         <v>462</v>
@@ -13079,7 +13081,7 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" s="58" customFormat="1" spans="1:7">
+    <row r="22" s="58" customFormat="1" ht="25.2" spans="1:7">
       <c r="A22" s="63">
         <v>43672</v>
       </c>
@@ -13121,7 +13123,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="24" s="58" customFormat="1" ht="25.7" spans="1:7">
+    <row r="24" s="58" customFormat="1" ht="26.4" spans="1:7">
       <c r="A24" s="63">
         <v>43672</v>
       </c>
@@ -13751,17 +13753,17 @@
       <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" style="42" customWidth="1"/>
     <col min="2" max="2" width="9" style="42"/>
-    <col min="3" max="3" width="61.1081081081081" style="42" customWidth="1"/>
+    <col min="3" max="3" width="61.1111111111111" style="42" customWidth="1"/>
     <col min="4" max="4" width="9" style="42"/>
-    <col min="5" max="5" width="14.8918918918919" style="42" customWidth="1"/>
-    <col min="6" max="6" width="20.4414414414414" style="43" customWidth="1"/>
+    <col min="5" max="5" width="14.8888888888889" style="42" customWidth="1"/>
+    <col min="6" max="6" width="20.4444444444444" style="43" customWidth="1"/>
     <col min="7" max="7" width="67.3333333333333" style="42" customWidth="1"/>
-    <col min="8" max="8" width="91.4414414414414" style="42" customWidth="1"/>
-    <col min="9" max="9" width="33.4414414414414" style="42" customWidth="1"/>
+    <col min="8" max="8" width="91.4444444444444" style="42" customWidth="1"/>
+    <col min="9" max="9" width="33.4444444444444" style="42" customWidth="1"/>
     <col min="10" max="11" width="9" style="42"/>
     <col min="12" max="16384" width="9" style="44"/>
   </cols>
@@ -13868,7 +13870,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" ht="25.7" spans="1:9">
+    <row r="6" ht="26.4" spans="1:9">
       <c r="A6" s="26">
         <v>43675</v>
       </c>
@@ -20264,7 +20266,7 @@
       <c r="G171" s="46"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" s="8" customFormat="1" ht="14.1" spans="1:11">
+    <row r="172" s="8" customFormat="1" ht="13.8" spans="1:11">
       <c r="A172" s="4">
         <v>43969</v>
       </c>
@@ -25291,17 +25293,17 @@
       <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" style="1"/>
-    <col min="2" max="2" width="9.10810810810811" style="1"/>
-    <col min="3" max="3" width="50.4414414414414" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.11111111111111" style="1"/>
+    <col min="3" max="3" width="50.4444444444444" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.4414414414414" style="1" customWidth="1"/>
-    <col min="7" max="7" width="76.1081081081081" style="34" customWidth="1"/>
-    <col min="8" max="8" width="62.8918918918919" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="76.1111111111111" style="34" customWidth="1"/>
+    <col min="8" max="8" width="62.8888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9.10810810810811" style="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28888,19 +28890,19 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.1081081081081" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -29622,7 +29624,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A37" s="4">
         <v>43886</v>
       </c>
@@ -29636,7 +29638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A38" s="11"/>
       <c r="B38" s="12">
         <v>1367</v>
@@ -29648,7 +29650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A39" s="4">
         <v>44524</v>
       </c>
@@ -29665,7 +29667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
         <v>1634</v>
@@ -29677,7 +29679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A41" s="4">
         <v>44529</v>
       </c>
@@ -29691,7 +29693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A42" s="4">
         <v>44536</v>
       </c>
@@ -29705,7 +29707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
         <v>1836</v>
@@ -29717,7 +29719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A44" s="4">
         <v>44529</v>
       </c>
@@ -29731,7 +29733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <v>2058</v>
@@ -29743,7 +29745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>2074</v>
@@ -29755,7 +29757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A47" s="4">
         <v>44570</v>
       </c>
@@ -29769,7 +29771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A48" s="4">
         <v>44612</v>
       </c>
@@ -29783,47 +29785,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
@@ -31022,19 +31024,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.10810810810811" style="6"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.11111111111111" style="6"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -31459,87 +31461,87 @@
       <c r="J28" s="24"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="29" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="30" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="31" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="32" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="33" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="34" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="35" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="36" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
@@ -32611,19 +32613,19 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.89189189189189" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -33543,7 +33545,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" ht="14.55" spans="1:11">
+    <row r="50" ht="14.4" spans="1:11">
       <c r="A50" s="11"/>
       <c r="B50"/>
       <c r="C50" s="14"/>
@@ -33555,87 +33557,87 @@
       <c r="J50" s="24"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="65" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="66" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="67" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="68" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="69" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="70" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="71" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
     </row>
@@ -34708,22 +34710,22 @@
   <dimension ref="A1:AR126"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.8918918918919" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.8888888888889" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
     <col min="3" max="3" width="69.6666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.1081081081081" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -34799,7 +34801,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A4" s="4">
         <v>44622</v>
       </c>
@@ -34814,7 +34816,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A5" s="4">
         <v>44622</v>
       </c>
@@ -34829,7 +34831,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A6" s="4">
         <v>44621</v>
       </c>
@@ -34868,7 +34870,7 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A8" s="4">
         <v>44635</v>
       </c>
@@ -35507,7 +35509,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A41" s="11"/>
       <c r="B41" s="12">
         <v>655</v>
@@ -35519,7 +35521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A42" s="11"/>
       <c r="B42" s="12">
         <v>662</v>
@@ -35531,7 +35533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
         <v>663</v>
@@ -35546,7 +35548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
         <v>677</v>
@@ -35558,7 +35560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <v>684</v>
@@ -35570,7 +35572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>685</v>
@@ -35582,7 +35584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A47" s="4">
         <v>44635</v>
       </c>
@@ -35596,7 +35598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A48" s="11"/>
       <c r="B48" s="12">
         <v>699</v>
@@ -35608,7 +35610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A49" s="4">
         <v>43943</v>
       </c>
@@ -35622,7 +35624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A50" s="4">
         <v>44511</v>
       </c>
@@ -35636,7 +35638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A51" s="11"/>
       <c r="B51" s="12">
         <v>814</v>
@@ -35648,7 +35650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
         <v>850</v>
@@ -35660,7 +35662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
         <v>863</v>
@@ -35672,7 +35674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A54" s="11"/>
       <c r="B54" s="12">
         <v>866</v>
@@ -35684,7 +35686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A55" s="11"/>
       <c r="B55" s="12">
         <v>889</v>
@@ -35696,7 +35698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A56" s="11"/>
       <c r="B56" s="12">
         <v>897</v>
@@ -35708,7 +35710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A57" s="11"/>
       <c r="B57" s="12">
         <v>919</v>
@@ -35720,7 +35722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A58" s="4">
         <v>43915</v>
       </c>
@@ -35734,7 +35736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A59" s="11"/>
       <c r="B59" s="12">
         <v>951</v>
@@ -35746,7 +35748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A60" s="11"/>
       <c r="B60" s="12">
         <v>958</v>
@@ -35758,7 +35760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A61" s="4">
         <v>43917</v>
       </c>
@@ -35772,7 +35774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <v>971</v>
@@ -35784,7 +35786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A63" s="11"/>
       <c r="B63" s="12">
         <v>979</v>
@@ -35796,7 +35798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" s="17" customFormat="1" ht="12.85" spans="1:4">
+    <row r="64" s="17" customFormat="1" ht="13.2" spans="1:4">
       <c r="A64" s="5"/>
       <c r="B64" s="32">
         <v>987</v>
@@ -39311,20 +39313,20 @@
       <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
     <col min="5" max="5" width="11.6666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5585585585586" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5555555555556" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.6666666666667" style="8" customWidth="1"/>
     <col min="9" max="9" width="40.3333333333333" style="9" customWidth="1"/>
-    <col min="10" max="10" width="33.4414414414414" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="10" max="10" width="33.4444444444444" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -39400,7 +39402,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A4" s="4">
         <v>44567</v>
       </c>
@@ -39987,7 +39989,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="34" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A34" s="4">
         <v>44384</v>
       </c>
@@ -40001,7 +40003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="35" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A35" s="11"/>
       <c r="B35" s="12">
         <v>802</v>
@@ -40013,7 +40015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="36" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="12">
         <v>827</v>
@@ -40025,7 +40027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A37" s="11"/>
       <c r="B37" s="12">
         <v>834</v>
@@ -40037,7 +40039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A38" s="4">
         <v>44549</v>
       </c>
@@ -40051,7 +40053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="12">
         <v>851</v>
@@ -40063,7 +40065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
         <v>913</v>
@@ -40075,7 +40077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A41" s="4">
         <v>43914</v>
       </c>
@@ -40089,7 +40091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A42" s="11"/>
       <c r="B42" s="12">
         <v>1059</v>
@@ -40104,7 +40106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
         <v>1192</v>
@@ -40116,7 +40118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
         <v>1202</v>
@@ -40128,7 +40130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A45" s="4">
         <v>43914</v>
       </c>
@@ -40145,7 +40147,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>1273</v>
@@ -40157,7 +40159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A47" s="4">
         <v>43942</v>
       </c>
@@ -40171,7 +40173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A48" s="11"/>
       <c r="B48" s="12">
         <v>1319</v>
@@ -40236,7 +40238,7 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
         <v>1367</v>
@@ -40248,7 +40250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A51" s="11"/>
       <c r="B51" s="12">
         <v>1372</v>
@@ -40260,7 +40262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
         <v>1376</v>
@@ -40272,7 +40274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
         <v>1377</v>
@@ -40284,7 +40286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A54" s="4">
         <v>43913</v>
       </c>
@@ -40298,7 +40300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A55" s="4">
         <v>43939</v>
       </c>
@@ -40312,7 +40314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A56" s="4">
         <v>44573</v>
       </c>
@@ -40326,7 +40328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A57" s="4">
         <v>44580</v>
       </c>
@@ -40340,7 +40342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A58" s="4">
         <v>44545</v>
       </c>
@@ -40354,7 +40356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A63" s="4">
         <v>44460</v>
       </c>
@@ -40761,13 +40763,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8918918918919" customWidth="1"/>
-    <col min="3" max="3" width="35.1081081081081" customWidth="1"/>
-    <col min="5" max="5" width="15.8918918918919" customWidth="1"/>
+    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="35.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="9" max="9" width="62" customWidth="1"/>
     <col min="10" max="10" width="64.3333333333333" customWidth="1"/>
   </cols>
@@ -41604,22 +41606,22 @@
   <sheetPr/>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.4414414414414" style="28"/>
-    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.4414414414414" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.4414414414414" style="8" customWidth="1"/>
-    <col min="8" max="8" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.10810810810811" style="8"/>
+    <col min="1" max="1" width="11.4444444444444" style="28"/>
+    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.4444444444444" style="8" customWidth="1"/>
+    <col min="8" max="8" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -42015,7 +42017,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" ht="25.7" spans="1:9">
+    <row r="22" ht="26.4" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="12">
         <v>326</v>
@@ -42049,7 +42051,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" ht="70.7" spans="1:9">
+    <row r="24" ht="69" spans="1:9">
       <c r="A24" s="4">
         <v>43921</v>
       </c>
@@ -42405,7 +42407,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:7">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:7">
       <c r="A45" s="26">
         <v>43697</v>
       </c>
@@ -42422,7 +42424,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A46" s="4">
         <v>43950</v>
       </c>
@@ -42436,7 +42438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A47" s="4">
         <v>43943</v>
       </c>
@@ -42450,7 +42452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A48" s="4">
         <v>44370</v>
       </c>
@@ -42464,7 +42466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A49" s="4">
         <v>43915</v>
       </c>
@@ -42478,7 +42480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
         <v>910</v>
@@ -42490,7 +42492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A51" s="4">
         <v>43921</v>
       </c>
@@ -42504,7 +42506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A52" s="4">
         <v>43682</v>
       </c>
@@ -42518,7 +42520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A53" s="4">
         <v>43691</v>
       </c>
@@ -42532,7 +42534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A54" s="4">
         <v>43927</v>
       </c>
@@ -42546,7 +42548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A55" s="4">
         <v>43700</v>
       </c>
@@ -42560,7 +42562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A56" s="5"/>
       <c r="B56" s="12">
         <v>1121</v>
@@ -42575,7 +42577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A57" s="4">
         <v>43700</v>
       </c>
@@ -42589,7 +42591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A58" s="11"/>
       <c r="B58" s="12">
         <v>1131</v>
@@ -42601,7 +42603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A59" s="4">
         <v>43700</v>
       </c>
@@ -42618,7 +42620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:5">
+    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A60" s="4">
         <v>43700</v>
       </c>
@@ -42635,7 +42637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:7">
+    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:7">
       <c r="A61" s="4">
         <v>43700</v>
       </c>
@@ -42652,7 +42654,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="12">
         <v>1157</v>
@@ -42664,7 +42666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A63" s="4">
         <v>43887</v>
       </c>
@@ -42678,11 +42680,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A64" s="2"/>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="65" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A65" s="4">
         <v>44509</v>
       </c>
@@ -42696,7 +42698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="66" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A66" s="4">
         <v>43887</v>
       </c>
@@ -42713,7 +42715,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="67" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A67" s="4">
         <v>43915</v>
       </c>
@@ -42727,7 +42729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="68" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A68" s="4">
         <v>43914</v>
       </c>
@@ -42741,7 +42743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="69" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A69" s="4">
         <v>44368</v>
       </c>
@@ -42755,7 +42757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="70" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A70" s="4">
         <v>43882</v>
       </c>
@@ -42769,7 +42771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="71" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="12">
         <v>1360</v>
@@ -42781,11 +42783,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="72" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A72" s="2"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="73" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A73" s="4">
         <v>43911</v>
       </c>
@@ -42799,7 +42801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="74" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A74" s="4">
         <v>43953</v>
       </c>
@@ -42816,7 +42818,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="75" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A75" s="4">
         <v>43969</v>
       </c>
@@ -42830,7 +42832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="76" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A76" s="5"/>
       <c r="B76" s="12">
         <v>1447</v>
@@ -42842,7 +42844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="12.85" spans="1:6">
+    <row r="77" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A77" s="4">
         <v>44361</v>
       </c>
@@ -42859,7 +42861,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="78" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A78" s="5"/>
       <c r="B78" s="12">
         <v>1492</v>
@@ -42871,7 +42873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="79" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A79" s="5"/>
       <c r="B79" s="12">
         <v>1497</v>
@@ -42883,7 +42885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="80" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A80" s="4">
         <v>44099</v>
       </c>
@@ -42897,7 +42899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="81" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A81" s="11"/>
       <c r="B81" s="12">
         <v>1513</v>
@@ -42909,7 +42911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="82" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
         <v>1525</v>
@@ -42921,7 +42923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="83" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A83" s="11"/>
       <c r="B83" s="12">
         <v>1537</v>
@@ -42933,7 +42935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="12.85" spans="1:6">
+    <row r="84" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A84" s="4">
         <v>44377</v>
       </c>
@@ -42950,7 +42952,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="85" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A85" s="4">
         <v>44178</v>
       </c>
@@ -42964,7 +42966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="86" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A86" s="4">
         <v>44327</v>
       </c>
@@ -42978,7 +42980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="87" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A87" s="4">
         <v>44329</v>
       </c>
@@ -42992,31 +42994,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="88" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="90" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="91" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="92" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="93" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="94" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="95" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A95" s="4">
         <v>44349</v>
       </c>
@@ -43030,7 +43032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="96" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A96" s="4">
         <v>44327</v>
       </c>
@@ -43044,7 +43046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="97" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A97" s="4">
         <v>44326</v>
       </c>
@@ -43058,23 +43060,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="98" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="99" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="100" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="101" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="102" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A102" s="4">
         <v>44427</v>
       </c>
@@ -43088,7 +43090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="103" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A103" s="4">
         <v>44447</v>
       </c>
@@ -43102,7 +43104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="104" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A104" s="4">
         <v>44556</v>
       </c>
@@ -43116,7 +43118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="105" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A105" s="4">
         <v>44556</v>
       </c>
@@ -43130,7 +43132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="106" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A106" s="4">
         <v>44579</v>
       </c>
@@ -43144,7 +43146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="107" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A107" s="4">
         <v>44605</v>
       </c>
@@ -43158,7 +43160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="108" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A108" s="4">
         <v>44611</v>
       </c>
@@ -43172,7 +43174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="12.85" spans="1:7">
+    <row r="109" s="1" customFormat="1" ht="13.2" spans="1:7">
       <c r="A109" s="4">
         <v>44611</v>
       </c>
@@ -43189,7 +43191,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="110" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A110" s="4">
         <v>44699</v>
       </c>
@@ -43203,7 +43205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="111" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A111" s="4">
         <v>45137</v>
       </c>
@@ -43217,7 +43219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="112" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A112" s="4">
         <v>45131</v>
       </c>
@@ -43231,7 +43233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="113" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A113" s="27">
         <v>45133</v>
       </c>
@@ -43245,19 +43247,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="114" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A114" s="11"/>
       <c r="B114" s="12"/>
     </row>
-    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="115" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A115" s="11"/>
       <c r="B115" s="12"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="116" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="117" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
     </row>
@@ -43516,13 +43518,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="9.10810810810811" customWidth="1"/>
+    <col min="5" max="5" width="9.11111111111111" customWidth="1"/>
     <col min="9" max="9" width="29.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="36.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="54.1081081081081" customWidth="1"/>
+    <col min="11" max="11" width="54.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -43739,20 +43741,20 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.10810810810811" style="6"/>
-    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.11111111111111" style="6"/>
+    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.3333333333333" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="8" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -44576,11 +44578,11 @@
       <c r="J44" s="24"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A46" s="4">
         <v>44341</v>
       </c>
@@ -44594,7 +44596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A47" s="4">
         <v>44376</v>
       </c>
@@ -44608,7 +44610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A48" s="4">
         <v>44375</v>
       </c>
@@ -44622,7 +44624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:10">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:10">
       <c r="A49" s="26">
         <v>44608</v>
       </c>
@@ -44639,7 +44641,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A50" s="27">
         <v>45135</v>
       </c>
@@ -44653,59 +44655,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
@@ -44785,19 +44787,19 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.89189189189189" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -44857,7 +44859,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12.85" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:10">
       <c r="A3" s="13">
         <v>44357</v>
       </c>
@@ -44877,7 +44879,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A4" s="13">
         <v>44370</v>
       </c>
@@ -44894,7 +44896,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A5" s="13">
         <v>44532</v>
       </c>
@@ -44908,7 +44910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A6" s="13">
         <v>44514</v>
       </c>
@@ -44922,7 +44924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.85" spans="1:4">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A7" s="13">
         <v>44514</v>
       </c>
@@ -45393,87 +45395,87 @@
       <c r="J38" s="24"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
@@ -46566,19 +46568,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="56.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="29.5585585585586" customWidth="1"/>
+    <col min="7" max="7" width="29.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="9.10810810810811" customWidth="1"/>
+    <col min="9" max="9" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -46604,7 +46606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A2" s="4">
         <v>44558</v>
       </c>
@@ -46619,7 +46621,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A3" s="4">
         <v>44558</v>
       </c>
@@ -46634,7 +46636,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A4" s="4">
         <v>44559</v>
       </c>
@@ -46649,7 +46651,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A5" s="4">
         <v>44610</v>
       </c>
@@ -46666,7 +46668,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A6" s="4">
         <v>44557</v>
       </c>
@@ -46681,7 +46683,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A7" s="4">
         <v>44560</v>
       </c>
@@ -46696,7 +46698,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A8" s="4">
         <v>44557</v>
       </c>
@@ -46711,7 +46713,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A9" s="4">
         <v>44579</v>
       </c>
@@ -46726,7 +46728,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A10" s="4">
         <v>44558</v>
       </c>
@@ -46741,7 +46743,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="11" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A11" s="4">
         <v>44343</v>
       </c>
@@ -46756,7 +46758,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="12" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A12" s="4">
         <v>44560</v>
       </c>
@@ -46771,7 +46773,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A13" s="4">
         <v>44559</v>
       </c>
@@ -46786,7 +46788,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="14" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>1524</v>
@@ -46799,7 +46801,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="15" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="1">
         <v>1542</v>
@@ -46809,7 +46811,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="16" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A16" s="4">
         <v>44559</v>
       </c>
@@ -46824,7 +46826,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="17" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="1">
         <v>1658</v>
@@ -46837,7 +46839,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="18" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="1">
         <v>1788</v>
@@ -46850,7 +46852,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="19" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="1">
         <v>1915</v>
@@ -46863,7 +46865,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="20" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A20" s="4">
         <v>44610</v>
       </c>
@@ -46878,7 +46880,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="21" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A21" s="4">
         <v>44579</v>
       </c>
@@ -46893,7 +46895,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="22" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A22" s="5"/>
       <c r="B22" s="1">
         <v>2025</v>
@@ -46906,7 +46908,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="23" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A23" s="4">
         <v>44609</v>
       </c>
@@ -47264,18 +47266,18 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1081081081081" customWidth="1"/>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.1081081081081" customWidth="1"/>
-    <col min="5" max="5" width="15.1081081081081" customWidth="1"/>
-    <col min="6" max="6" width="22.4414414414414" customWidth="1"/>
-    <col min="7" max="7" width="64.4414414414414" customWidth="1"/>
+    <col min="3" max="3" width="55.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="22.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="64.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="69.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47302,7 +47304,7 @@
       </c>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A2" s="26">
         <v>44550</v>
       </c>
@@ -47319,7 +47321,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A3" s="26">
         <v>44550</v>
       </c>
@@ -47336,7 +47338,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>37</v>
@@ -47351,7 +47353,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A5" s="26">
         <v>44356</v>
       </c>
@@ -47368,7 +47370,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A6" s="26">
         <v>44356</v>
       </c>
@@ -47385,7 +47387,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A7" s="26">
         <v>43778</v>
       </c>
@@ -47404,7 +47406,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.85" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A8" s="26">
         <v>44355</v>
       </c>
@@ -47421,7 +47423,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="34"/>
     </row>
-    <row r="9" s="43" customFormat="1" ht="12.85" spans="1:9">
+    <row r="9" s="43" customFormat="1" ht="13.2" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>51</v>
@@ -47438,7 +47440,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" s="43" customFormat="1" ht="12.85" spans="1:9">
+    <row r="10" s="43" customFormat="1" ht="13.2" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>52</v>
@@ -48354,17 +48356,17 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.10810810810811" style="2"/>
+    <col min="1" max="1" width="9.11111111111111" style="2"/>
     <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5585585585586" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="1"/>
-    <col min="5" max="5" width="14.5585585585586" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.8918918918919" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5585585585586" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5585585585586" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.10810810810811" style="1"/>
+    <col min="3" max="3" width="51.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="1"/>
+    <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.11111111111111" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -49000,16 +49002,16 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" style="2"/>
     <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5585585585586" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="1"/>
-    <col min="5" max="7" width="14.5585585585586" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5585585585586" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.5585585585586" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.10810810810811" style="1"/>
+    <col min="3" max="3" width="71.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="1"/>
+    <col min="5" max="7" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5555555555556" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -50043,17 +50045,17 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="44.5585585585586" customWidth="1"/>
-    <col min="4" max="4" width="15.4414414414414" customWidth="1"/>
+    <col min="3" max="3" width="44.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="30.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -50079,7 +50081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A2" s="4">
         <v>44544</v>
       </c>
@@ -50149,16 +50151,16 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="50.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.8918918918919" customWidth="1"/>
-    <col min="5" max="5" width="15.5585585585586" customWidth="1"/>
-    <col min="7" max="7" width="30.4414414414414" customWidth="1"/>
-    <col min="8" max="8" width="29.1081081081081" customWidth="1"/>
+    <col min="4" max="4" width="16.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="15.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="30.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="29.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -50184,7 +50186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A2" s="4">
         <v>44544</v>
       </c>
@@ -50254,19 +50256,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.89189189189189" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="8"/>
-    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="8"/>
+    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -50346,7 +50348,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:10">
       <c r="A4" s="13">
         <v>44374</v>
       </c>
@@ -50366,7 +50368,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:10">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:10">
       <c r="A5" s="13">
         <v>44610</v>
       </c>
@@ -50776,87 +50778,87 @@
       <c r="J37" s="24"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
@@ -51949,19 +51951,19 @@
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.1081081081081" style="83" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="84" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="85" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="85"/>
-    <col min="5" max="5" width="17.1081081081081" style="85" customWidth="1"/>
-    <col min="6" max="6" width="15.5585585585586" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="85" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="85" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="85" customWidth="1"/>
-    <col min="11" max="11" width="43.5585585585586" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="85"/>
+    <col min="1" max="1" width="10.1111111111111" style="83" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="84" customWidth="1"/>
+    <col min="3" max="3" width="57.8888888888889" style="85" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="85"/>
+    <col min="5" max="5" width="17.1111111111111" style="85" customWidth="1"/>
+    <col min="6" max="6" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.1111111111111" style="85" customWidth="1"/>
+    <col min="9" max="9" width="58.4444444444444" style="85" customWidth="1"/>
+    <col min="10" max="10" width="69.1111111111111" style="85" customWidth="1"/>
+    <col min="11" max="11" width="43.5555555555556" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.11111111111111" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14544" tabRatio="991" firstSheet="3" activeTab="10"/>
+    <workbookView windowHeight="14528" tabRatio="991" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="1551">
   <si>
     <t>Date</t>
   </si>
@@ -3627,6 +3627,9 @@
   </si>
   <si>
     <t>Number of Senior Citizens</t>
+  </si>
+  <si>
+    <t>Lexicographically Smallest Palindrome</t>
   </si>
   <si>
     <t>Find Maximum Number of String Pairs</t>
@@ -6256,17 +6259,17 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="12" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="1"/>
-    <col min="5" max="7" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="58.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="69.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5555555555556" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.11111111111111" style="1"/>
+    <col min="1" max="1" width="10.1081081081081" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="12" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="1"/>
+    <col min="5" max="7" width="17.1081081081081" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.4414414414414" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.1081081081081" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5585585585586" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.10810810810811" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6656,7 +6659,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" s="8" customFormat="1" ht="13.8" spans="1:11">
+    <row r="22" s="8" customFormat="1" ht="14.1" spans="1:11">
       <c r="A22" s="4">
         <v>44512</v>
       </c>
@@ -7491,19 +7494,19 @@
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="6" max="6" width="39.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="1" max="1" width="10.1081081081081" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="6" max="6" width="39.8918918918919" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8115,7 +8118,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="30" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A30" s="11"/>
       <c r="B30" s="12">
         <v>340</v>
@@ -8130,7 +8133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="31" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
         <v>356</v>
@@ -8145,7 +8148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="32" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A32" s="4">
         <v>43690</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="33" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A33" s="11"/>
       <c r="B33" s="12">
         <v>388</v>
@@ -8171,7 +8174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="34" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A34" s="4">
         <v>43689</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="35" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A35" s="4">
         <v>44463</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="36" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="12">
         <v>424</v>
@@ -8211,7 +8214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A37" s="4">
         <v>43922</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A38" s="4">
         <v>43705</v>
       </c>
@@ -8242,7 +8245,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="12">
         <v>454</v>
@@ -8254,7 +8257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
         <v>470</v>
@@ -8266,7 +8269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A41" s="11"/>
       <c r="B41" s="12">
         <v>473</v>
@@ -8278,7 +8281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:6">
       <c r="A42" s="4">
         <v>44365</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:6">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:6">
       <c r="A43" s="4">
         <v>44371</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
         <v>523</v>
@@ -8324,7 +8327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A45" s="4">
         <v>43698</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>554</v>
@@ -8350,7 +8353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A47" s="11"/>
       <c r="B47" s="12">
         <v>560</v>
@@ -8362,7 +8365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A48" s="4">
         <v>43698</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A49" s="4">
         <v>43698</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A50" s="4">
         <v>43698</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A51" s="4">
         <v>43698</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
         <v>609</v>
@@ -8430,7 +8433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
         <v>721</v>
@@ -11059,21 +11062,21 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.77777777777778" style="2"/>
+    <col min="1" max="1" width="9.77477477477477" style="2"/>
     <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="1"/>
-    <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5585585585586" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="1"/>
+    <col min="5" max="5" width="14.5585585585586" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.11111111111111" style="1"/>
+    <col min="7" max="7" width="46.5585585585586" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5585585585586" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.10810810810811" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11511,19 +11514,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.11111111111111" style="6"/>
-    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.10810810810811" style="6"/>
+    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12522,83 +12525,83 @@
       <c r="J58" s="24"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="67" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="68" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="69" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="70" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="71" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="72" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="73" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="74" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="75" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="76" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="77" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="78" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
     </row>
@@ -12671,15 +12674,15 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="59" customWidth="1"/>
-    <col min="2" max="2" width="9.11111111111111" style="60"/>
+    <col min="1" max="1" width="9.44144144144144" style="59" customWidth="1"/>
+    <col min="2" max="2" width="9.10810810810811" style="60"/>
     <col min="3" max="3" width="63" style="60" customWidth="1"/>
     <col min="4" max="5" width="13.6666666666667" style="60" customWidth="1"/>
     <col min="6" max="6" width="69.3333333333333" style="60" customWidth="1"/>
-    <col min="7" max="7" width="59.1111111111111" style="60" customWidth="1"/>
-    <col min="8" max="16384" width="9.11111111111111" style="60"/>
+    <col min="7" max="7" width="59.1081081081081" style="60" customWidth="1"/>
+    <col min="8" max="16384" width="9.10810810810811" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12804,7 +12807,7 @@
       </c>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" s="58" customFormat="1" ht="26.4" spans="1:7">
+    <row r="7" s="58" customFormat="1" ht="25.7" spans="1:7">
       <c r="A7" s="63">
         <v>43669</v>
       </c>
@@ -12918,7 +12921,7 @@
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" s="58" customFormat="1" ht="52.8" spans="1:7">
+    <row r="13" s="58" customFormat="1" ht="51.45" spans="1:7">
       <c r="A13" s="63">
         <v>43671</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="14" s="58" customFormat="1" ht="25.2" spans="1:7">
+    <row r="14" s="58" customFormat="1" ht="25.3" spans="1:7">
       <c r="A14" s="66"/>
       <c r="B14" s="16">
         <v>393</v>
@@ -13024,7 +13027,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="19" s="58" customFormat="1" ht="66" spans="1:7">
+    <row r="19" s="58" customFormat="1" ht="64.3" spans="1:7">
       <c r="A19" s="16"/>
       <c r="B19" s="16">
         <v>462</v>
@@ -13081,7 +13084,7 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" s="58" customFormat="1" ht="25.2" spans="1:7">
+    <row r="22" s="58" customFormat="1" spans="1:7">
       <c r="A22" s="63">
         <v>43672</v>
       </c>
@@ -13123,7 +13126,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="24" s="58" customFormat="1" ht="26.4" spans="1:7">
+    <row r="24" s="58" customFormat="1" ht="25.7" spans="1:7">
       <c r="A24" s="63">
         <v>43672</v>
       </c>
@@ -13753,17 +13756,17 @@
       <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" style="42" customWidth="1"/>
     <col min="2" max="2" width="9" style="42"/>
-    <col min="3" max="3" width="61.1111111111111" style="42" customWidth="1"/>
+    <col min="3" max="3" width="61.1081081081081" style="42" customWidth="1"/>
     <col min="4" max="4" width="9" style="42"/>
-    <col min="5" max="5" width="14.8888888888889" style="42" customWidth="1"/>
-    <col min="6" max="6" width="20.4444444444444" style="43" customWidth="1"/>
+    <col min="5" max="5" width="14.8918918918919" style="42" customWidth="1"/>
+    <col min="6" max="6" width="20.4414414414414" style="43" customWidth="1"/>
     <col min="7" max="7" width="67.3333333333333" style="42" customWidth="1"/>
-    <col min="8" max="8" width="91.4444444444444" style="42" customWidth="1"/>
-    <col min="9" max="9" width="33.4444444444444" style="42" customWidth="1"/>
+    <col min="8" max="8" width="91.4414414414414" style="42" customWidth="1"/>
+    <col min="9" max="9" width="33.4414414414414" style="42" customWidth="1"/>
     <col min="10" max="11" width="9" style="42"/>
     <col min="12" max="16384" width="9" style="44"/>
   </cols>
@@ -13870,7 +13873,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" ht="26.4" spans="1:9">
+    <row r="6" ht="25.7" spans="1:9">
       <c r="A6" s="26">
         <v>43675</v>
       </c>
@@ -20266,7 +20269,7 @@
       <c r="G171" s="46"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" s="8" customFormat="1" ht="13.8" spans="1:11">
+    <row r="172" s="8" customFormat="1" ht="14.1" spans="1:11">
       <c r="A172" s="4">
         <v>43969</v>
       </c>
@@ -25287,23 +25290,23 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" style="1"/>
-    <col min="2" max="2" width="9.11111111111111" style="1"/>
-    <col min="3" max="3" width="50.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.10810810810811" style="1"/>
+    <col min="3" max="3" width="50.4414414414414" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="76.1111111111111" style="34" customWidth="1"/>
-    <col min="8" max="8" width="62.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.4414414414414" style="1" customWidth="1"/>
+    <col min="7" max="7" width="76.1081081081081" style="34" customWidth="1"/>
+    <col min="8" max="8" width="62.8918918918919" style="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="1"/>
+    <col min="10" max="16384" width="9.10810810810811" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28068,10 +28071,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="39">
-        <v>45134</v>
+        <v>45140</v>
       </c>
       <c r="B209" s="1">
-        <v>2744</v>
+        <v>2697</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1149</v>
@@ -28082,34 +28085,48 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="39">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B210" s="1">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="39">
+        <v>45133</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2785</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="39">
         <v>45131</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B212" s="1">
         <v>2788</v>
       </c>
-      <c r="C211" s="16" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="C212" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="36"/>
+    <row r="213" spans="1:1">
+      <c r="A213" s="36"/>
     </row>
   </sheetData>
   <sortState ref="A5:I62">
@@ -28397,12 +28414,12 @@
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210">
+  <conditionalFormatting sqref="F211">
     <cfRule type="containsText" dxfId="5" priority="27" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="35" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F210)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="43" operator="between">
       <formula>"Amazon"</formula>
@@ -28433,7 +28450,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D211">
+  <conditionalFormatting sqref="D212">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28455,12 +28472,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F211">
+  <conditionalFormatting sqref="F212">
     <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="34" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
       <formula>"Amazon"</formula>
@@ -28491,12 +28508,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F212">
+  <conditionalFormatting sqref="F213">
     <cfRule type="containsText" dxfId="5" priority="25" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="33" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="41" operator="between">
       <formula>"Amazon"</formula>
@@ -28527,7 +28544,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A209">
+  <conditionalFormatting sqref="A207:A210">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28561,7 +28578,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207:F209">
+  <conditionalFormatting sqref="F207:F210">
     <cfRule type="containsText" dxfId="5" priority="11" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
     </cfRule>
@@ -28597,7 +28614,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 G213:XFD1048576 A213:E1048576">
+  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 A214:E1048576 G214:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28619,7 +28636,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F213:F1048576">
+  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F214:F1048576">
     <cfRule type="containsText" dxfId="5" priority="180" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
@@ -28787,7 +28804,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:XFD209 B207:E209">
+  <conditionalFormatting sqref="G207:XFD210 B207:E210">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28809,7 +28826,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:XFD210 A210:E210">
+  <conditionalFormatting sqref="G211:XFD211 A211:E211">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28831,7 +28848,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211:XFD211 A211:C211 E211">
+  <conditionalFormatting sqref="G212:XFD212 E212 A212:C212">
     <cfRule type="cellIs" dxfId="0" priority="98" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28853,7 +28870,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G212:XFD212 A212:E212">
+  <conditionalFormatting sqref="G213:XFD213 A213:E213">
     <cfRule type="cellIs" dxfId="0" priority="97" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28890,19 +28907,19 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.1081081081081" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -28948,7 +28965,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -28971,7 +28988,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -28991,7 +29008,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -29011,7 +29028,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -29031,7 +29048,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -29049,7 +29066,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -29067,7 +29084,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29085,7 +29102,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29105,7 +29122,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29123,7 +29140,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29141,7 +29158,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29159,7 +29176,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29177,7 +29194,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29251,7 +29268,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29269,7 +29286,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29289,7 +29306,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29301,7 +29318,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29314,7 +29331,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29334,7 +29351,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29357,7 +29374,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29378,7 +29395,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29399,7 +29416,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29419,7 +29436,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29437,7 +29454,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29455,7 +29472,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29473,7 +29490,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29491,7 +29508,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29527,7 +29544,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29547,7 +29564,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29556,7 +29573,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29567,7 +29584,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29585,7 +29602,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29607,7 +29624,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29616,7 +29633,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29624,7 +29641,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A37" s="4">
         <v>43886</v>
       </c>
@@ -29632,13 +29649,13 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A38" s="11"/>
       <c r="B38" s="12">
         <v>1367</v>
@@ -29650,7 +29667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A39" s="4">
         <v>44524</v>
       </c>
@@ -29658,7 +29675,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29667,19 +29684,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A41" s="4">
         <v>44529</v>
       </c>
@@ -29687,13 +29704,13 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A42" s="4">
         <v>44536</v>
       </c>
@@ -29701,25 +29718,25 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A44" s="4">
         <v>44529</v>
       </c>
@@ -29727,37 +29744,37 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A47" s="4">
         <v>44570</v>
       </c>
@@ -29765,13 +29782,13 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A48" s="4">
         <v>44612</v>
       </c>
@@ -29779,53 +29796,53 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
@@ -31024,19 +31041,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.11111111111111" style="6"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.10810810810811" style="6"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -31080,7 +31097,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31098,7 +31115,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31120,7 +31137,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31140,7 +31157,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31160,7 +31177,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31178,7 +31195,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31196,7 +31213,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31214,7 +31231,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31230,7 +31247,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -31461,87 +31478,87 @@
       <c r="J28" s="24"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="29" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="30" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="31" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="32" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="33" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="34" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="35" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="36" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
@@ -32613,19 +32630,19 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.88888888888889" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.89189189189189" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -32671,7 +32688,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32692,7 +32709,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32710,7 +32727,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32728,7 +32745,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32746,7 +32763,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32767,7 +32784,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32778,7 +32795,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32788,7 +32805,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32809,7 +32826,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32827,7 +32844,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32845,7 +32862,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32863,7 +32880,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32881,7 +32898,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32899,7 +32916,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -32919,7 +32936,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -32940,7 +32957,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -32959,7 +32976,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -32980,7 +32997,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -33000,7 +33017,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -33018,7 +33035,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -33038,7 +33055,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -33058,7 +33075,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33108,7 +33125,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33128,7 +33145,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33146,7 +33163,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33164,7 +33181,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33182,7 +33199,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33202,7 +33219,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33220,7 +33237,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33238,7 +33255,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33256,7 +33273,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33274,7 +33291,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33292,7 +33309,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33310,7 +33327,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33328,7 +33345,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33348,7 +33365,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33366,7 +33383,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33384,7 +33401,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33402,7 +33419,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33422,7 +33439,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33442,7 +33459,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33463,7 +33480,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33483,7 +33500,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33501,7 +33518,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33521,7 +33538,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -33545,7 +33562,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" ht="14.4" spans="1:11">
+    <row r="50" ht="14.55" spans="1:11">
       <c r="A50" s="11"/>
       <c r="B50"/>
       <c r="C50" s="14"/>
@@ -33557,87 +33574,87 @@
       <c r="J50" s="24"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="67" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="68" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="69" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="70" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="71" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
     </row>
@@ -34713,19 +34730,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="16.8888888888889" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.8918918918919" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
     <col min="3" max="3" width="69.6666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.1111111111111" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.1081081081081" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -34771,7 +34788,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34789,7 +34806,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34801,7 +34818,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A4" s="4">
         <v>44622</v>
       </c>
@@ -34809,14 +34826,14 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A5" s="4">
         <v>44622</v>
       </c>
@@ -34824,14 +34841,14 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A6" s="4">
         <v>44621</v>
       </c>
@@ -34839,7 +34856,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34854,7 +34871,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34863,14 +34880,14 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A8" s="4">
         <v>44635</v>
       </c>
@@ -34878,14 +34895,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34896,7 +34913,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -34916,7 +34933,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -34934,7 +34951,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -34952,7 +34969,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34972,7 +34989,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34992,7 +35009,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -35028,7 +35045,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -35046,7 +35063,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -35064,7 +35081,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35082,7 +35099,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35122,7 +35139,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35140,7 +35157,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35160,7 +35177,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35178,7 +35195,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35201,7 +35218,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35222,7 +35239,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35241,7 +35258,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35261,7 +35278,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35283,7 +35300,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35319,7 +35336,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35339,7 +35356,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35359,7 +35376,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35377,7 +35394,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35395,7 +35412,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35413,7 +35430,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35433,7 +35450,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35453,7 +35470,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35473,7 +35490,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35482,10 +35499,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35497,7 +35514,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35509,37 +35526,37 @@
       <c r="J40" s="24"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A41" s="11"/>
       <c r="B41" s="12">
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A42" s="11"/>
       <c r="B42" s="12">
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35548,19 +35565,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <v>684</v>
@@ -35572,19 +35589,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A47" s="4">
         <v>44635</v>
       </c>
@@ -35592,25 +35609,25 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A48" s="11"/>
       <c r="B48" s="12">
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A49" s="4">
         <v>43943</v>
       </c>
@@ -35618,13 +35635,13 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A50" s="4">
         <v>44511</v>
       </c>
@@ -35632,97 +35649,97 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A51" s="11"/>
       <c r="B51" s="12">
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A54" s="11"/>
       <c r="B54" s="12">
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A55" s="11"/>
       <c r="B55" s="12">
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A56" s="11"/>
       <c r="B56" s="12">
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A57" s="11"/>
       <c r="B57" s="12">
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A58" s="4">
         <v>43915</v>
       </c>
@@ -35730,37 +35747,37 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A59" s="11"/>
       <c r="B59" s="12">
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A60" s="11"/>
       <c r="B60" s="12">
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A61" s="4">
         <v>43917</v>
       </c>
@@ -35768,43 +35785,43 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A63" s="11"/>
       <c r="B63" s="12">
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" s="17" customFormat="1" ht="13.2" spans="1:4">
+    <row r="64" s="17" customFormat="1" ht="12.85" spans="1:4">
       <c r="A64" s="5"/>
       <c r="B64" s="32">
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35816,7 +35833,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35867,7 +35884,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -35918,7 +35935,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -35971,7 +35988,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -36024,7 +36041,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -36075,7 +36092,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36126,7 +36143,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36177,7 +36194,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36230,7 +36247,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36281,7 +36298,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36334,7 +36351,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36385,7 +36402,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36436,7 +36453,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36489,7 +36506,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36540,7 +36557,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36593,7 +36610,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36695,7 +36712,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36799,7 +36816,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -36957,7 +36974,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -37010,7 +37027,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37112,7 +37129,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37165,7 +37182,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37174,7 +37191,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37274,7 +37291,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37325,7 +37342,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37378,7 +37395,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37431,7 +37448,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37535,7 +37552,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37633,7 +37650,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -39313,20 +39330,20 @@
       <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
+    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
     <col min="5" max="5" width="11.6666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5585585585586" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.6666666666667" style="8" customWidth="1"/>
     <col min="9" max="9" width="40.3333333333333" style="9" customWidth="1"/>
-    <col min="10" max="10" width="33.4444444444444" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="10" max="10" width="33.4414414414414" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -39402,7 +39419,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A4" s="4">
         <v>44567</v>
       </c>
@@ -39989,7 +40006,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="34" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A34" s="4">
         <v>44384</v>
       </c>
@@ -40003,7 +40020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="35" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A35" s="11"/>
       <c r="B35" s="12">
         <v>802</v>
@@ -40015,7 +40032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="36" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="12">
         <v>827</v>
@@ -40027,7 +40044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A37" s="11"/>
       <c r="B37" s="12">
         <v>834</v>
@@ -40039,7 +40056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A38" s="4">
         <v>44549</v>
       </c>
@@ -40053,7 +40070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A39" s="11"/>
       <c r="B39" s="12">
         <v>851</v>
@@ -40065,7 +40082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
         <v>913</v>
@@ -40077,7 +40094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A41" s="4">
         <v>43914</v>
       </c>
@@ -40091,7 +40108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A42" s="11"/>
       <c r="B42" s="12">
         <v>1059</v>
@@ -40106,7 +40123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
         <v>1192</v>
@@ -40118,7 +40135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
         <v>1202</v>
@@ -40130,7 +40147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A45" s="4">
         <v>43914</v>
       </c>
@@ -40147,7 +40164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
         <v>1273</v>
@@ -40159,7 +40176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A47" s="4">
         <v>43942</v>
       </c>
@@ -40173,7 +40190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A48" s="11"/>
       <c r="B48" s="12">
         <v>1319</v>
@@ -40238,7 +40255,7 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
         <v>1367</v>
@@ -40250,7 +40267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A51" s="11"/>
       <c r="B51" s="12">
         <v>1372</v>
@@ -40262,7 +40279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
         <v>1376</v>
@@ -40274,7 +40291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
         <v>1377</v>
@@ -40286,7 +40303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A54" s="4">
         <v>43913</v>
       </c>
@@ -40300,7 +40317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A55" s="4">
         <v>43939</v>
       </c>
@@ -40314,7 +40331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A56" s="4">
         <v>44573</v>
       </c>
@@ -40328,7 +40345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A57" s="4">
         <v>44580</v>
       </c>
@@ -40342,7 +40359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A58" s="4">
         <v>44545</v>
       </c>
@@ -40356,7 +40373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A63" s="4">
         <v>44460</v>
       </c>
@@ -40763,13 +40780,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="35.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.8918918918919" customWidth="1"/>
+    <col min="3" max="3" width="35.1081081081081" customWidth="1"/>
+    <col min="5" max="5" width="15.8918918918919" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="9" max="9" width="62" customWidth="1"/>
     <col min="10" max="10" width="64.3333333333333" customWidth="1"/>
   </cols>
@@ -40812,7 +40829,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40829,7 +40846,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40846,7 +40863,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40863,7 +40880,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40882,7 +40899,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40899,7 +40916,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -40916,7 +40933,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -40933,7 +40950,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -40952,7 +40969,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -40969,7 +40986,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -40986,7 +41003,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -41003,7 +41020,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -41020,7 +41037,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -41039,7 +41056,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -41056,7 +41073,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -41073,7 +41090,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41610,18 +41627,18 @@
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="11.4444444444444" style="28"/>
-    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.4444444444444" style="8" customWidth="1"/>
-    <col min="8" max="8" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="8"/>
+    <col min="1" max="1" width="11.4414414414414" style="28"/>
+    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.4414414414414" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.4414414414414" style="8" customWidth="1"/>
+    <col min="8" max="8" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -41658,14 +41675,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41678,17 +41695,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41698,7 +41715,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41716,7 +41733,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41732,7 +41749,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41748,7 +41765,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41764,7 +41781,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41780,7 +41797,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41798,17 +41815,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41818,7 +41835,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41836,17 +41853,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41858,17 +41875,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41880,7 +41897,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41888,7 +41905,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41898,7 +41915,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -41915,7 +41932,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -41932,7 +41949,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -41951,7 +41968,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -41969,14 +41986,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -41989,14 +42006,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -42007,7 +42024,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -42017,20 +42034,20 @@
       <c r="H21" s="24"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" ht="26.4" spans="1:9">
+    <row r="22" ht="25.7" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="12">
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -42041,7 +42058,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -42051,7 +42068,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" ht="69" spans="1:9">
+    <row r="24" ht="70.7" spans="1:9">
       <c r="A24" s="4">
         <v>43921</v>
       </c>
@@ -42059,7 +42076,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -42068,7 +42085,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42079,7 +42096,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42095,7 +42112,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42111,7 +42128,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42127,7 +42144,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42143,7 +42160,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42161,7 +42178,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42177,7 +42194,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42193,7 +42210,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42209,7 +42226,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42225,7 +42242,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42259,14 +42276,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42279,7 +42296,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42295,7 +42312,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42311,7 +42328,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42345,7 +42362,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42361,7 +42378,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42379,7 +42396,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42397,7 +42414,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42407,7 +42424,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:7">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:7">
       <c r="A45" s="26">
         <v>43697</v>
       </c>
@@ -42415,16 +42432,16 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A46" s="4">
         <v>43950</v>
       </c>
@@ -42432,13 +42449,13 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A47" s="4">
         <v>43943</v>
       </c>
@@ -42446,13 +42463,13 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A48" s="4">
         <v>44370</v>
       </c>
@@ -42460,13 +42477,13 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A49" s="4">
         <v>43915</v>
       </c>
@@ -42474,25 +42491,25 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A51" s="4">
         <v>43921</v>
       </c>
@@ -42500,13 +42517,13 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A52" s="4">
         <v>43682</v>
       </c>
@@ -42514,13 +42531,13 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A53" s="4">
         <v>43691</v>
       </c>
@@ -42528,13 +42545,13 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A54" s="4">
         <v>43927</v>
       </c>
@@ -42542,13 +42559,13 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A55" s="4">
         <v>43700</v>
       </c>
@@ -42556,19 +42573,19 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A56" s="5"/>
       <c r="B56" s="12">
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42577,7 +42594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A57" s="4">
         <v>43700</v>
       </c>
@@ -42585,25 +42602,25 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A58" s="11"/>
       <c r="B58" s="12">
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A59" s="4">
         <v>43700</v>
       </c>
@@ -42611,7 +42628,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42620,7 +42637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:5">
+    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:5">
       <c r="A60" s="4">
         <v>43700</v>
       </c>
@@ -42628,7 +42645,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42637,7 +42654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:7">
+    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:7">
       <c r="A61" s="4">
         <v>43700</v>
       </c>
@@ -42645,28 +42662,28 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="12">
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A63" s="4">
         <v>43887</v>
       </c>
@@ -42674,17 +42691,17 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A64" s="2"/>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A65" s="4">
         <v>44509</v>
       </c>
@@ -42692,13 +42709,13 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A66" s="4">
         <v>43887</v>
       </c>
@@ -42706,16 +42723,16 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A67" s="4">
         <v>43915</v>
       </c>
@@ -42723,13 +42740,13 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="68" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A68" s="4">
         <v>43914</v>
       </c>
@@ -42737,13 +42754,13 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="69" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A69" s="4">
         <v>44368</v>
       </c>
@@ -42751,13 +42768,13 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="70" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A70" s="4">
         <v>43882</v>
       </c>
@@ -42765,29 +42782,29 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="71" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="12">
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="72" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A72" s="2"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="73" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A73" s="4">
         <v>43911</v>
       </c>
@@ -42795,13 +42812,13 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="74" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A74" s="4">
         <v>43953</v>
       </c>
@@ -42809,16 +42826,16 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A75" s="4">
         <v>43969</v>
       </c>
@@ -42826,25 +42843,25 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="76" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A76" s="5"/>
       <c r="B76" s="12">
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="13.2" spans="1:6">
+    <row r="77" s="1" customFormat="1" ht="12.85" spans="1:6">
       <c r="A77" s="4">
         <v>44361</v>
       </c>
@@ -42852,40 +42869,40 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A78" s="5"/>
       <c r="B78" s="12">
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="79" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A79" s="5"/>
       <c r="B79" s="12">
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="80" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A80" s="4">
         <v>44099</v>
       </c>
@@ -42893,49 +42910,49 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="81" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A81" s="11"/>
       <c r="B81" s="12">
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="82" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="83" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A83" s="11"/>
       <c r="B83" s="12">
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="13.2" spans="1:6">
+    <row r="84" s="1" customFormat="1" ht="12.85" spans="1:6">
       <c r="A84" s="4">
         <v>44377</v>
       </c>
@@ -42943,16 +42960,16 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A85" s="4">
         <v>44178</v>
       </c>
@@ -42960,13 +42977,13 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="86" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A86" s="4">
         <v>44327</v>
       </c>
@@ -42974,13 +42991,13 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="87" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A87" s="4">
         <v>44329</v>
       </c>
@@ -42988,37 +43005,37 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="88" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="90" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="91" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="92" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="93" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="94" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="95" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A95" s="4">
         <v>44349</v>
       </c>
@@ -43026,13 +43043,13 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="96" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A96" s="4">
         <v>44327</v>
       </c>
@@ -43040,13 +43057,13 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="97" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A97" s="4">
         <v>44326</v>
       </c>
@@ -43054,29 +43071,29 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="98" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="99" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="100" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="101" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="102" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A102" s="4">
         <v>44427</v>
       </c>
@@ -43084,13 +43101,13 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="103" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A103" s="4">
         <v>44447</v>
       </c>
@@ -43098,13 +43115,13 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="104" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A104" s="4">
         <v>44556</v>
       </c>
@@ -43112,13 +43129,13 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="105" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A105" s="4">
         <v>44556</v>
       </c>
@@ -43126,13 +43143,13 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="106" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A106" s="4">
         <v>44579</v>
       </c>
@@ -43140,13 +43157,13 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="107" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A107" s="4">
         <v>44605</v>
       </c>
@@ -43154,13 +43171,13 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="108" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A108" s="4">
         <v>44611</v>
       </c>
@@ -43168,13 +43185,13 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="13.2" spans="1:7">
+    <row r="109" s="1" customFormat="1" ht="12.85" spans="1:7">
       <c r="A109" s="4">
         <v>44611</v>
       </c>
@@ -43182,16 +43199,16 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A110" s="4">
         <v>44699</v>
       </c>
@@ -43199,13 +43216,13 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A111" s="4">
         <v>45137</v>
       </c>
@@ -43213,13 +43230,13 @@
         <v>2582</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A112" s="4">
         <v>45131</v>
       </c>
@@ -43227,13 +43244,13 @@
         <v>2739</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A113" s="27">
         <v>45133</v>
       </c>
@@ -43241,25 +43258,25 @@
         <v>2745</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="114" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A114" s="11"/>
       <c r="B114" s="12"/>
     </row>
-    <row r="115" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A115" s="11"/>
       <c r="B115" s="12"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
     </row>
@@ -43518,13 +43535,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
     <col min="3" max="3" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="9.11111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9.10810810810811" customWidth="1"/>
     <col min="9" max="9" width="29.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="36.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="54.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="54.1081081081081" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -43568,7 +43585,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43741,20 +43758,20 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.11111111111111" style="6"/>
-    <col min="2" max="2" width="14.8888888888889" style="25" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.10810810810811" style="6"/>
+    <col min="2" max="2" width="14.8918918918919" style="25" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.3333333333333" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="8" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -43800,7 +43817,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43817,7 +43834,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43836,7 +43853,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43855,7 +43872,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43875,7 +43892,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43895,7 +43912,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43916,7 +43933,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -43936,7 +43953,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -43946,10 +43963,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -43981,7 +43998,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -44001,7 +44018,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44021,7 +44038,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44044,7 +44061,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44064,7 +44081,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44084,19 +44101,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44110,7 +44127,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44128,7 +44145,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44148,7 +44165,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44157,7 +44174,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44171,7 +44188,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44191,7 +44208,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44209,7 +44226,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44229,7 +44246,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44238,10 +44255,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44253,7 +44270,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44273,7 +44290,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44291,7 +44308,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44374,7 +44391,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44394,7 +44411,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44414,7 +44431,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44424,7 +44441,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44436,7 +44453,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44456,7 +44473,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44578,11 +44595,11 @@
       <c r="J44" s="24"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A46" s="4">
         <v>44341</v>
       </c>
@@ -44590,13 +44607,13 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A47" s="4">
         <v>44376</v>
       </c>
@@ -44604,13 +44621,13 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A48" s="4">
         <v>44375</v>
       </c>
@@ -44618,13 +44635,13 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:10">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:10">
       <c r="A49" s="26">
         <v>44608</v>
       </c>
@@ -44632,16 +44649,16 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A50" s="27">
         <v>45135</v>
       </c>
@@ -44649,65 +44666,65 @@
         <v>2740</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="60" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="61" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="62" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="63" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="64" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
@@ -44787,19 +44804,19 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.88888888888889" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.89189189189189" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -44845,7 +44862,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44859,7 +44876,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="12.85" spans="1:10">
       <c r="A3" s="13">
         <v>44357</v>
       </c>
@@ -44867,19 +44884,19 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:6">
       <c r="A4" s="13">
         <v>44370</v>
       </c>
@@ -44887,16 +44904,16 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:4">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A5" s="13">
         <v>44532</v>
       </c>
@@ -44904,13 +44921,13 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A6" s="13">
         <v>44514</v>
       </c>
@@ -44918,13 +44935,13 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="7" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A7" s="13">
         <v>44514</v>
       </c>
@@ -44932,7 +44949,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44946,7 +44963,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -44969,7 +44986,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44978,7 +44995,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45029,7 +45046,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45050,14 +45067,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45073,7 +45090,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45108,7 +45125,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45117,7 +45134,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45154,7 +45171,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45175,7 +45192,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45185,7 +45202,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -45395,87 +45412,87 @@
       <c r="J38" s="24"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="59" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
     </row>
@@ -46568,19 +46585,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="56.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="29.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="29.5585585585586" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="9.11111111111111" customWidth="1"/>
+    <col min="9" max="9" width="9.10810810810811" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -46606,7 +46623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A2" s="4">
         <v>44558</v>
       </c>
@@ -46621,7 +46638,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A3" s="4">
         <v>44558</v>
       </c>
@@ -46636,7 +46653,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A4" s="4">
         <v>44559</v>
       </c>
@@ -46644,14 +46661,14 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A5" s="4">
         <v>44610</v>
       </c>
@@ -46659,16 +46676,16 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:8">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A6" s="4">
         <v>44557</v>
       </c>
@@ -46683,7 +46700,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A7" s="4">
         <v>44560</v>
       </c>
@@ -46698,7 +46715,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A8" s="4">
         <v>44557</v>
       </c>
@@ -46706,14 +46723,14 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A9" s="4">
         <v>44579</v>
       </c>
@@ -46721,14 +46738,14 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A10" s="4">
         <v>44558</v>
       </c>
@@ -46743,7 +46760,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="11" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A11" s="4">
         <v>44343</v>
       </c>
@@ -46758,7 +46775,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="12" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A12" s="4">
         <v>44560</v>
       </c>
@@ -46773,7 +46790,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A13" s="4">
         <v>44559</v>
       </c>
@@ -46781,27 +46798,27 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="14" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="15" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="1">
         <v>1542</v>
@@ -46811,7 +46828,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="16" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A16" s="4">
         <v>44559</v>
       </c>
@@ -46819,53 +46836,53 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="17" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="1">
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="18" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="1">
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="19" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="1">
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="20" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A20" s="4">
         <v>44610</v>
       </c>
@@ -46873,14 +46890,14 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="21" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A21" s="4">
         <v>44579</v>
       </c>
@@ -46888,27 +46905,27 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="22" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A22" s="5"/>
       <c r="B22" s="1">
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="23" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A23" s="4">
         <v>44609</v>
       </c>
@@ -46916,7 +46933,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -47266,18 +47283,18 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="10.1081081081081" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="15.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="22.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="64.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="55.1081081081081" customWidth="1"/>
+    <col min="5" max="5" width="15.1081081081081" customWidth="1"/>
+    <col min="6" max="6" width="22.4414414414414" customWidth="1"/>
+    <col min="7" max="7" width="64.4414414414414" customWidth="1"/>
     <col min="8" max="8" width="69.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47304,7 +47321,7 @@
       </c>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A2" s="26">
         <v>44550</v>
       </c>
@@ -47321,7 +47338,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A3" s="26">
         <v>44550</v>
       </c>
@@ -47338,7 +47355,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>37</v>
@@ -47353,7 +47370,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A5" s="26">
         <v>44356</v>
       </c>
@@ -47370,7 +47387,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A6" s="26">
         <v>44356</v>
       </c>
@@ -47387,7 +47404,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A7" s="26">
         <v>43778</v>
       </c>
@@ -47406,7 +47423,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="12.85" spans="1:9">
       <c r="A8" s="26">
         <v>44355</v>
       </c>
@@ -47423,7 +47440,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="34"/>
     </row>
-    <row r="9" s="43" customFormat="1" ht="13.2" spans="1:9">
+    <row r="9" s="43" customFormat="1" ht="12.85" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>51</v>
@@ -47440,7 +47457,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" s="43" customFormat="1" ht="13.2" spans="1:9">
+    <row r="10" s="43" customFormat="1" ht="12.85" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>52</v>
@@ -48356,17 +48373,17 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.11111111111111" style="2"/>
+    <col min="1" max="1" width="9.10810810810811" style="2"/>
     <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="1"/>
-    <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.11111111111111" style="1"/>
+    <col min="3" max="3" width="51.5585585585586" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="1"/>
+    <col min="5" max="5" width="14.5585585585586" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.8918918918919" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5585585585586" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5585585585586" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.10810810810811" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -49002,16 +49019,16 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" style="2"/>
     <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="1"/>
-    <col min="5" max="7" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="1"/>
+    <col min="3" max="3" width="71.5585585585586" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="1"/>
+    <col min="5" max="7" width="14.5585585585586" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5585585585586" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5585585585586" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.10810810810811" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -50045,17 +50062,17 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="44.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="44.5585585585586" customWidth="1"/>
+    <col min="4" max="4" width="15.4414414414414" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="30.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -50081,7 +50098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A2" s="4">
         <v>44544</v>
       </c>
@@ -50151,16 +50168,16 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="50.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="15.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="30.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="29.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.8918918918919" customWidth="1"/>
+    <col min="5" max="5" width="15.5585585585586" customWidth="1"/>
+    <col min="7" max="7" width="30.4414414414414" customWidth="1"/>
+    <col min="8" max="8" width="29.1081081081081" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -50186,7 +50203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:8">
       <c r="A2" s="4">
         <v>44544</v>
       </c>
@@ -50256,19 +50273,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.88888888888889" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="8"/>
-    <col min="5" max="5" width="17.1111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.89189189189189" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="8"/>
+    <col min="5" max="5" width="17.1081081081081" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="8" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="9" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="8"/>
+    <col min="7" max="8" width="17.1081081081081" style="8" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="9" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="8" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -50348,7 +50365,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="12.85" spans="1:10">
       <c r="A4" s="13">
         <v>44374</v>
       </c>
@@ -50368,7 +50385,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:10">
+    <row r="5" s="1" customFormat="1" ht="12.85" spans="1:10">
       <c r="A5" s="13">
         <v>44610</v>
       </c>
@@ -50778,87 +50795,87 @@
       <c r="J37" s="24"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="38" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="39" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="40" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="41" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="42" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="43" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="44" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="45" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="46" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="47" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="48" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="49" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="50" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="54" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="55" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="56" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="57" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="58" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
     </row>
@@ -51951,19 +51968,19 @@
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="83" customWidth="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="84" customWidth="1"/>
-    <col min="3" max="3" width="57.8888888888889" style="85" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="85"/>
-    <col min="5" max="5" width="17.1111111111111" style="85" customWidth="1"/>
-    <col min="6" max="6" width="15.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1111111111111" style="85" customWidth="1"/>
-    <col min="9" max="9" width="58.4444444444444" style="85" customWidth="1"/>
-    <col min="10" max="10" width="69.1111111111111" style="85" customWidth="1"/>
-    <col min="11" max="11" width="43.5555555555556" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.11111111111111" style="85"/>
+    <col min="1" max="1" width="10.1081081081081" style="83" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="84" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="85" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="85"/>
+    <col min="5" max="5" width="17.1081081081081" style="85" customWidth="1"/>
+    <col min="6" max="6" width="15.5585585585586" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.1081081081081" style="85" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="85" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="85" customWidth="1"/>
+    <col min="11" max="11" width="43.5585585585586" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.10810810810811" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="3" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="1553">
   <si>
     <t>Date</t>
   </si>
@@ -4627,6 +4627,9 @@
   </si>
   <si>
     <t>Largest Number After Digit Swaps by Parity</t>
+  </si>
+  <si>
+    <t>Convert the Temperature</t>
   </si>
   <si>
     <t>Pass the Pillow</t>
@@ -7493,7 +7496,7 @@
   <sheetPr/>
   <dimension ref="A1:AR104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
@@ -41677,9 +41680,9 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
@@ -43280,10 +43283,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A111" s="4">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="B111" s="12">
-        <v>2582</v>
+        <v>2469</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1475</v>
@@ -43294,10 +43297,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A112" s="4">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B112" s="12">
-        <v>2739</v>
+        <v>2582</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1476</v>
@@ -43307,11 +43310,11 @@
       </c>
     </row>
     <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A113" s="27">
-        <v>45133</v>
+      <c r="A113" s="4">
+        <v>45131</v>
       </c>
       <c r="B113" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1477</v>
@@ -43320,9 +43323,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
+    <row r="114" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A114" s="27">
+        <v>45133</v>
+      </c>
+      <c r="B114" s="12">
+        <v>2745</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A115" s="11"/>
@@ -43335,6 +43348,10 @@
     <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -43432,7 +43449,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F117">
+  <conditionalFormatting sqref="F107:F118">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -43471,7 +43488,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G118:XFD1048576 A118:E1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A119:E1048576 G119:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -43493,7 +43510,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F118:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F119:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -43554,7 +43571,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD117 A107:E117">
+  <conditionalFormatting sqref="G107:XFD118 A107:E118">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -43641,7 +43658,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43873,7 +43890,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43890,7 +43907,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43909,7 +43926,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43928,7 +43945,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43948,7 +43965,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43968,7 +43985,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -43989,7 +44006,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44009,7 +44026,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44019,10 +44036,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -44054,7 +44071,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -44074,7 +44091,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44094,7 +44111,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44117,7 +44134,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44137,7 +44154,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44157,19 +44174,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44183,7 +44200,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44201,7 +44218,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44221,7 +44238,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44230,7 +44247,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44244,7 +44261,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44264,7 +44281,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44282,7 +44299,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44302,7 +44319,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44311,10 +44328,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44326,7 +44343,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44346,7 +44363,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44364,7 +44381,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44447,7 +44464,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44467,7 +44484,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44487,7 +44504,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44497,7 +44514,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44509,7 +44526,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44529,7 +44546,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44663,7 +44680,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44677,7 +44694,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44691,7 +44708,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44705,13 +44722,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44722,7 +44739,7 @@
         <v>2740</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -44940,13 +44957,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44960,13 +44977,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44977,7 +44994,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -44991,7 +45008,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45005,7 +45022,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45019,7 +45036,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -45051,7 +45068,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45102,7 +45119,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45123,14 +45140,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45146,7 +45163,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45181,7 +45198,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45190,7 +45207,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45227,7 +45244,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45248,7 +45265,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45258,7 +45275,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46732,13 +46749,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46779,7 +46796,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46794,7 +46811,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46854,7 +46871,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46867,7 +46884,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46892,7 +46909,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46905,7 +46922,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46918,7 +46935,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46931,7 +46948,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46946,7 +46963,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46961,7 +46978,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46974,7 +46991,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -46989,7 +47006,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="1554">
   <si>
     <t>Date</t>
   </si>
@@ -4630,6 +4630,9 @@
   </si>
   <si>
     <t>Convert the Temperature</t>
+  </si>
+  <si>
+    <t>Number of Uneual Triplets in Array</t>
   </si>
   <si>
     <t>Pass the Pillow</t>
@@ -41680,10 +41683,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -43297,10 +43300,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A112" s="4">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="B112" s="12">
-        <v>2582</v>
+        <v>2475</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1476</v>
@@ -43311,10 +43314,10 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A113" s="4">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B113" s="12">
-        <v>2739</v>
+        <v>2582</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1477</v>
@@ -43324,11 +43327,11 @@
       </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A114" s="27">
-        <v>45133</v>
+      <c r="A114" s="4">
+        <v>45131</v>
       </c>
       <c r="B114" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1478</v>
@@ -43337,9 +43340,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
+    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A115" s="27">
+        <v>45133</v>
+      </c>
+      <c r="B115" s="12">
+        <v>2745</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A116" s="11"/>
@@ -43352,6 +43365,10 @@
     <row r="118" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A118" s="11"/>
       <c r="B118" s="12"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -43449,7 +43466,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F118">
+  <conditionalFormatting sqref="F107:F119">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -43488,7 +43505,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A119:E1048576 G119:XFD1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G120:XFD1048576 A120:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -43510,7 +43527,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F119:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F120:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -43571,7 +43588,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD118 A107:E118">
+  <conditionalFormatting sqref="G107:XFD119 A107:E119">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -43658,7 +43675,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43890,7 +43907,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43907,7 +43924,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43926,7 +43943,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43945,7 +43962,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43965,7 +43982,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -43985,7 +44002,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44006,7 +44023,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44026,7 +44043,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44036,10 +44053,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -44071,7 +44088,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -44091,7 +44108,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44111,7 +44128,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44134,7 +44151,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44154,7 +44171,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44174,19 +44191,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44200,7 +44217,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44218,7 +44235,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44238,7 +44255,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44247,7 +44264,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44261,7 +44278,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44281,7 +44298,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44299,7 +44316,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44319,7 +44336,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44328,10 +44345,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44343,7 +44360,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44363,7 +44380,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44381,7 +44398,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44464,7 +44481,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44484,7 +44501,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44504,7 +44521,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44514,7 +44531,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44526,7 +44543,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44546,7 +44563,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44680,7 +44697,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44694,7 +44711,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44708,7 +44725,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44722,13 +44739,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44739,7 +44756,7 @@
         <v>2740</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -44957,13 +44974,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44977,13 +44994,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44994,7 +45011,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45008,7 +45025,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45022,7 +45039,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45036,7 +45053,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -45068,7 +45085,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45119,7 +45136,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45140,14 +45157,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45163,7 +45180,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45198,7 +45215,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45207,7 +45224,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45244,7 +45261,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45265,7 +45282,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45275,7 +45292,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46749,13 +46766,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46796,7 +46813,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46811,7 +46828,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46871,7 +46888,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46884,7 +46901,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46909,7 +46926,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46922,7 +46939,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46935,7 +46952,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46948,7 +46965,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46963,7 +46980,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46978,7 +46995,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -46991,7 +47008,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47006,7 +47023,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="3" activeTab="20"/>
+    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="5" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1555">
   <si>
     <t>Date</t>
   </si>
@@ -4642,6 +4642,9 @@
   </si>
   <si>
     <t>Construct the Longest New String</t>
+  </si>
+  <si>
+    <t>Find the Maximum Achievable Number</t>
   </si>
   <si>
     <t>Print in Order</t>
@@ -41686,7 +41689,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -43354,9 +43357,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
+    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A116" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B116" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A117" s="11"/>
@@ -43675,7 +43688,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43907,7 +43920,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43924,7 +43937,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43943,7 +43956,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43962,7 +43975,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43982,7 +43995,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44002,7 +44015,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44023,7 +44036,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44043,7 +44056,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44053,10 +44066,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -44088,7 +44101,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -44108,7 +44121,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44128,7 +44141,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44151,7 +44164,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44171,7 +44184,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44191,19 +44204,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44217,7 +44230,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44235,7 +44248,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44255,7 +44268,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44264,7 +44277,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44278,7 +44291,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44298,7 +44311,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44316,7 +44329,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44336,7 +44349,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44345,10 +44358,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44360,7 +44373,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44380,7 +44393,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44398,7 +44411,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44481,7 +44494,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44501,7 +44514,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44521,7 +44534,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44531,7 +44544,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44543,7 +44556,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44563,7 +44576,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44697,7 +44710,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44711,7 +44724,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44725,7 +44738,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44739,13 +44752,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44756,7 +44769,7 @@
         <v>2740</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -44974,13 +44987,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -44994,13 +45007,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45011,7 +45024,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45025,7 +45038,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45039,7 +45052,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45053,7 +45066,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -45085,7 +45098,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45136,7 +45149,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45157,14 +45170,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45180,7 +45193,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45215,7 +45228,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45224,7 +45237,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45261,7 +45274,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45282,7 +45295,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45292,7 +45305,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46766,13 +46779,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46813,7 +46826,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46828,7 +46841,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46888,7 +46901,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46901,7 +46914,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46926,7 +46939,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46939,7 +46952,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46952,7 +46965,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46965,7 +46978,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46980,7 +46993,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -46995,7 +47008,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47008,7 +47021,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47023,7 +47036,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="5" activeTab="20"/>
+    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="5" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1556">
   <si>
     <t>Date</t>
   </si>
@@ -4771,6 +4771,9 @@
   </si>
   <si>
     <t>to_string</t>
+  </si>
+  <si>
+    <t>Neither Minimum nor Maximum</t>
   </si>
   <si>
     <t>Find the Value of the Partition</t>
@@ -41688,7 +41691,7 @@
   <sheetPr/>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
@@ -43855,9 +43858,9 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -44762,22 +44765,32 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A50" s="27">
-        <v>45135</v>
+      <c r="A50" s="26">
+        <v>45143</v>
       </c>
       <c r="B50" s="12">
-        <v>2740</v>
+        <v>2733</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1523</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A51" s="27">
+        <v>45135</v>
+      </c>
+      <c r="B51" s="12">
+        <v>2740</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A52" s="11"/>
@@ -44831,40 +44844,44 @@
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
     </row>
+    <row r="65" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60:F62">
+  <conditionalFormatting sqref="F61:F63">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:XFD$1048576 A50:E1048576 B49:E49 A1:E48">
+  <conditionalFormatting sqref="G$1:XFD$1048576 A1:E48 B49:E50 A51:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44987,13 +45004,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45007,13 +45024,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45024,7 +45041,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45038,7 +45055,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45052,7 +45069,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45066,7 +45083,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -45098,7 +45115,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45149,7 +45166,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45170,14 +45187,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45193,7 +45210,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45228,7 +45245,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45237,7 +45254,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45274,7 +45291,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45295,7 +45312,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45305,7 +45322,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46779,13 +46796,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46826,7 +46843,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46901,7 +46918,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46914,7 +46931,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46939,7 +46956,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46952,7 +46969,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46965,7 +46982,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46978,7 +46995,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -46993,7 +47010,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47008,7 +47025,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47021,7 +47038,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47036,7 +47053,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="5" activeTab="22"/>
+    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="1557">
   <si>
     <t>Date</t>
   </si>
@@ -3642,6 +3642,9 @@
   </si>
   <si>
     <t>Split Strings by Separator</t>
+  </si>
+  <si>
+    <t>Faulty Keyboard</t>
   </si>
   <si>
     <t>Add Two Numbers</t>
@@ -25360,8 +25363,8 @@
   <sheetPr/>
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -28193,8 +28196,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="36"/>
+    <row r="213" spans="1:4">
+      <c r="A213" s="39">
+        <v>45144</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2810</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A5:I62">
@@ -29033,7 +29047,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -29056,7 +29070,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -29076,7 +29090,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -29096,7 +29110,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -29116,7 +29130,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -29134,7 +29148,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -29152,7 +29166,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29170,7 +29184,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29190,7 +29204,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29208,7 +29222,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29226,7 +29240,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29244,7 +29258,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29262,7 +29276,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29336,7 +29350,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29354,7 +29368,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29374,7 +29388,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29386,7 +29400,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29399,7 +29413,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29419,7 +29433,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29442,7 +29456,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29463,7 +29477,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29484,7 +29498,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29504,7 +29518,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29522,7 +29536,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29540,7 +29554,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29558,7 +29572,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29576,7 +29590,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29612,7 +29626,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29632,7 +29646,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29641,7 +29655,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29652,7 +29666,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29670,7 +29684,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29692,7 +29706,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29701,7 +29715,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29717,7 +29731,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29743,7 +29757,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29758,7 +29772,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29772,7 +29786,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29786,7 +29800,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29798,7 +29812,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29812,7 +29826,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29824,7 +29838,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29836,7 +29850,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29850,7 +29864,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29864,7 +29878,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -31165,7 +31179,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31183,7 +31197,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31205,7 +31219,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31225,7 +31239,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31245,7 +31259,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31263,7 +31277,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31281,7 +31295,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31299,7 +31313,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31315,7 +31329,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32756,7 +32770,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32777,7 +32791,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32795,7 +32809,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32813,7 +32827,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32831,7 +32845,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32852,7 +32866,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32863,7 +32877,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32873,7 +32887,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -32894,7 +32908,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -32912,7 +32926,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32930,7 +32944,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -32948,7 +32962,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -32966,7 +32980,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -32984,7 +32998,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -33004,7 +33018,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -33025,7 +33039,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -33044,7 +33058,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -33065,7 +33079,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -33085,7 +33099,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -33103,7 +33117,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -33123,7 +33137,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -33143,7 +33157,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33193,7 +33207,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33213,7 +33227,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33231,7 +33245,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33249,7 +33263,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33267,7 +33281,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33287,7 +33301,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33305,7 +33319,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33323,7 +33337,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33341,7 +33355,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33359,7 +33373,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33377,7 +33391,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33395,7 +33409,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33413,7 +33427,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33433,7 +33447,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33451,7 +33465,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33469,7 +33483,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33487,7 +33501,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33507,7 +33521,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33527,7 +33541,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33548,7 +33562,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33568,7 +33582,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33586,7 +33600,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33606,7 +33620,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34856,7 +34870,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34874,7 +34888,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -34894,7 +34908,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -34909,7 +34923,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -34924,7 +34938,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -34939,7 +34953,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -34948,10 +34962,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -34963,14 +34977,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34981,7 +34995,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -35001,7 +35015,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -35019,7 +35033,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -35037,7 +35051,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -35057,7 +35071,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -35077,7 +35091,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -35113,7 +35127,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -35131,7 +35145,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -35149,7 +35163,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35167,7 +35181,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35207,7 +35221,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35225,7 +35239,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35245,7 +35259,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35263,7 +35277,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35286,7 +35300,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35307,7 +35321,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35326,7 +35340,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35346,7 +35360,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35368,7 +35382,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35404,7 +35418,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35424,7 +35438,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35444,7 +35458,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35462,7 +35476,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35480,7 +35494,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35498,7 +35512,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35518,7 +35532,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35538,7 +35552,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35558,7 +35572,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35567,10 +35581,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35582,7 +35596,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35600,7 +35614,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35612,7 +35626,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35624,7 +35638,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35639,7 +35653,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35663,7 +35677,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35677,7 +35691,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35689,7 +35703,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35703,7 +35717,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35717,7 +35731,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35729,7 +35743,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35741,7 +35755,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35753,7 +35767,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35765,7 +35779,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35777,7 +35791,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35789,7 +35803,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35801,7 +35815,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35815,7 +35829,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35827,7 +35841,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35839,7 +35853,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35853,7 +35867,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35865,7 +35879,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35877,7 +35891,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -35889,7 +35903,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -35901,7 +35915,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -35952,7 +35966,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -36003,7 +36017,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -36056,7 +36070,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -36109,7 +36123,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -36160,7 +36174,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36211,7 +36225,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36262,7 +36276,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36315,7 +36329,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36366,7 +36380,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36419,7 +36433,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36470,7 +36484,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36521,7 +36535,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36574,7 +36588,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36625,7 +36639,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36678,7 +36692,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36780,7 +36794,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -36884,7 +36898,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -37042,7 +37056,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -37095,7 +37109,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37197,7 +37211,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37250,7 +37264,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37259,7 +37273,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37359,7 +37373,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37410,7 +37424,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37463,7 +37477,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37516,7 +37530,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37620,7 +37634,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37718,7 +37732,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -40897,7 +40911,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -40914,7 +40928,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -40931,7 +40945,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -40948,7 +40962,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -40967,7 +40981,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -40984,7 +40998,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -41001,7 +41015,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -41018,7 +41032,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -41037,7 +41051,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -41054,7 +41068,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -41071,7 +41085,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -41088,7 +41102,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -41105,7 +41119,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -41124,7 +41138,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -41141,7 +41155,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -41158,7 +41172,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41743,14 +41757,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41763,17 +41777,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41783,7 +41797,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41801,7 +41815,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41817,7 +41831,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41833,7 +41847,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41849,7 +41863,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41865,7 +41879,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -41883,17 +41897,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -41903,7 +41917,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -41921,17 +41935,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -41943,17 +41957,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -41965,7 +41979,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -41973,7 +41987,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -41983,7 +41997,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -42000,7 +42014,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -42017,7 +42031,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -42036,7 +42050,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -42054,14 +42068,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -42074,14 +42088,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -42092,7 +42106,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -42108,14 +42122,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -42126,7 +42140,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -42144,7 +42158,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -42153,7 +42167,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42164,7 +42178,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42180,7 +42194,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42196,7 +42210,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42212,7 +42226,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42228,7 +42242,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42246,7 +42260,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42262,7 +42276,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42278,7 +42292,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42294,7 +42308,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42310,7 +42324,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42344,14 +42358,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42364,7 +42378,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42380,7 +42394,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42396,7 +42410,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42430,7 +42444,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42446,7 +42460,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42464,7 +42478,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42482,7 +42496,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42500,13 +42514,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42517,7 +42531,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42531,7 +42545,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42545,7 +42559,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42559,7 +42573,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42571,7 +42585,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42585,7 +42599,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42599,7 +42613,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42613,7 +42627,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42627,7 +42641,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42641,7 +42655,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42653,7 +42667,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42670,7 +42684,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42682,7 +42696,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42696,7 +42710,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42713,7 +42727,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42730,13 +42744,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42745,7 +42759,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42759,7 +42773,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42777,7 +42791,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42791,13 +42805,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42808,7 +42822,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42822,7 +42836,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42836,7 +42850,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42850,7 +42864,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42862,7 +42876,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -42880,7 +42894,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -42894,13 +42908,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42911,7 +42925,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -42923,7 +42937,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -42937,13 +42951,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42952,7 +42966,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -42964,7 +42978,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -42978,7 +42992,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -42990,7 +43004,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -43002,7 +43016,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -43014,7 +43028,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -43028,13 +43042,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43045,7 +43059,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -43059,7 +43073,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -43073,7 +43087,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -43111,7 +43125,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -43125,7 +43139,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -43139,7 +43153,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -43169,7 +43183,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43183,7 +43197,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43197,7 +43211,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43211,7 +43225,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43225,7 +43239,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43239,7 +43253,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43253,7 +43267,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43267,13 +43281,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43284,7 +43298,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43298,7 +43312,7 @@
         <v>2469</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43312,7 +43326,7 @@
         <v>2475</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -43326,7 +43340,7 @@
         <v>2582</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -43340,7 +43354,7 @@
         <v>2739</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -43354,7 +43368,7 @@
         <v>2745</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
@@ -43368,7 +43382,7 @@
         <v>2769</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -43691,7 +43705,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43860,7 +43874,7 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -43923,7 +43937,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -43940,7 +43954,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -43959,7 +43973,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -43978,7 +43992,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -43998,7 +44012,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44018,7 +44032,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44039,7 +44053,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44059,7 +44073,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44069,10 +44083,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -44104,7 +44118,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -44124,7 +44138,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44144,7 +44158,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44167,7 +44181,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44187,7 +44201,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44207,19 +44221,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44233,7 +44247,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44251,7 +44265,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44271,7 +44285,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44280,7 +44294,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44294,7 +44308,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44314,7 +44328,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44332,7 +44346,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44352,7 +44366,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44361,10 +44375,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44376,7 +44390,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44396,7 +44410,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44414,7 +44428,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44497,7 +44511,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44517,7 +44531,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44537,7 +44551,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44547,7 +44561,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44559,7 +44573,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44579,7 +44593,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44713,7 +44727,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44727,7 +44741,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44741,7 +44755,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44755,13 +44769,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44772,7 +44786,7 @@
         <v>2733</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -44786,7 +44800,7 @@
         <v>2740</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -44982,7 +44996,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -45004,13 +45018,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45024,13 +45038,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45041,7 +45055,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45055,7 +45069,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45069,7 +45083,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45083,7 +45097,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -45106,7 +45120,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45115,7 +45129,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45166,7 +45180,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45187,14 +45201,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45210,7 +45224,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45245,7 +45259,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45254,7 +45268,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45291,7 +45305,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45312,7 +45326,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45322,7 +45336,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46781,7 +46795,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46796,13 +46810,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46843,7 +46857,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46858,7 +46872,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46918,7 +46932,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46931,7 +46945,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -46956,7 +46970,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -46969,7 +46983,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -46982,7 +46996,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -46995,7 +47009,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47010,7 +47024,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47025,7 +47039,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47038,7 +47052,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47053,7 +47067,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24128" windowHeight="11091" tabRatio="991" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="1559">
   <si>
     <t>Date</t>
   </si>
@@ -3636,6 +3636,9 @@
   </si>
   <si>
     <t>Lexicographically Smallest Palindrome</t>
+  </si>
+  <si>
+    <t>Remove Trailing Zeros From a String</t>
   </si>
   <si>
     <t>Find Maximum Number of String Pairs</t>
@@ -7511,7 +7514,7 @@
   <sheetPr/>
   <dimension ref="A1:AR105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A105" sqref="$A105:$XFD105"/>
     </sheetView>
   </sheetViews>
@@ -25468,10 +25471,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -28263,10 +28266,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="39">
-        <v>45134</v>
+        <v>45145</v>
       </c>
       <c r="B210" s="1">
-        <v>2744</v>
+        <v>2710</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1152</v>
@@ -28277,43 +28280,57 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="39">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B211" s="1">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="39">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B212" s="1">
-        <v>2788</v>
-      </c>
-      <c r="C212" s="16" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="39">
+        <v>45131</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="39">
         <v>45144</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B214" s="1">
         <v>2810</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D213" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -28603,12 +28620,12 @@
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F211">
+  <conditionalFormatting sqref="F212">
     <cfRule type="containsText" dxfId="5" priority="27" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="35" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F211)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="43" operator="between">
       <formula>"Amazon"</formula>
@@ -28639,7 +28656,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D212">
+  <conditionalFormatting sqref="D213">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28661,12 +28678,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F212">
+  <conditionalFormatting sqref="F213">
     <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="34" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
       <formula>"Amazon"</formula>
@@ -28697,12 +28714,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F213">
+  <conditionalFormatting sqref="F214">
     <cfRule type="containsText" dxfId="5" priority="25" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="33" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="41" operator="between">
       <formula>"Amazon"</formula>
@@ -28733,7 +28750,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A210">
+  <conditionalFormatting sqref="A207:A211">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28767,7 +28784,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207:F210">
+  <conditionalFormatting sqref="F207:F211">
     <cfRule type="containsText" dxfId="5" priority="11" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
     </cfRule>
@@ -28803,7 +28820,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 A214:E1048576 G214:XFD1048576">
+  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 G215:XFD1048576 A215:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -28825,7 +28842,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F214:F1048576">
+  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F215:F1048576">
     <cfRule type="containsText" dxfId="5" priority="180" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
@@ -28993,7 +29010,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:XFD210 B207:E210">
+  <conditionalFormatting sqref="G207:XFD211 B207:E211">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29015,7 +29032,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211:XFD211 A211:E211">
+  <conditionalFormatting sqref="G212:XFD212 A212:E212">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29037,7 +29054,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G212:XFD212 E212 A212:C212">
+  <conditionalFormatting sqref="G213:XFD213 A213:C213 E213">
     <cfRule type="cellIs" dxfId="0" priority="98" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29059,7 +29076,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G213:XFD213 A213:E213">
+  <conditionalFormatting sqref="G214:XFD214 A214:E214">
     <cfRule type="cellIs" dxfId="0" priority="97" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29154,7 +29171,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -29177,7 +29194,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -29197,7 +29214,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -29217,7 +29234,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -29237,7 +29254,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -29255,7 +29272,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -29273,7 +29290,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -29291,7 +29308,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -29311,7 +29328,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -29329,7 +29346,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -29347,7 +29364,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -29365,7 +29382,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -29383,7 +29400,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -29457,7 +29474,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -29475,7 +29492,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -29495,7 +29512,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -29507,7 +29524,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -29520,7 +29537,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -29540,7 +29557,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -29563,7 +29580,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -29584,7 +29601,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -29605,7 +29622,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -29625,7 +29642,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -29643,7 +29660,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -29661,7 +29678,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -29679,7 +29696,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -29697,7 +29714,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -29733,7 +29750,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -29753,7 +29770,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -29762,7 +29779,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -29773,7 +29790,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -29791,7 +29808,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -29813,7 +29830,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -29822,7 +29839,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -29838,7 +29855,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -29864,7 +29881,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -29879,7 +29896,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -29893,7 +29910,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -29907,7 +29924,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -29919,7 +29936,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -29933,7 +29950,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -29945,7 +29962,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -29957,7 +29974,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -29971,7 +29988,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -29985,7 +30002,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -31286,7 +31303,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -31304,7 +31321,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -31326,7 +31343,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -31346,7 +31363,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -31366,7 +31383,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -31384,7 +31401,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -31402,7 +31419,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -31420,7 +31437,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -31436,7 +31453,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -32877,7 +32894,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -32898,7 +32915,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -32916,7 +32933,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -32934,7 +32951,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32952,7 +32969,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -32973,7 +32990,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -32984,7 +33001,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -32994,7 +33011,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -33015,7 +33032,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -33033,7 +33050,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33051,7 +33068,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -33069,7 +33086,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -33087,7 +33104,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -33105,7 +33122,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -33125,7 +33142,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -33146,7 +33163,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -33165,7 +33182,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -33186,7 +33203,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -33206,7 +33223,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -33224,7 +33241,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -33244,7 +33261,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -33264,7 +33281,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -33314,7 +33331,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -33334,7 +33351,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -33352,7 +33369,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -33370,7 +33387,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -33388,7 +33405,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -33408,7 +33425,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -33426,7 +33443,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -33444,7 +33461,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -33462,7 +33479,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -33480,7 +33497,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -33498,7 +33515,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -33516,7 +33533,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -33534,7 +33551,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -33554,7 +33571,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -33572,7 +33589,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -33590,7 +33607,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -33608,7 +33625,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -33628,7 +33645,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -33648,7 +33665,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -33669,7 +33686,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -33689,7 +33706,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -33707,7 +33724,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -33727,7 +33744,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -34977,7 +34994,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -34995,7 +35012,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -35015,7 +35032,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -35030,7 +35047,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -35045,7 +35062,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -35060,7 +35077,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -35069,10 +35086,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -35084,14 +35101,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -35102,7 +35119,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -35122,7 +35139,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -35140,7 +35157,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -35158,7 +35175,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -35178,7 +35195,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -35198,7 +35215,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -35234,7 +35251,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -35252,7 +35269,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -35270,7 +35287,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -35288,7 +35305,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -35328,7 +35345,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -35346,7 +35363,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -35366,7 +35383,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -35384,7 +35401,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -35407,7 +35424,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -35428,7 +35445,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -35447,7 +35464,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -35467,7 +35484,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -35489,7 +35506,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -35525,7 +35542,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -35545,7 +35562,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -35565,7 +35582,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -35583,7 +35600,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -35601,7 +35618,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -35619,7 +35636,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -35639,7 +35656,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -35659,7 +35676,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -35679,7 +35696,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -35688,10 +35705,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -35703,7 +35720,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -35721,7 +35738,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -35733,7 +35750,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -35745,7 +35762,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -35760,7 +35777,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -35784,7 +35801,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -35798,7 +35815,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -35810,7 +35827,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -35824,7 +35841,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -35838,7 +35855,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -35850,7 +35867,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -35862,7 +35879,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -35874,7 +35891,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -35886,7 +35903,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -35898,7 +35915,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -35910,7 +35927,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -35922,7 +35939,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -35936,7 +35953,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -35948,7 +35965,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -35960,7 +35977,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -35974,7 +35991,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -35986,7 +36003,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -35998,7 +36015,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -36010,7 +36027,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -36022,7 +36039,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -36073,7 +36090,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -36124,7 +36141,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -36177,7 +36194,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -36230,7 +36247,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -36281,7 +36298,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -36332,7 +36349,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -36383,7 +36400,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -36436,7 +36453,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -36487,7 +36504,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -36540,7 +36557,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -36591,7 +36608,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -36642,7 +36659,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -36695,7 +36712,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -36746,7 +36763,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -36799,7 +36816,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -36901,7 +36918,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -37005,7 +37022,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -37163,7 +37180,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -37216,7 +37233,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -37318,7 +37335,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -37371,7 +37388,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -37380,7 +37397,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -37480,7 +37497,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -37531,7 +37548,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -37584,7 +37601,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -37637,7 +37654,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -37741,7 +37758,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -37839,7 +37856,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -41018,7 +41035,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41035,7 +41052,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41052,7 +41069,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -41069,7 +41086,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -41088,7 +41105,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -41105,7 +41122,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -41122,7 +41139,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -41139,7 +41156,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -41158,7 +41175,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -41175,7 +41192,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -41192,7 +41209,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -41209,7 +41226,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -41226,7 +41243,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -41245,7 +41262,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -41262,7 +41279,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -41279,7 +41296,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -41864,14 +41881,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -41884,17 +41901,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -41904,7 +41921,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -41922,7 +41939,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -41938,7 +41955,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -41954,7 +41971,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -41970,7 +41987,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -41986,7 +42003,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42004,17 +42021,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42024,7 +42041,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42042,17 +42059,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -42064,17 +42081,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -42086,7 +42103,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -42094,7 +42111,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -42104,7 +42121,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -42121,7 +42138,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -42138,7 +42155,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -42157,7 +42174,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -42175,14 +42192,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -42195,14 +42212,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -42213,7 +42230,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -42229,14 +42246,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -42247,7 +42264,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -42265,7 +42282,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -42274,7 +42291,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42285,7 +42302,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -42301,7 +42318,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -42317,7 +42334,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -42333,7 +42350,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -42349,7 +42366,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -42367,7 +42384,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -42383,7 +42400,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -42399,7 +42416,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -42415,7 +42432,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -42431,7 +42448,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -42465,14 +42482,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -42485,7 +42502,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -42501,7 +42518,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -42517,7 +42534,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -42551,7 +42568,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -42567,7 +42584,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -42585,7 +42602,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -42603,7 +42620,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -42621,13 +42638,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42638,7 +42655,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -42652,7 +42669,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -42666,7 +42683,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -42680,7 +42697,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -42692,7 +42709,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -42706,7 +42723,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -42720,7 +42737,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -42734,7 +42751,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -42748,7 +42765,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -42762,7 +42779,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -42774,7 +42791,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -42791,7 +42808,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -42803,7 +42820,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -42817,7 +42834,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -42834,7 +42851,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -42851,13 +42868,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42866,7 +42883,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -42880,7 +42897,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -42898,7 +42915,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -42912,13 +42929,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -42929,7 +42946,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -42943,7 +42960,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -42957,7 +42974,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -42971,7 +42988,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -42983,7 +43000,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43001,7 +43018,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43015,13 +43032,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43032,7 +43049,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43044,7 +43061,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -43058,13 +43075,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43073,7 +43090,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -43085,7 +43102,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -43099,7 +43116,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -43111,7 +43128,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -43123,7 +43140,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -43135,7 +43152,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -43149,13 +43166,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43166,7 +43183,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -43180,7 +43197,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -43194,7 +43211,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -43232,7 +43249,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -43246,7 +43263,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -43260,7 +43277,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -43290,7 +43307,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -43304,7 +43321,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -43318,7 +43335,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -43332,7 +43349,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -43346,7 +43363,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -43360,7 +43377,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -43374,7 +43391,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -43388,13 +43405,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43405,7 +43422,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -43419,7 +43436,7 @@
         <v>2469</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -43433,7 +43450,7 @@
         <v>2475</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -43447,7 +43464,7 @@
         <v>2582</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -43461,7 +43478,7 @@
         <v>2739</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -43475,7 +43492,7 @@
         <v>2745</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
@@ -43489,7 +43506,7 @@
         <v>2769</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -43812,7 +43829,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44044,7 +44061,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44061,7 +44078,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44080,7 +44097,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44099,7 +44116,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -44119,7 +44136,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44139,7 +44156,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44160,7 +44177,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44180,7 +44197,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44190,10 +44207,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -44225,7 +44242,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -44245,7 +44262,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -44265,7 +44282,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -44288,7 +44305,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -44308,7 +44325,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -44328,19 +44345,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -44354,7 +44371,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -44372,7 +44389,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -44392,7 +44409,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -44401,7 +44418,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -44415,7 +44432,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -44435,7 +44452,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -44453,7 +44470,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -44473,7 +44490,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -44482,10 +44499,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -44497,7 +44514,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -44517,7 +44534,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -44535,7 +44552,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -44618,7 +44635,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -44638,7 +44655,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -44658,7 +44675,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -44668,7 +44685,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -44680,7 +44697,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -44700,7 +44717,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -44834,7 +44851,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -44848,7 +44865,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -44862,7 +44879,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -44876,13 +44893,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44893,7 +44910,7 @@
         <v>2733</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -44907,7 +44924,7 @@
         <v>2740</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -45103,7 +45120,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -45125,13 +45142,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45145,13 +45162,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45162,7 +45179,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45176,7 +45193,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45190,7 +45207,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45204,7 +45221,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -45227,7 +45244,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45236,7 +45253,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -45287,7 +45304,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45308,14 +45325,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -45331,7 +45348,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -45366,7 +45383,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -45375,7 +45392,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -45412,7 +45429,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45433,7 +45450,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -45443,7 +45460,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -46902,7 +46919,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -46917,13 +46934,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -46964,7 +46981,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -46979,7 +46996,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47039,7 +47056,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47052,7 +47069,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47077,7 +47094,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47090,7 +47107,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47103,7 +47120,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47116,7 +47133,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47131,7 +47148,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47146,7 +47163,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47159,7 +47176,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47174,7 +47191,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="1561">
   <si>
     <t>Date</t>
   </si>
@@ -4648,6 +4648,9 @@
   </si>
   <si>
     <t>Pass the Pillow</t>
+  </si>
+  <si>
+    <t>Sum Multipels</t>
   </si>
   <si>
     <t>Total Distance Traveled</t>
@@ -7517,7 +7520,7 @@
   <sheetPr/>
   <dimension ref="A1:AR113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -42606,10 +42609,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -44251,10 +44254,10 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A114" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B114" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1482</v>
@@ -44264,11 +44267,11 @@
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A115" s="27">
-        <v>45133</v>
+      <c r="A115" s="4">
+        <v>45131</v>
       </c>
       <c r="B115" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1483</v>
@@ -44279,10 +44282,10 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A116" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B116" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1484</v>
@@ -44291,9 +44294,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
+    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A117" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B117" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A118" s="11"/>
@@ -44302,6 +44315,10 @@
     <row r="119" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -44399,7 +44416,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F119">
+  <conditionalFormatting sqref="F107:F120">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -44438,7 +44455,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G120:XFD1048576 A120:E1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A121:E1048576 G121:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44460,7 +44477,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F120:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F121:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -44521,7 +44538,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD119 A107:E119">
+  <conditionalFormatting sqref="G107:XFD120 A107:E120">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44608,7 +44625,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44840,7 +44857,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44857,7 +44874,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44876,7 +44893,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44895,7 +44912,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -44915,7 +44932,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44935,7 +44952,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44956,7 +44973,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44976,7 +44993,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -44986,10 +45003,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45021,7 +45038,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45041,7 +45058,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45061,7 +45078,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45084,7 +45101,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45104,7 +45121,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45124,19 +45141,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45150,7 +45167,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45168,7 +45185,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45188,7 +45205,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45197,7 +45214,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45211,7 +45228,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45231,7 +45248,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45249,7 +45266,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45269,7 +45286,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45278,10 +45295,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45293,7 +45310,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45313,7 +45330,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45331,7 +45348,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45414,7 +45431,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45434,7 +45451,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45454,7 +45471,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45464,7 +45481,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45476,7 +45493,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45496,7 +45513,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45630,7 +45647,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45644,7 +45661,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45658,7 +45675,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45672,13 +45689,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45689,7 +45706,7 @@
         <v>2733</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45703,7 +45720,7 @@
         <v>2740</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -45921,13 +45938,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45941,13 +45958,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45958,7 +45975,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45972,7 +45989,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -45986,7 +46003,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46000,7 +46017,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46032,7 +46049,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46083,7 +46100,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46104,14 +46121,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46127,7 +46144,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46162,7 +46179,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46171,7 +46188,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46208,7 +46225,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46229,7 +46246,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46239,7 +46256,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47713,13 +47730,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47760,7 +47777,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47775,7 +47792,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47835,7 +47852,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47848,7 +47865,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47873,7 +47890,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47886,7 +47903,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47899,7 +47916,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47912,7 +47929,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47927,7 +47944,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47942,7 +47959,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47955,7 +47972,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47970,7 +47987,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1562">
   <si>
     <t>Date</t>
   </si>
@@ -4639,6 +4639,9 @@
   </si>
   <si>
     <t>Largest Number After Digit Swaps by Parity</t>
+  </si>
+  <si>
+    <t>Smallest Even Multiple</t>
   </si>
   <si>
     <t>Convert the Temperature</t>
@@ -42609,10 +42612,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -44212,10 +44215,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A111" s="4">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B111" s="12">
-        <v>2469</v>
+        <v>2413</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1479</v>
@@ -44229,7 +44232,7 @@
         <v>45141</v>
       </c>
       <c r="B112" s="12">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1480</v>
@@ -44240,10 +44243,10 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A113" s="4">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="B113" s="12">
-        <v>2582</v>
+        <v>2475</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1481</v>
@@ -44254,10 +44257,10 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A114" s="4">
-        <v>45145</v>
+        <v>45137</v>
       </c>
       <c r="B114" s="12">
-        <v>2652</v>
+        <v>2582</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1482</v>
@@ -44268,10 +44271,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A115" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B115" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1483</v>
@@ -44281,11 +44284,11 @@
       </c>
     </row>
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A116" s="27">
-        <v>45133</v>
+      <c r="A116" s="4">
+        <v>45131</v>
       </c>
       <c r="B116" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1484</v>
@@ -44296,10 +44299,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A117" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B117" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1485</v>
@@ -44308,9 +44311,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
+    <row r="118" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A118" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B118" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A119" s="11"/>
@@ -44319,6 +44332,10 @@
     <row r="120" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -44416,7 +44433,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F120">
+  <conditionalFormatting sqref="F107:F121">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -44455,7 +44472,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A121:E1048576 G121:XFD1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G122:XFD1048576 A122:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44477,7 +44494,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F121:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F122:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -44538,7 +44555,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD120 A107:E120">
+  <conditionalFormatting sqref="G107:XFD121 A107:E121">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44625,7 +44642,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44857,7 +44874,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44874,7 +44891,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44893,7 +44910,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44912,7 +44929,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -44932,7 +44949,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44952,7 +44969,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44973,7 +44990,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -44993,7 +45010,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45003,10 +45020,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45038,7 +45055,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45058,7 +45075,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45078,7 +45095,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45101,7 +45118,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45121,7 +45138,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45141,19 +45158,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45167,7 +45184,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45185,7 +45202,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45205,7 +45222,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45214,7 +45231,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45228,7 +45245,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45248,7 +45265,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45266,7 +45283,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45286,7 +45303,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45295,10 +45312,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45310,7 +45327,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45330,7 +45347,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45348,7 +45365,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45431,7 +45448,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45451,7 +45468,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45471,7 +45488,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45481,7 +45498,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45493,7 +45510,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45513,7 +45530,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45647,7 +45664,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45661,7 +45678,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45675,7 +45692,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45689,13 +45706,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45706,7 +45723,7 @@
         <v>2733</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45720,7 +45737,7 @@
         <v>2740</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -45938,13 +45955,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45958,13 +45975,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45975,7 +45992,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -45989,7 +46006,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46003,7 +46020,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46017,7 +46034,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46049,7 +46066,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46100,7 +46117,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46121,14 +46138,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46144,7 +46161,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46179,7 +46196,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46188,7 +46205,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46225,7 +46242,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46246,7 +46263,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46256,7 +46273,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47730,13 +47747,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47777,7 +47794,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47792,7 +47809,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47852,7 +47869,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47865,7 +47882,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47890,7 +47907,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47903,7 +47920,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47916,7 +47933,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47929,7 +47946,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47944,7 +47961,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47959,7 +47976,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47972,7 +47989,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -47987,7 +48004,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="7" activeTab="20"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1563">
   <si>
     <t>Date</t>
   </si>
@@ -4789,6 +4789,9 @@
   </si>
   <si>
     <t>to_string</t>
+  </si>
+  <si>
+    <t>Sort the People</t>
   </si>
   <si>
     <t>Neither Minimum nor Maximum</t>
@@ -42614,7 +42617,7 @@
   <sheetPr/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
@@ -44809,9 +44812,9 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -45717,10 +45720,10 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A50" s="26">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B50" s="12">
-        <v>2733</v>
+        <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1529</v>
@@ -45730,22 +45733,32 @@
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A51" s="27">
-        <v>45135</v>
+      <c r="A51" s="26">
+        <v>45143</v>
       </c>
       <c r="B51" s="12">
-        <v>2740</v>
+        <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A52" s="27">
+        <v>45135</v>
+      </c>
+      <c r="B52" s="12">
+        <v>2740</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A53" s="11"/>
@@ -45798,6 +45811,10 @@
     <row r="65" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F$1:F$1048576">
@@ -45826,13 +45843,13 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F63">
+  <conditionalFormatting sqref="F62:F64">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:XFD$1048576 A1:E48 B49:E50 A51:E1048576">
+  <conditionalFormatting sqref="G$1:XFD$1048576 B49:E51 A1:E48 A52:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -45955,13 +45972,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45975,13 +45992,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45992,7 +46009,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46006,7 +46023,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46020,7 +46037,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46034,7 +46051,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46066,7 +46083,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46117,7 +46134,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46138,14 +46155,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46161,7 +46178,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46196,7 +46213,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46205,7 +46222,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46242,7 +46259,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46263,7 +46280,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46273,7 +46290,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47747,13 +47764,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47794,7 +47811,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47869,7 +47886,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47882,7 +47899,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47907,7 +47924,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47920,7 +47937,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47933,7 +47950,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47946,7 +47963,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47961,7 +47978,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47976,7 +47993,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -47989,7 +48006,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48004,7 +48021,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="22"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="1564">
   <si>
     <t>Date</t>
   </si>
@@ -4651,6 +4651,9 @@
   </si>
   <si>
     <t>Pass the Pillow</t>
+  </si>
+  <si>
+    <t>Calculate Delayed Arrival Time</t>
   </si>
   <si>
     <t>Sum Multipels</t>
@@ -42615,10 +42618,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -44274,10 +44277,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A115" s="4">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B115" s="12">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1483</v>
@@ -44288,10 +44291,10 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A116" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B116" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1484</v>
@@ -44301,11 +44304,11 @@
       </c>
     </row>
     <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A117" s="27">
-        <v>45133</v>
+      <c r="A117" s="4">
+        <v>45131</v>
       </c>
       <c r="B117" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1485</v>
@@ -44316,10 +44319,10 @@
     </row>
     <row r="118" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A118" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B118" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1486</v>
@@ -44328,9 +44331,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
+    <row r="119" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A119" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B119" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="120" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A120" s="11"/>
@@ -44339,6 +44352,10 @@
     <row r="121" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -44436,7 +44453,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F121">
+  <conditionalFormatting sqref="F107:F122">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -44475,7 +44492,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G122:XFD1048576 A122:E1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A123:E1048576 G123:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44497,7 +44514,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F122:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F123:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -44558,7 +44575,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD121 A107:E121">
+  <conditionalFormatting sqref="G107:XFD122 A107:E122">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44645,7 +44662,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44814,7 +44831,7 @@
   <sheetPr/>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -44877,7 +44894,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44894,7 +44911,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44913,7 +44930,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44932,7 +44949,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -44952,7 +44969,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44972,7 +44989,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -44993,7 +45010,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45013,7 +45030,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45023,10 +45040,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45058,7 +45075,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45078,7 +45095,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45098,7 +45115,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45121,7 +45138,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45141,7 +45158,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45161,19 +45178,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45187,7 +45204,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45205,7 +45222,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45225,7 +45242,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45234,7 +45251,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45248,7 +45265,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45268,7 +45285,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45286,7 +45303,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45306,7 +45323,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45315,10 +45332,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45330,7 +45347,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45350,7 +45367,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45368,7 +45385,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45451,7 +45468,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45471,7 +45488,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45491,7 +45508,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45501,7 +45518,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45513,7 +45530,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45533,7 +45550,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45667,7 +45684,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45681,7 +45698,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45695,7 +45712,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45709,13 +45726,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45726,7 +45743,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45740,7 +45757,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45754,7 +45771,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -45972,13 +45989,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -45992,13 +46009,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46009,7 +46026,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46023,7 +46040,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46037,7 +46054,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46051,7 +46068,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46083,7 +46100,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46134,7 +46151,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46155,14 +46172,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46178,7 +46195,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46213,7 +46230,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46222,7 +46239,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46259,7 +46276,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46280,7 +46297,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46290,7 +46307,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47764,13 +47781,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47811,7 +47828,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47826,7 +47843,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47886,7 +47903,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47899,7 +47916,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47924,7 +47941,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47937,7 +47954,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47950,7 +47967,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47963,7 +47980,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47978,7 +47995,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -47993,7 +48010,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48006,7 +48023,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48021,7 +48038,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="20"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="1565">
   <si>
     <t>Date</t>
   </si>
@@ -1892,6 +1892,9 @@
   </si>
   <si>
     <t>Minimum Bit Flips to Convert Number</t>
+  </si>
+  <si>
+    <t>Number of Even and Odd Bits</t>
   </si>
   <si>
     <t>Round 2</t>
@@ -5624,7 +5627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5824,6 +5827,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6783,7 +6789,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="91"/>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="12">
@@ -6799,7 +6805,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="91"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
@@ -6818,7 +6824,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="91"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="12">
@@ -6834,7 +6840,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="91"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="12">
@@ -6850,7 +6856,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="91"/>
+      <c r="I30" s="92"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="12">
@@ -6979,7 +6985,7 @@
       <c r="G40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="91"/>
+      <c r="I40" s="92"/>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="12">
@@ -13246,72 +13252,72 @@
       <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="20"/>
       <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="75"/>
-      <c r="G39" s="78"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="76"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="20"/>
       <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="76"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="75"/>
-      <c r="G40" s="78"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="76"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="20"/>
       <c r="K40" s="19"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="75"/>
-      <c r="G41" s="75"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="76"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="20"/>
       <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="79"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="G42" s="75"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="20"/>
       <c r="K42" s="19"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
-      <c r="G43" s="82"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="20"/>
@@ -13642,8 +13648,8 @@
   <sheetPr/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85" outlineLevelCol="6"/>
@@ -14312,10 +14318,18 @@
       <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="65"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="71">
+        <v>45147</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2595</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -14330,7 +14344,7 @@
       <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="71"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -14348,7 +14362,7 @@
       <c r="G42" s="37"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="71"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -14424,80 +14438,80 @@
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="59"/>
@@ -14505,7 +14519,7 @@
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="72"/>
+      <c r="G61" s="73"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="59"/>
@@ -14513,7 +14527,7 @@
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
-      <c r="G62" s="72"/>
+      <c r="G62" s="73"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="59"/>
@@ -14521,7 +14535,7 @@
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
-      <c r="G63" s="72"/>
+      <c r="G63" s="73"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="59"/>
@@ -14529,7 +14543,7 @@
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
-      <c r="G64" s="72"/>
+      <c r="G64" s="73"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="59"/>
@@ -14537,7 +14551,7 @@
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
-      <c r="G65" s="72"/>
+      <c r="G65" s="73"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="59"/>
@@ -14545,7 +14559,7 @@
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
-      <c r="G66" s="72"/>
+      <c r="G66" s="73"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="59"/>
@@ -14553,7 +14567,7 @@
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
-      <c r="G67" s="72"/>
+      <c r="G67" s="73"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="59"/>
@@ -14561,7 +14575,7 @@
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
-      <c r="G68" s="72"/>
+      <c r="G68" s="73"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="59"/>
@@ -14569,7 +14583,7 @@
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
-      <c r="G69" s="72"/>
+      <c r="G69" s="73"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="59"/>
@@ -14577,7 +14591,7 @@
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
-      <c r="G70" s="72"/>
+      <c r="G70" s="73"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="59"/>
@@ -14745,7 +14759,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -14777,7 +14791,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -14795,7 +14809,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -14815,7 +14829,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -14833,7 +14847,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -14841,7 +14855,7 @@
       <c r="E5" s="47"/>
       <c r="F5" s="1"/>
       <c r="G5" s="48" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H5" s="34"/>
     </row>
@@ -14853,7 +14867,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -14861,11 +14875,11 @@
       <c r="E6" s="47"/>
       <c r="F6" s="1"/>
       <c r="G6" s="49" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="42" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14876,17 +14890,17 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H7" s="34"/>
     </row>
@@ -14898,7 +14912,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -14914,7 +14928,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -14930,7 +14944,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -14946,7 +14960,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -14964,7 +14978,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -14972,10 +14986,10 @@
       <c r="E12" s="47"/>
       <c r="F12" s="1"/>
       <c r="G12" s="49" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14986,7 +15000,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -15004,7 +15018,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -15012,7 +15026,7 @@
       <c r="E14" s="47"/>
       <c r="F14" s="1"/>
       <c r="G14" s="48" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="41"/>
@@ -15064,7 +15078,7 @@
         <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
@@ -15072,7 +15086,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="17"/>
       <c r="G15" s="50" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="41"/>
@@ -15124,7 +15138,7 @@
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -15132,10 +15146,10 @@
       <c r="E16" s="47"/>
       <c r="F16" s="17"/>
       <c r="G16" s="48" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
@@ -15186,7 +15200,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -15194,7 +15208,7 @@
       <c r="E17" s="47"/>
       <c r="F17" s="17"/>
       <c r="G17" s="48" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="53"/>
@@ -15244,7 +15258,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -15302,7 +15316,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -15314,7 +15328,7 @@
         <v>434</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="53"/>
@@ -15364,7 +15378,7 @@
         <v>158</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -15422,7 +15436,7 @@
         <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -15482,7 +15496,7 @@
         <v>169</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -15490,10 +15504,10 @@
       <c r="E22" s="47"/>
       <c r="F22" s="1"/>
       <c r="G22" s="48" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
@@ -15544,7 +15558,7 @@
         <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -15552,10 +15566,10 @@
       <c r="E23" s="47"/>
       <c r="F23" s="1"/>
       <c r="G23" s="48" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="54"/>
@@ -15568,7 +15582,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -15576,7 +15590,7 @@
       <c r="E24" s="47"/>
       <c r="F24" s="1"/>
       <c r="G24" s="48" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="53"/>
@@ -15628,7 +15642,7 @@
         <v>215</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -15636,7 +15650,7 @@
       <c r="E25" s="47"/>
       <c r="F25" s="1"/>
       <c r="G25" s="48" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="53"/>
@@ -15688,7 +15702,7 @@
         <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -15696,7 +15710,7 @@
       <c r="E26" s="47"/>
       <c r="F26" s="1"/>
       <c r="G26" s="48" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="53"/>
@@ -15748,7 +15762,7 @@
         <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -15756,7 +15770,7 @@
       <c r="E27" s="47"/>
       <c r="F27" s="1"/>
       <c r="G27" s="48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="53"/>
@@ -15808,7 +15822,7 @@
         <v>238</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -15866,7 +15880,7 @@
         <v>240</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -15924,7 +15938,7 @@
         <v>243</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -15984,7 +15998,7 @@
         <v>245</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -16042,7 +16056,7 @@
         <v>251</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -16100,7 +16114,7 @@
         <v>277</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -16160,7 +16174,7 @@
         <v>287</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -16216,7 +16230,7 @@
         <v>289</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -16274,7 +16288,7 @@
         <v>293</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -16332,7 +16346,7 @@
         <v>296</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -16390,7 +16404,7 @@
         <v>311</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -16450,7 +16464,7 @@
         <v>334</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -16458,7 +16472,7 @@
       <c r="E39" s="47"/>
       <c r="F39" s="1"/>
       <c r="G39" s="48" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="53"/>
@@ -16508,7 +16522,7 @@
         <v>370</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -16566,7 +16580,7 @@
         <v>384</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -16622,7 +16636,7 @@
         <v>396</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>13</v>
@@ -16630,7 +16644,7 @@
       <c r="E42" s="45"/>
       <c r="F42" s="1"/>
       <c r="G42" s="50" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="53"/>
@@ -16644,7 +16658,7 @@
         <v>412</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -16702,7 +16716,7 @@
         <v>414</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -16710,7 +16724,7 @@
       <c r="E44" s="47"/>
       <c r="F44" s="1"/>
       <c r="G44" s="48" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="53"/>
@@ -16762,7 +16776,7 @@
         <v>419</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -16820,7 +16834,7 @@
         <v>422</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -16880,7 +16894,7 @@
         <v>442</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -16888,7 +16902,7 @@
       <c r="E47" s="47"/>
       <c r="F47" s="1"/>
       <c r="G47" s="48" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="53"/>
@@ -16940,7 +16954,7 @@
         <v>448</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -16950,10 +16964,10 @@
         <v>90</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
@@ -17004,7 +17018,7 @@
         <v>463</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -17062,14 +17076,14 @@
         <v>495</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="34"/>
@@ -17122,7 +17136,7 @@
         <v>531</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -17180,7 +17194,7 @@
         <v>533</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -17238,7 +17252,7 @@
         <v>565</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -17296,7 +17310,7 @@
         <v>566</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -17304,7 +17318,7 @@
       <c r="E54" s="47"/>
       <c r="F54" s="1"/>
       <c r="G54" s="52" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="53"/>
@@ -17356,7 +17370,7 @@
         <v>581</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -17364,10 +17378,10 @@
       <c r="E55" s="47"/>
       <c r="F55" s="1"/>
       <c r="G55" s="48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I55" s="53"/>
       <c r="J55" s="53"/>
@@ -17418,7 +17432,7 @@
         <v>605</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -17426,7 +17440,7 @@
       <c r="E56" s="47"/>
       <c r="F56" s="1"/>
       <c r="G56" s="48" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H56" s="34"/>
       <c r="I56" s="53"/>
@@ -17478,7 +17492,7 @@
         <v>624</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -17538,7 +17552,7 @@
         <v>643</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -17546,7 +17560,7 @@
       <c r="E58" s="47"/>
       <c r="F58" s="1"/>
       <c r="G58" s="48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H58" s="34"/>
       <c r="I58" s="53"/>
@@ -17596,7 +17610,7 @@
         <v>644</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>16</v>
@@ -17656,7 +17670,7 @@
         <v>661</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -17714,7 +17728,7 @@
         <v>665</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -17722,10 +17736,10 @@
       <c r="E61" s="47"/>
       <c r="F61" s="1"/>
       <c r="G61" s="48" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I61" s="53"/>
       <c r="J61" s="53"/>
@@ -17774,7 +17788,7 @@
         <v>667</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -17830,7 +17844,7 @@
         <v>670</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -17888,7 +17902,7 @@
         <v>674</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
@@ -17896,7 +17910,7 @@
       <c r="E64" s="47"/>
       <c r="F64" s="1"/>
       <c r="G64" s="48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H64" s="34"/>
       <c r="I64" s="53"/>
@@ -17946,7 +17960,7 @@
         <v>683</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>16</v>
@@ -18004,7 +18018,7 @@
         <v>697</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -18012,10 +18026,10 @@
       <c r="E66" s="47"/>
       <c r="F66" s="1"/>
       <c r="G66" s="48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I66" s="53"/>
       <c r="J66" s="53"/>
@@ -18064,7 +18078,7 @@
         <v>713</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -18122,7 +18136,7 @@
         <v>717</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -18130,10 +18144,10 @@
       <c r="E68" s="47"/>
       <c r="F68" s="1"/>
       <c r="G68" s="48" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I68" s="53"/>
       <c r="J68" s="53"/>
@@ -18182,7 +18196,7 @@
         <v>723</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -18240,7 +18254,7 @@
         <v>724</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -18248,7 +18262,7 @@
       <c r="E70" s="47"/>
       <c r="F70" s="1"/>
       <c r="G70" s="48" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="53"/>
@@ -18300,7 +18314,7 @@
         <v>729</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -18356,7 +18370,7 @@
         <v>731</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -18412,7 +18426,7 @@
         <v>732</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>16</v>
@@ -18470,7 +18484,7 @@
         <v>747</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -18526,7 +18540,7 @@
         <v>755</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -18584,7 +18598,7 @@
         <v>766</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -18592,7 +18606,7 @@
       <c r="E76" s="47"/>
       <c r="F76" s="1"/>
       <c r="G76" s="48" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H76" s="34"/>
       <c r="I76" s="53"/>
@@ -18642,7 +18656,7 @@
         <v>768</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>16</v>
@@ -18698,7 +18712,7 @@
         <v>769</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -18754,7 +18768,7 @@
         <v>778</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>16</v>
@@ -18810,7 +18824,7 @@
         <v>792</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -18866,7 +18880,7 @@
         <v>794</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -18922,7 +18936,7 @@
         <v>795</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -18978,7 +18992,7 @@
         <v>803</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -19036,7 +19050,7 @@
         <v>807</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -19094,7 +19108,7 @@
         <v>821</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -19152,7 +19166,7 @@
         <v>830</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -19210,7 +19224,7 @@
         <v>832</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -19266,7 +19280,7 @@
         <v>835</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -19322,7 +19336,7 @@
         <v>840</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -19378,7 +19392,7 @@
         <v>842</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -19434,7 +19448,7 @@
         <v>845</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -19492,7 +19506,7 @@
         <v>849</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -19550,7 +19564,7 @@
         <v>860</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
@@ -19608,7 +19622,7 @@
         <v>867</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -19664,7 +19678,7 @@
         <v>885</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -19722,7 +19736,7 @@
         <v>888</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>11</v>
@@ -19780,14 +19794,14 @@
         <v>896</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="45"/>
       <c r="F97" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G97" s="57"/>
       <c r="H97" s="51"/>
@@ -19840,7 +19854,7 @@
         <v>905</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>11</v>
@@ -19898,7 +19912,7 @@
         <v>909</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -19954,7 +19968,7 @@
         <v>915</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>13</v>
@@ -20010,7 +20024,7 @@
         <v>918</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -20028,7 +20042,7 @@
         <v>922</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -20044,7 +20058,7 @@
         <v>923</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -20060,7 +20074,7 @@
         <v>927</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>16</v>
@@ -20076,7 +20090,7 @@
         <v>932</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -20094,7 +20108,7 @@
         <v>941</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
@@ -20110,7 +20124,7 @@
         <v>945</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -20126,7 +20140,7 @@
         <v>947</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -20144,7 +20158,7 @@
         <v>949</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
@@ -20152,7 +20166,7 @@
       <c r="E109" s="47"/>
       <c r="F109" s="1"/>
       <c r="G109" s="46" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H109" s="34"/>
     </row>
@@ -20162,7 +20176,7 @@
         <v>950</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -20178,7 +20192,7 @@
         <v>952</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>16</v>
@@ -20194,7 +20208,7 @@
         <v>954</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -20212,7 +20226,7 @@
         <v>961</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -20228,7 +20242,7 @@
         <v>978</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -20246,7 +20260,7 @@
         <v>985</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
@@ -20264,7 +20278,7 @@
         <v>989</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -20282,7 +20296,7 @@
         <v>997</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -20300,7 +20314,7 @@
         <v>999</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -20318,7 +20332,7 @@
         <v>1002</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
@@ -20334,7 +20348,7 @@
         <v>1007</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -20352,7 +20366,7 @@
         <v>1010</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -20370,7 +20384,7 @@
         <v>1013</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -20386,7 +20400,7 @@
         <v>1014</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -20404,7 +20418,7 @@
         <v>1018</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
@@ -20422,7 +20436,7 @@
         <v>1030</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -20440,14 +20454,14 @@
         <v>1031</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E126" s="47"/>
       <c r="F126" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G126" s="46"/>
       <c r="H126" s="1"/>
@@ -20460,7 +20474,7 @@
         <v>1051</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>11</v>
@@ -20476,7 +20490,7 @@
         <v>1052</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -20494,7 +20508,7 @@
         <v>1072</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -20510,7 +20524,7 @@
         <v>1074</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>16</v>
@@ -20528,7 +20542,7 @@
         <v>1085</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>11</v>
@@ -20550,7 +20564,7 @@
         <v>1089</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>11</v>
@@ -20566,7 +20580,7 @@
         <v>1093</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -20584,7 +20598,7 @@
         <v>1099</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>11</v>
@@ -20604,7 +20618,7 @@
         <v>1109</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -20620,7 +20634,7 @@
         <v>1144</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
@@ -20636,7 +20650,7 @@
         <v>1169</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>13</v>
@@ -20674,7 +20688,7 @@
         <v>1184</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
@@ -20692,7 +20706,7 @@
         <v>1200</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>11</v>
@@ -20723,7 +20737,7 @@
         <v>1222</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>13</v>
@@ -20741,14 +20755,14 @@
         <v>1243</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="47"/>
       <c r="F143" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G143" s="46"/>
       <c r="H143" s="1"/>
@@ -20761,7 +20775,7 @@
         <v>1252</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
@@ -20777,7 +20791,7 @@
         <v>1260</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
@@ -20793,7 +20807,7 @@
         <v>1267</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>13</v>
@@ -20811,7 +20825,7 @@
         <v>1275</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>11</v>
@@ -20829,7 +20843,7 @@
         <v>1295</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
@@ -20847,7 +20861,7 @@
         <v>1299</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
@@ -20865,7 +20879,7 @@
         <v>1304</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>11</v>
@@ -20893,7 +20907,7 @@
         <v>1313</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
@@ -20909,7 +20923,7 @@
         <v>1316</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>16</v>
@@ -20927,7 +20941,7 @@
         <v>1329</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -20945,7 +20959,7 @@
         <v>1331</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
@@ -20961,7 +20975,7 @@
         <v>1333</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>13</v>
@@ -20979,7 +20993,7 @@
         <v>1337</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -20997,7 +21011,7 @@
         <v>1343</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
@@ -21015,7 +21029,7 @@
         <v>1346</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>11</v>
@@ -21033,7 +21047,7 @@
         <v>1351</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
@@ -21049,7 +21063,7 @@
         <v>1375</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
@@ -21067,7 +21081,7 @@
         <v>1380</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
@@ -21085,7 +21099,7 @@
         <v>1389</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
@@ -21103,7 +21117,7 @@
         <v>1394</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -21121,7 +21135,7 @@
         <v>1399</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>11</v>
@@ -21139,7 +21153,7 @@
         <v>1404</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
@@ -21157,7 +21171,7 @@
         <v>1409</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>13</v>
@@ -21175,7 +21189,7 @@
         <v>1413</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>11</v>
@@ -21193,14 +21207,14 @@
         <v>1426</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="47"/>
       <c r="F169" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G169" s="46"/>
       <c r="H169" s="1"/>
@@ -21213,7 +21227,7 @@
         <v>1431</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
@@ -21231,7 +21245,7 @@
         <v>1437</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>13</v>
@@ -21249,7 +21263,7 @@
         <v>1441</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>11</v>
@@ -21270,7 +21284,7 @@
         <v>1450</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -21288,7 +21302,7 @@
         <v>1460</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
@@ -21306,7 +21320,7 @@
         <v>1464</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
@@ -21322,7 +21336,7 @@
         <v>1465</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>13</v>
@@ -21340,7 +21354,7 @@
         <v>1470</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>11</v>
@@ -21356,7 +21370,7 @@
         <v>1471</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -21374,7 +21388,7 @@
         <v>1475</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -21392,7 +21406,7 @@
         <v>1480</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
@@ -21410,7 +21424,7 @@
         <v>1491</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>11</v>
@@ -21428,7 +21442,7 @@
         <v>1502</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>11</v>
@@ -21444,7 +21458,7 @@
         <v>1503</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>13</v>
@@ -21462,7 +21476,7 @@
         <v>1534</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
@@ -21478,7 +21492,7 @@
         <v>1535</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -21494,7 +21508,7 @@
         <v>1538</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
@@ -21512,7 +21526,7 @@
         <v>1539</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>11</v>
@@ -21530,7 +21544,7 @@
         <v>1550</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>11</v>
@@ -21546,7 +21560,7 @@
         <v>1559</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>16</v>
@@ -21564,7 +21578,7 @@
         <v>1560</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>11</v>
@@ -21580,7 +21594,7 @@
         <v>1562</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -21598,7 +21612,7 @@
         <v>1566</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>11</v>
@@ -21616,7 +21630,7 @@
         <v>1572</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
@@ -21632,7 +21646,7 @@
         <v>1574</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>13</v>
@@ -21650,7 +21664,7 @@
         <v>1582</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>11</v>
@@ -21666,7 +21680,7 @@
         <v>1583</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
@@ -21684,7 +21698,7 @@
         <v>1619</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>11</v>
@@ -21702,7 +21716,7 @@
         <v>1629</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>11</v>
@@ -21720,14 +21734,14 @@
         <v>1636</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="47"/>
       <c r="F199" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G199" s="46"/>
       <c r="H199" s="1"/>
@@ -21740,7 +21754,7 @@
         <v>1646</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>11</v>
@@ -21758,7 +21772,7 @@
         <v>1652</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>11</v>
@@ -21776,7 +21790,7 @@
         <v>1672</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>11</v>
@@ -21804,7 +21818,7 @@
         <v>1700</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>11</v>
@@ -21822,7 +21836,7 @@
         <v>1701</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
@@ -21840,14 +21854,14 @@
         <v>1708</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="47"/>
       <c r="F206" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G206" s="46"/>
       <c r="H206" s="1"/>
@@ -21878,7 +21892,7 @@
         <v>1725</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
@@ -21896,7 +21910,7 @@
         <v>1732</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -21914,7 +21928,7 @@
         <v>1748</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>11</v>
@@ -21932,7 +21946,7 @@
         <v>1752</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
@@ -21990,14 +22004,14 @@
         <v>1762</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E216" s="47"/>
       <c r="F216" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G216" s="46"/>
       <c r="H216" s="1"/>
@@ -22010,7 +22024,7 @@
         <v>1769</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>13</v>
@@ -22030,7 +22044,7 @@
         <v>1773</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>11</v>
@@ -22048,7 +22062,7 @@
         <v>1779</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>11</v>
@@ -22066,7 +22080,7 @@
         <v>1800</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>11</v>
@@ -22084,7 +22098,7 @@
         <v>1823</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
@@ -22102,7 +22116,7 @@
         <v>1822</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>11</v>
@@ -22120,14 +22134,14 @@
         <v>1826</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E223" s="47"/>
       <c r="F223" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G223" s="46"/>
       <c r="H223" s="1"/>
@@ -22140,7 +22154,7 @@
         <v>1827</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>11</v>
@@ -22158,7 +22172,7 @@
         <v>1828</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
@@ -22176,7 +22190,7 @@
         <v>1848</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>11</v>
@@ -22194,7 +22208,7 @@
         <v>1854</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>11</v>
@@ -22212,7 +22226,7 @@
         <v>1887</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>13</v>
@@ -22230,14 +22244,14 @@
         <v>1909</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E229" s="47"/>
       <c r="F229" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G229" s="46"/>
       <c r="H229" s="1"/>
@@ -22250,7 +22264,7 @@
         <v>1920</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>11</v>
@@ -22268,7 +22282,7 @@
         <v>1929</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>11</v>
@@ -22296,7 +22310,7 @@
         <v>1940</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>13</v>
@@ -22324,7 +22338,7 @@
         <v>1979</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>11</v>
@@ -22342,7 +22356,7 @@
         <v>1984</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>11</v>
@@ -22360,7 +22374,7 @@
         <v>1991</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>11</v>
@@ -22378,7 +22392,7 @@
         <v>1995</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>11</v>
@@ -22406,7 +22420,7 @@
         <v>2006</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>11</v>
@@ -22424,7 +22438,7 @@
         <v>2016</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>11</v>
@@ -22442,7 +22456,7 @@
         <v>2022</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>11</v>
@@ -22460,7 +22474,7 @@
         <v>2032</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>11</v>
@@ -22478,7 +22492,7 @@
         <v>2037</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>11</v>
@@ -22496,7 +22510,7 @@
         <v>2057</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>11</v>
@@ -22524,7 +22538,7 @@
         <v>2073</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>11</v>
@@ -22542,7 +22556,7 @@
         <v>2075</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>13</v>
@@ -22560,7 +22574,7 @@
         <v>2078</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>11</v>
@@ -22578,7 +22592,7 @@
         <v>2079</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>13</v>
@@ -22596,7 +22610,7 @@
         <v>2089</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>11</v>
@@ -22614,7 +22628,7 @@
         <v>2091</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>13</v>
@@ -22632,7 +22646,7 @@
         <v>2094</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>11</v>
@@ -22650,7 +22664,7 @@
         <v>2104</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>13</v>
@@ -22668,7 +22682,7 @@
         <v>2110</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>13</v>
@@ -22686,7 +22700,7 @@
         <v>2125</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>13</v>
@@ -22704,7 +22718,7 @@
         <v>2128</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>13</v>
@@ -22722,7 +22736,7 @@
         <v>2133</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>11</v>
@@ -22731,7 +22745,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="46"/>
       <c r="H258" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -22742,7 +22756,7 @@
         <v>2144</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>11</v>
@@ -22760,7 +22774,7 @@
         <v>2148</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>11</v>
@@ -22778,7 +22792,7 @@
         <v>2149</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>13</v>
@@ -22796,7 +22810,7 @@
         <v>2150</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>13</v>
@@ -22814,7 +22828,7 @@
         <v>2154</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>11</v>
@@ -22832,7 +22846,7 @@
         <v>2155</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>13</v>
@@ -22850,7 +22864,7 @@
         <v>2160</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>11</v>
@@ -22868,7 +22882,7 @@
         <v>2161</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>13</v>
@@ -22886,7 +22900,7 @@
         <v>2164</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>11</v>
@@ -22904,7 +22918,7 @@
         <v>2176</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>11</v>
@@ -22918,7 +22932,7 @@
         <v>2200</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>11</v>
@@ -22932,7 +22946,7 @@
         <v>2206</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>11</v>
@@ -22946,7 +22960,7 @@
         <v>2210</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>11</v>
@@ -22960,7 +22974,7 @@
         <v>2229</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>11</v>
@@ -22974,7 +22988,7 @@
         <v>2765</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>11</v>
@@ -22988,7 +23002,7 @@
         <v>2778</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>11</v>
@@ -23002,7 +23016,7 @@
         <v>2784</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>11</v>
@@ -23016,7 +23030,7 @@
         <v>2798</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>11</v>
@@ -26315,7 +26329,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -26330,7 +26344,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -26342,7 +26356,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -26357,13 +26371,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -26374,19 +26388,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -26397,16 +26411,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -26415,7 +26429,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -26429,13 +26443,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:9">
@@ -26446,16 +26460,16 @@
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I10" s="37"/>
     </row>
@@ -26465,7 +26479,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -26480,13 +26494,13 @@
         <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -26497,7 +26511,7 @@
         <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -26509,7 +26523,7 @@
         <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -26526,13 +26540,13 @@
         <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I15" s="35"/>
     </row>
@@ -26542,7 +26556,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -26559,7 +26573,7 @@
         <v>214</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
@@ -26575,13 +26589,13 @@
         <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -26590,7 +26604,7 @@
         <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -26605,7 +26619,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -26617,7 +26631,7 @@
         <v>306</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -26631,13 +26645,13 @@
         <v>383</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -26648,7 +26662,7 @@
         <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -26660,7 +26674,7 @@
         <v>408</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -26669,7 +26683,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -26680,7 +26694,7 @@
         <v>415</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -26692,7 +26706,7 @@
         <v>420</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -26706,16 +26720,16 @@
         <v>434</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I27" s="37"/>
     </row>
@@ -26727,7 +26741,7 @@
         <v>443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -26742,16 +26756,16 @@
         <v>459</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -26760,7 +26774,7 @@
         <v>468</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -26775,13 +26789,13 @@
         <v>482</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H31" s="30"/>
     </row>
@@ -26793,13 +26807,13 @@
         <v>500</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -26810,13 +26824,13 @@
         <v>520</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -26827,7 +26841,7 @@
         <v>521</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -26841,7 +26855,7 @@
         <v>522</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -26855,13 +26869,13 @@
         <v>524</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -26870,7 +26884,7 @@
         <v>527</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -26887,7 +26901,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -26901,13 +26915,13 @@
         <v>541</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -26918,7 +26932,7 @@
         <v>551</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -26927,7 +26941,7 @@
         <v>434</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H40" s="30"/>
     </row>
@@ -26937,7 +26951,7 @@
         <v>556</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -26952,13 +26966,13 @@
         <v>557</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -26967,7 +26981,7 @@
         <v>564</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -26979,7 +26993,7 @@
         <v>591</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -26991,7 +27005,7 @@
         <v>616</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -27008,7 +27022,7 @@
         <v>647</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -27022,7 +27036,7 @@
         <v>648</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -27036,13 +27050,13 @@
         <v>657</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -27051,7 +27065,7 @@
         <v>678</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -27065,7 +27079,7 @@
         <v>680</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -27077,7 +27091,7 @@
         <v>681</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -27091,7 +27105,7 @@
         <v>686</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -27105,7 +27119,7 @@
         <v>696</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -27119,7 +27133,7 @@
         <v>709</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -27133,7 +27147,7 @@
         <v>720</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -27142,7 +27156,7 @@
         <v>90</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -27151,7 +27165,7 @@
         <v>722</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -27163,7 +27177,7 @@
         <v>751</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -27175,7 +27189,7 @@
         <v>758</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -27184,7 +27198,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -27195,7 +27209,7 @@
         <v>791</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -27209,13 +27223,13 @@
         <v>796</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -27226,13 +27240,13 @@
         <v>804</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -27243,13 +27257,13 @@
         <v>806</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -27257,7 +27271,7 @@
         <v>809</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -27268,7 +27282,7 @@
         <v>816</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -27282,7 +27296,7 @@
         <v>819</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -27296,7 +27310,7 @@
         <v>820</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -27310,7 +27324,7 @@
         <v>824</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -27321,7 +27335,7 @@
         <v>831</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -27332,7 +27346,7 @@
         <v>833</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -27343,7 +27357,7 @@
         <v>839</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>16</v>
@@ -27357,7 +27371,7 @@
         <v>848</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -27371,13 +27385,13 @@
         <v>859</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -27385,7 +27399,7 @@
         <v>880</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -27399,7 +27413,7 @@
         <v>884</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -27410,7 +27424,7 @@
         <v>890</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -27424,13 +27438,13 @@
         <v>893</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -27438,7 +27452,7 @@
         <v>916</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -27452,7 +27466,7 @@
         <v>917</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -27466,7 +27480,7 @@
         <v>925</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -27480,7 +27494,7 @@
         <v>929</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -27491,7 +27505,7 @@
         <v>939</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -27505,7 +27519,7 @@
         <v>942</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -27519,7 +27533,7 @@
         <v>944</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -27533,7 +27547,7 @@
         <v>953</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -27544,7 +27558,7 @@
         <v>955</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -27555,7 +27569,7 @@
         <v>1016</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -27566,7 +27580,7 @@
         <v>1023</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -27580,7 +27594,7 @@
         <v>1056</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -27589,7 +27603,7 @@
         <v>24</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -27597,7 +27611,7 @@
         <v>1061</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -27614,13 +27628,13 @@
         <v>1071</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -27631,7 +27645,7 @@
         <v>1078</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -27642,7 +27656,7 @@
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -27659,13 +27673,13 @@
         <v>1108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -27676,7 +27690,7 @@
         <v>1119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -27690,7 +27704,7 @@
         <v>1147</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -27726,7 +27740,7 @@
         <v>1177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -27737,7 +27751,7 @@
         <v>1178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>16</v>
@@ -27751,7 +27765,7 @@
         <v>1189</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -27762,7 +27776,7 @@
         <v>1233</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -27773,7 +27787,7 @@
         <v>1234</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -27787,13 +27801,13 @@
         <v>1271</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -27801,7 +27815,7 @@
         <v>1297</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -27815,7 +27829,7 @@
         <v>1309</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -27826,7 +27840,7 @@
         <v>1324</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -27837,7 +27851,7 @@
         <v>1328</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -27851,7 +27865,7 @@
         <v>1332</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
@@ -27865,7 +27879,7 @@
         <v>1347</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -27876,7 +27890,7 @@
         <v>1358</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -27890,7 +27904,7 @@
         <v>1370</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -27901,7 +27915,7 @@
         <v>1371</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -27915,7 +27929,7 @@
         <v>1374</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -27926,7 +27940,7 @@
         <v>1392</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>16</v>
@@ -27940,7 +27954,7 @@
         <v>1400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -27954,7 +27968,7 @@
         <v>1408</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -27968,7 +27982,7 @@
         <v>1410</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -27982,7 +27996,7 @@
         <v>1417</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -28010,7 +28024,7 @@
         <v>1436</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -28024,7 +28038,7 @@
         <v>1446</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -28038,7 +28052,7 @@
         <v>1455</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -28049,7 +28063,7 @@
         <v>1461</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -28063,7 +28077,7 @@
         <v>1496</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
@@ -28077,7 +28091,7 @@
         <v>1507</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -28091,7 +28105,7 @@
         <v>1528</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
@@ -28105,7 +28119,7 @@
         <v>1529</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -28116,7 +28130,7 @@
         <v>1540</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -28127,7 +28141,7 @@
         <v>1542</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>16</v>
@@ -28141,7 +28155,7 @@
         <v>1544</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -28152,7 +28166,7 @@
         <v>1545</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -28163,7 +28177,7 @@
         <v>1554</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -28177,7 +28191,7 @@
         <v>1556</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>11</v>
@@ -28188,7 +28202,7 @@
         <v>1573</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -28202,7 +28216,7 @@
         <v>1576</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
@@ -28216,7 +28230,7 @@
         <v>1592</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>11</v>
@@ -28230,7 +28244,7 @@
         <v>1598</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>11</v>
@@ -28244,7 +28258,7 @@
         <v>1614</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
@@ -28258,7 +28272,7 @@
         <v>1624</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
@@ -28269,7 +28283,7 @@
         <v>1638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -28283,7 +28297,7 @@
         <v>1662</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>11</v>
@@ -28297,7 +28311,7 @@
         <v>1668</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>11</v>
@@ -28311,7 +28325,7 @@
         <v>1678</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
@@ -28325,7 +28339,7 @@
         <v>1684</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
@@ -28339,7 +28353,7 @@
         <v>1694</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
@@ -28353,7 +28367,7 @@
         <v>1704</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>11</v>
@@ -28370,7 +28384,7 @@
         <v>1758</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
@@ -28384,7 +28398,7 @@
         <v>1763</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
@@ -28398,7 +28412,7 @@
         <v>1768</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>11</v>
@@ -28412,7 +28426,7 @@
         <v>1784</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
@@ -28426,7 +28440,7 @@
         <v>1790</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
@@ -28440,7 +28454,7 @@
         <v>1796</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>11</v>
@@ -28454,7 +28468,7 @@
         <v>1816</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
@@ -28468,13 +28482,13 @@
         <v>1832</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -28485,7 +28499,7 @@
         <v>1844</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>11</v>
@@ -28499,7 +28513,7 @@
         <v>1859</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -28513,7 +28527,7 @@
         <v>1869</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
@@ -28527,7 +28541,7 @@
         <v>1876</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
@@ -28541,7 +28555,7 @@
         <v>1880</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
@@ -28555,7 +28569,7 @@
         <v>1897</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
@@ -28569,7 +28583,7 @@
         <v>1903</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -28583,7 +28597,7 @@
         <v>1910</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -28597,7 +28611,7 @@
         <v>1933</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
@@ -28611,13 +28625,13 @@
         <v>1935</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -28628,7 +28642,7 @@
         <v>1941</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>11</v>
@@ -28642,7 +28656,7 @@
         <v>1945</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
@@ -28656,7 +28670,7 @@
         <v>1961</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -28670,7 +28684,7 @@
         <v>1967</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
@@ -28684,7 +28698,7 @@
         <v>1974</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
@@ -28698,7 +28712,7 @@
         <v>2000</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
@@ -28712,7 +28726,7 @@
         <v>2011</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -28726,7 +28740,7 @@
         <v>2027</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
@@ -28740,7 +28754,7 @@
         <v>2042</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>11</v>
@@ -28754,7 +28768,7 @@
         <v>2062</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
@@ -28768,7 +28782,7 @@
         <v>2063</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -28782,7 +28796,7 @@
         <v>2068</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>11</v>
@@ -28796,7 +28810,7 @@
         <v>2083</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -28810,7 +28824,7 @@
         <v>2103</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>11</v>
@@ -28824,7 +28838,7 @@
         <v>2108</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -28838,7 +28852,7 @@
         <v>2109</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -28852,7 +28866,7 @@
         <v>2114</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>11</v>
@@ -28866,13 +28880,13 @@
         <v>2124</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -28883,7 +28897,7 @@
         <v>2129</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
@@ -28897,7 +28911,7 @@
         <v>2138</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>11</v>
@@ -28911,7 +28925,7 @@
         <v>2185</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>11</v>
@@ -28925,7 +28939,7 @@
         <v>2186</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -28939,7 +28953,7 @@
         <v>2194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>11</v>
@@ -28953,7 +28967,7 @@
         <v>2224</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>11</v>
@@ -28967,7 +28981,7 @@
         <v>2255</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>11</v>
@@ -28981,7 +28995,7 @@
         <v>2259</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>11</v>
@@ -28995,7 +29009,7 @@
         <v>2278</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>11</v>
@@ -29021,7 +29035,7 @@
         <v>2423</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
@@ -29035,7 +29049,7 @@
         <v>2678</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
@@ -29049,7 +29063,7 @@
         <v>2697</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -29063,7 +29077,7 @@
         <v>2710</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>11</v>
@@ -29077,7 +29091,7 @@
         <v>2744</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
@@ -29091,7 +29105,7 @@
         <v>2785</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -29105,7 +29119,7 @@
         <v>2788</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>11</v>
@@ -29119,7 +29133,7 @@
         <v>2810</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>11</v>
@@ -29962,7 +29976,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -29985,7 +29999,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -30005,7 +30019,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -30025,7 +30039,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -30045,7 +30059,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -30063,7 +30077,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -30081,7 +30095,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -30099,7 +30113,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -30119,7 +30133,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -30137,7 +30151,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -30155,7 +30169,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -30173,7 +30187,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -30191,7 +30205,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -30265,7 +30279,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -30283,7 +30297,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -30303,7 +30317,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -30315,7 +30329,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -30328,7 +30342,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -30348,7 +30362,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -30371,7 +30385,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -30392,7 +30406,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -30413,7 +30427,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -30433,7 +30447,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -30451,7 +30465,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -30469,7 +30483,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -30487,7 +30501,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -30505,7 +30519,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -30541,7 +30555,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -30561,7 +30575,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -30570,7 +30584,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -30581,7 +30595,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -30599,7 +30613,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -30621,7 +30635,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -30630,7 +30644,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -30646,7 +30660,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -30672,7 +30686,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -30687,7 +30701,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -30701,7 +30715,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -30715,7 +30729,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -30727,7 +30741,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -30741,7 +30755,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -30753,7 +30767,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -30765,7 +30779,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -30779,7 +30793,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -30793,7 +30807,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -32094,7 +32108,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -32112,7 +32126,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -32134,7 +32148,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -32154,7 +32168,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32174,7 +32188,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -32192,7 +32206,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -32210,7 +32224,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -32228,7 +32242,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -32244,7 +32258,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33685,7 +33699,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -33706,7 +33720,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -33724,7 +33738,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -33742,7 +33756,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -33760,7 +33774,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -33781,7 +33795,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -33792,7 +33806,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -33802,7 +33816,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -33823,7 +33837,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -33841,7 +33855,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33859,7 +33873,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -33877,7 +33891,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -33895,7 +33909,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -33913,7 +33927,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -33933,7 +33947,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -33954,7 +33968,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -33973,7 +33987,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -33994,7 +34008,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -34014,7 +34028,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -34032,7 +34046,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -34052,7 +34066,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -34072,7 +34086,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -34092,7 +34106,7 @@
         <v>556</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
@@ -34122,7 +34136,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -34142,7 +34156,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -34160,7 +34174,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -34178,7 +34192,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -34196,7 +34210,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -34216,7 +34230,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -34234,7 +34248,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -34252,7 +34266,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -34270,7 +34284,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -34288,7 +34302,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -34306,7 +34320,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -34324,7 +34338,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -34342,7 +34356,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -34362,7 +34376,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -34380,7 +34394,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -34398,7 +34412,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -34416,7 +34430,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -34436,7 +34450,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -34456,7 +34470,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -34477,7 +34491,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -34497,7 +34511,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -34515,7 +34529,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -34535,7 +34549,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -35785,7 +35799,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -35803,7 +35817,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -35823,7 +35837,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -35838,7 +35852,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -35853,7 +35867,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -35868,7 +35882,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -35877,10 +35891,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -35892,14 +35906,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -35910,7 +35924,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -35930,7 +35944,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -35948,7 +35962,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -35966,7 +35980,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -35986,7 +36000,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -36006,7 +36020,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -36042,7 +36056,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -36060,7 +36074,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -36078,7 +36092,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -36096,7 +36110,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -36136,7 +36150,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -36154,7 +36168,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -36174,7 +36188,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -36192,7 +36206,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -36215,7 +36229,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -36236,7 +36250,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -36255,7 +36269,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -36275,7 +36289,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -36297,7 +36311,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -36333,7 +36347,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -36353,7 +36367,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -36373,7 +36387,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -36391,7 +36405,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -36409,7 +36423,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -36427,7 +36441,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -36447,7 +36461,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -36467,7 +36481,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -36487,7 +36501,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -36496,10 +36510,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -36511,7 +36525,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -36529,7 +36543,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -36541,7 +36555,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -36553,7 +36567,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -36568,7 +36582,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -36592,7 +36606,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -36606,7 +36620,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -36618,7 +36632,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -36632,7 +36646,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -36646,7 +36660,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -36658,7 +36672,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -36670,7 +36684,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -36682,7 +36696,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -36694,7 +36708,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -36706,7 +36720,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -36718,7 +36732,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -36730,7 +36744,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -36744,7 +36758,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -36756,7 +36770,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -36768,7 +36782,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -36782,7 +36796,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -36794,7 +36808,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -36806,7 +36820,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -36818,7 +36832,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -36830,7 +36844,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -36881,7 +36895,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -36932,7 +36946,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -36985,7 +36999,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -37038,7 +37052,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -37089,7 +37103,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -37140,7 +37154,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -37191,7 +37205,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -37244,7 +37258,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -37295,7 +37309,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -37348,7 +37362,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -37399,7 +37413,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -37450,7 +37464,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -37503,7 +37517,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -37554,7 +37568,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -37607,7 +37621,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -37709,7 +37723,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -37813,7 +37827,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -37873,7 +37887,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -37920,7 +37934,7 @@
         <v>1409</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -37971,7 +37985,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -38024,7 +38038,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -38126,7 +38140,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -38179,7 +38193,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -38188,7 +38202,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -38288,7 +38302,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -38339,7 +38353,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -38392,7 +38406,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -38445,7 +38459,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -38549,7 +38563,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -38647,7 +38661,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -41826,7 +41840,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41843,7 +41857,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41860,7 +41874,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -41877,7 +41891,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -41896,7 +41910,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -41913,7 +41927,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -41930,7 +41944,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -41947,7 +41961,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -41966,7 +41980,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -41983,7 +41997,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -42000,7 +42014,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -42017,7 +42031,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -42034,7 +42048,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -42053,7 +42067,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -42070,7 +42084,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -42087,7 +42101,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -42618,10 +42632,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A115" sqref="$A115:$XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -42672,14 +42686,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -42692,17 +42706,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -42712,7 +42726,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -42730,7 +42744,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -42746,7 +42760,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -42762,7 +42776,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -42778,7 +42792,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -42794,7 +42808,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42812,17 +42826,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42832,7 +42846,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42850,17 +42864,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -42872,17 +42886,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -42894,7 +42908,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -42902,7 +42916,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -42912,7 +42926,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -42929,7 +42943,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -42946,7 +42960,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -42965,7 +42979,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -42983,14 +42997,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -43003,14 +43017,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -43021,7 +43035,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -43037,14 +43051,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -43055,7 +43069,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -43073,7 +43087,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -43082,7 +43096,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -43093,7 +43107,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -43109,7 +43123,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -43125,7 +43139,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -43141,7 +43155,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -43157,7 +43171,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -43175,7 +43189,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -43191,7 +43205,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -43207,7 +43221,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -43223,7 +43237,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -43239,7 +43253,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -43273,14 +43287,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -43293,7 +43307,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -43309,7 +43323,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -43325,7 +43339,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -43359,7 +43373,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -43375,7 +43389,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -43393,7 +43407,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -43411,7 +43425,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -43429,13 +43443,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43446,7 +43460,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -43460,7 +43474,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -43474,7 +43488,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -43488,7 +43502,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -43500,7 +43514,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -43514,7 +43528,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -43528,7 +43542,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -43542,7 +43556,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -43556,7 +43570,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -43570,7 +43584,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -43582,7 +43596,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -43599,7 +43613,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -43611,7 +43625,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -43625,7 +43639,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -43642,7 +43656,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -43659,13 +43673,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43674,7 +43688,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -43688,7 +43702,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -43706,7 +43720,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -43720,13 +43734,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43737,7 +43751,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -43751,7 +43765,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -43765,7 +43779,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -43779,7 +43793,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -43791,7 +43805,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43809,7 +43823,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43823,13 +43837,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43840,7 +43854,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43852,7 +43866,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -43866,13 +43880,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43881,7 +43895,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -43893,7 +43907,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -43907,7 +43921,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -43919,7 +43933,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -43931,7 +43945,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -43943,7 +43957,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -43957,13 +43971,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43974,7 +43988,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -43988,7 +44002,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -44002,7 +44016,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -44040,7 +44054,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -44054,7 +44068,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -44068,7 +44082,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -44098,7 +44112,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -44112,7 +44126,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -44126,7 +44140,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -44140,7 +44154,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -44154,7 +44168,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -44168,7 +44182,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -44182,7 +44196,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -44196,13 +44210,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44213,7 +44227,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -44227,7 +44241,7 @@
         <v>2413</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -44241,7 +44255,7 @@
         <v>2469</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -44255,7 +44269,7 @@
         <v>2475</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -44269,32 +44283,22 @@
         <v>2582</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A115" s="4">
-        <v>45147</v>
-      </c>
-      <c r="B115" s="12">
-        <v>2651</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="12"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A116" s="4">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B116" s="12">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1484</v>
@@ -44305,10 +44309,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A117" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B117" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1485</v>
@@ -44318,11 +44322,11 @@
       </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A118" s="27">
-        <v>45133</v>
+      <c r="A118" s="4">
+        <v>45131</v>
       </c>
       <c r="B118" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1486</v>
@@ -44333,10 +44337,10 @@
     </row>
     <row r="119" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A119" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B119" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1487</v>
@@ -44345,9 +44349,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
+    <row r="120" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A120" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B120" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A121" s="11"/>
@@ -44356,6 +44370,10 @@
     <row r="122" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A122" s="11"/>
       <c r="B122" s="12"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -44453,7 +44471,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F122">
+  <conditionalFormatting sqref="F107:F123">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -44492,7 +44510,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A123:E1048576 G123:XFD1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G124:XFD1048576 A124:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44514,7 +44532,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F123:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F124:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -44575,7 +44593,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD122 A107:E122">
+  <conditionalFormatting sqref="G107:XFD123 A107:E123">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44662,7 +44680,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44894,7 +44912,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44911,7 +44929,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44930,7 +44948,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44949,7 +44967,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -44969,7 +44987,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -44989,7 +45007,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45010,7 +45028,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45030,7 +45048,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45040,10 +45058,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45075,7 +45093,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45095,7 +45113,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45115,7 +45133,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45138,7 +45156,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45158,7 +45176,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45178,19 +45196,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45204,7 +45222,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45222,7 +45240,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45242,7 +45260,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45251,7 +45269,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45265,7 +45283,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45285,7 +45303,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45303,7 +45321,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45323,7 +45341,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45332,10 +45350,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45347,7 +45365,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45367,7 +45385,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45385,7 +45403,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45468,7 +45486,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45488,7 +45506,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45508,7 +45526,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45518,7 +45536,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45530,7 +45548,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45550,7 +45568,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45573,7 +45591,7 @@
         <v>1636</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -45684,7 +45702,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45698,7 +45716,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45712,7 +45730,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45726,13 +45744,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45743,7 +45761,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45757,7 +45775,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45771,7 +45789,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -45967,7 +45985,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -45989,13 +46007,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46009,13 +46027,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46026,7 +46044,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46040,7 +46058,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46054,7 +46072,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46068,7 +46086,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46091,7 +46109,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46100,7 +46118,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46151,7 +46169,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46172,14 +46190,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46195,14 +46213,14 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -46230,7 +46248,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46239,7 +46257,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46276,7 +46294,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46297,7 +46315,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46307,7 +46325,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47736,7 +47754,7 @@
         <v>370</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -47766,7 +47784,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -47781,13 +47799,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47828,7 +47846,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47843,7 +47861,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47858,7 +47876,7 @@
         <v>1109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -47888,7 +47906,7 @@
         <v>1371</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -47903,7 +47921,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47916,7 +47934,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47929,7 +47947,7 @@
         <v>1542</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -47941,7 +47959,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47954,7 +47972,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47967,7 +47985,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47980,7 +47998,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -47995,7 +48013,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48010,7 +48028,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48023,7 +48041,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48038,7 +48056,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -48560,7 +48578,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="34"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="90"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" s="43" customFormat="1" ht="12.85" spans="1:9">
       <c r="A10" s="3"/>
@@ -48577,7 +48595,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="34"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="90"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="26">
@@ -50863,7 +50881,7 @@
       <c r="H53" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I53" s="89" t="s">
+      <c r="I53" s="90" t="s">
         <v>286</v>
       </c>
     </row>
@@ -51598,7 +51616,7 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -53075,17 +53093,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" width="10.1081081081081" style="83" customWidth="1"/>
-    <col min="2" max="2" width="14.8918918918919" style="84" customWidth="1"/>
-    <col min="3" max="3" width="57.8918918918919" style="85" customWidth="1"/>
-    <col min="4" max="4" width="9.10810810810811" style="85"/>
-    <col min="5" max="5" width="17.1081081081081" style="85" customWidth="1"/>
+    <col min="1" max="1" width="10.1081081081081" style="84" customWidth="1"/>
+    <col min="2" max="2" width="14.8918918918919" style="85" customWidth="1"/>
+    <col min="3" max="3" width="57.8918918918919" style="86" customWidth="1"/>
+    <col min="4" max="4" width="9.10810810810811" style="86"/>
+    <col min="5" max="5" width="17.1081081081081" style="86" customWidth="1"/>
     <col min="6" max="6" width="15.5585585585586" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1081081081081" style="85" customWidth="1"/>
-    <col min="9" max="9" width="58.4414414414414" style="85" customWidth="1"/>
-    <col min="10" max="10" width="69.1081081081081" style="85" customWidth="1"/>
+    <col min="7" max="8" width="17.1081081081081" style="86" customWidth="1"/>
+    <col min="9" max="9" width="58.4414414414414" style="86" customWidth="1"/>
+    <col min="10" max="10" width="69.1081081081081" style="86" customWidth="1"/>
     <col min="11" max="11" width="43.5585585585586" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.10810810810811" style="85"/>
+    <col min="12" max="16384" width="9.10810810810811" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -53462,10 +53480,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="86" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="14"/>
@@ -53485,10 +53503,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="86" t="s">
         <v>320</v>
       </c>
       <c r="I20" s="14"/>
@@ -53734,7 +53752,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="86"/>
+      <c r="J33" s="87"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="11"/>
@@ -53753,7 +53771,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="86"/>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4">
@@ -53774,7 +53792,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="86"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="11"/>
@@ -53793,7 +53811,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="86"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4">
@@ -53812,7 +53830,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="86"/>
+      <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="11"/>
@@ -53829,7 +53847,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="86"/>
+      <c r="J38" s="87"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:4">
       <c r="A39" s="11"/>
@@ -54081,46 +54099,46 @@
       <c r="B58" s="12"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="84">
+      <c r="B64" s="85">
         <v>1665</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D64" s="86" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="84">
+      <c r="B65" s="85">
         <v>1673</v>
       </c>
-      <c r="C65" s="85" t="s">
+      <c r="C65" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="86" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="84">
+      <c r="B66" s="85">
         <v>1674</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="86" t="s">
         <v>380</v>
       </c>
-      <c r="D66" s="85" t="s">
+      <c r="D66" s="86" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="84">
+      <c r="B67" s="85">
         <v>1686</v>
       </c>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="86" t="s">
         <v>13</v>
       </c>
     </row>
@@ -54128,72 +54146,72 @@
       <c r="A68" s="4">
         <v>44179</v>
       </c>
-      <c r="B68" s="84">
+      <c r="B68" s="85">
         <v>1689</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="86" t="s">
         <v>382</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="86" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="87">
+      <c r="A69" s="88">
         <v>44328</v>
       </c>
-      <c r="B69" s="84">
+      <c r="B69" s="85">
         <v>1710</v>
       </c>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="87">
+      <c r="A71" s="88">
         <v>44449</v>
       </c>
-      <c r="B71" s="84">
+      <c r="B71" s="85">
         <v>1736</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="87">
+      <c r="A75" s="88">
         <v>44447</v>
       </c>
-      <c r="B75" s="84">
+      <c r="B75" s="85">
         <v>1989</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="D75" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="85" t="s">
+      <c r="D75" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="86" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="87">
+      <c r="A77" s="88">
         <v>44612</v>
       </c>
-      <c r="B77" s="84">
+      <c r="B77" s="85">
         <v>2178</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="86" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="D77" s="86" t="s">
         <v>13</v>
       </c>
     </row>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="1566">
   <si>
     <t>Date</t>
   </si>
@@ -2926,6 +2926,9 @@
   </si>
   <si>
     <t>Check if an Array Is Consecutive</t>
+  </si>
+  <si>
+    <t>Separate the Digits in an Array</t>
   </si>
   <si>
     <t>Longest Alternating Subarray</t>
@@ -13648,7 +13651,7 @@
   <sheetPr/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -14736,10 +14739,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV281"/>
+  <dimension ref="A1:AV282"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -22982,10 +22985,10 @@
     </row>
     <row r="273" s="1" customFormat="1" spans="1:4">
       <c r="A273" s="26">
-        <v>45133</v>
+        <v>45148</v>
       </c>
       <c r="B273" s="1">
-        <v>2765</v>
+        <v>2553</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>921</v>
@@ -22995,11 +22998,11 @@
       </c>
     </row>
     <row r="274" s="1" customFormat="1" spans="1:4">
-      <c r="A274" s="39">
-        <v>45131</v>
+      <c r="A274" s="26">
+        <v>45133</v>
       </c>
       <c r="B274" s="1">
-        <v>2778</v>
+        <v>2765</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>922</v>
@@ -23013,7 +23016,7 @@
         <v>45131</v>
       </c>
       <c r="B275" s="1">
-        <v>2784</v>
+        <v>2778</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>923</v>
@@ -23024,10 +23027,10 @@
     </row>
     <row r="276" s="1" customFormat="1" spans="1:4">
       <c r="A276" s="39">
-        <v>45136</v>
+        <v>45131</v>
       </c>
       <c r="B276" s="1">
-        <v>2798</v>
+        <v>2784</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>924</v>
@@ -23036,11 +23039,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" s="1" customFormat="1"/>
+    <row r="277" s="1" customFormat="1" spans="1:4">
+      <c r="A277" s="39">
+        <v>45136</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2798</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="278" s="1" customFormat="1"/>
     <row r="279" s="1" customFormat="1"/>
     <row r="280" s="1" customFormat="1"/>
     <row r="281" s="1" customFormat="1"/>
+    <row r="282" s="1" customFormat="1"/>
   </sheetData>
   <sortState ref="A5:H116">
     <sortCondition ref="B5"/>
@@ -25279,7 +25296,7 @@
       <formula>"Amazon"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:E85 A142:E146 B141:E141 A237:E239 I147:XFD162 G1:XFD146 A86:E140 A240:B240 D240:E240 A1:E84 G237:XFD272 A241:E272 F268:F272 $A273:$XFD274 F275:F281 G275:XFD1048576 A275:E1048576">
+  <conditionalFormatting sqref="B85:E85 A142:E146 B141:E141 A237:E239 I147:XFD162 G1:XFD146 A86:E140 A240:B240 D240:E240 A1:E84 G237:XFD272 A241:E272 F268:F272 $A273:$XFD275 A276:E1048576 G276:XFD1048576 F276:F282">
     <cfRule type="cellIs" dxfId="1" priority="778" operator="between">
       <formula>"Hard"</formula>
       <formula>"Hard"</formula>
@@ -26217,7 +26234,7 @@
       <formula>"Amazon"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A268:$XFD281">
+  <conditionalFormatting sqref="$A268:$XFD282">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
@@ -26329,7 +26346,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -26344,7 +26361,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -26356,7 +26373,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -26371,13 +26388,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -26388,19 +26405,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -26411,16 +26428,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -26429,7 +26446,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -26443,13 +26460,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:9">
@@ -26460,16 +26477,16 @@
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I10" s="37"/>
     </row>
@@ -26479,7 +26496,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -26494,13 +26511,13 @@
         <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -26511,7 +26528,7 @@
         <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -26523,7 +26540,7 @@
         <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -26540,13 +26557,13 @@
         <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I15" s="35"/>
     </row>
@@ -26556,7 +26573,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -26573,7 +26590,7 @@
         <v>214</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
@@ -26589,13 +26606,13 @@
         <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -26604,7 +26621,7 @@
         <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -26619,7 +26636,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -26631,7 +26648,7 @@
         <v>306</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -26645,13 +26662,13 @@
         <v>383</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -26662,7 +26679,7 @@
         <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -26674,7 +26691,7 @@
         <v>408</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -26683,7 +26700,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -26694,7 +26711,7 @@
         <v>415</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -26706,7 +26723,7 @@
         <v>420</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -26720,16 +26737,16 @@
         <v>434</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I27" s="37"/>
     </row>
@@ -26741,7 +26758,7 @@
         <v>443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -26756,16 +26773,16 @@
         <v>459</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -26774,7 +26791,7 @@
         <v>468</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -26789,13 +26806,13 @@
         <v>482</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H31" s="30"/>
     </row>
@@ -26807,13 +26824,13 @@
         <v>500</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -26824,13 +26841,13 @@
         <v>520</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -26841,7 +26858,7 @@
         <v>521</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -26855,7 +26872,7 @@
         <v>522</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -26869,13 +26886,13 @@
         <v>524</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -26884,7 +26901,7 @@
         <v>527</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -26901,7 +26918,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -26915,13 +26932,13 @@
         <v>541</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -26932,7 +26949,7 @@
         <v>551</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -26941,7 +26958,7 @@
         <v>434</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H40" s="30"/>
     </row>
@@ -26951,7 +26968,7 @@
         <v>556</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -26966,13 +26983,13 @@
         <v>557</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -26981,7 +26998,7 @@
         <v>564</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -26993,7 +27010,7 @@
         <v>591</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -27005,7 +27022,7 @@
         <v>616</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -27022,7 +27039,7 @@
         <v>647</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -27036,7 +27053,7 @@
         <v>648</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -27050,13 +27067,13 @@
         <v>657</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -27065,7 +27082,7 @@
         <v>678</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -27079,7 +27096,7 @@
         <v>680</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -27091,7 +27108,7 @@
         <v>681</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -27105,7 +27122,7 @@
         <v>686</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -27119,7 +27136,7 @@
         <v>696</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -27133,7 +27150,7 @@
         <v>709</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -27147,7 +27164,7 @@
         <v>720</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -27156,7 +27173,7 @@
         <v>90</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -27165,7 +27182,7 @@
         <v>722</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -27177,7 +27194,7 @@
         <v>751</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -27189,7 +27206,7 @@
         <v>758</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -27198,7 +27215,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -27209,7 +27226,7 @@
         <v>791</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -27223,13 +27240,13 @@
         <v>796</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -27240,13 +27257,13 @@
         <v>804</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -27257,13 +27274,13 @@
         <v>806</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -27271,7 +27288,7 @@
         <v>809</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -27282,7 +27299,7 @@
         <v>816</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -27296,7 +27313,7 @@
         <v>819</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -27310,7 +27327,7 @@
         <v>820</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -27324,7 +27341,7 @@
         <v>824</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -27335,7 +27352,7 @@
         <v>831</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -27346,7 +27363,7 @@
         <v>833</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -27357,7 +27374,7 @@
         <v>839</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>16</v>
@@ -27371,7 +27388,7 @@
         <v>848</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -27385,13 +27402,13 @@
         <v>859</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -27399,7 +27416,7 @@
         <v>880</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -27413,7 +27430,7 @@
         <v>884</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -27424,7 +27441,7 @@
         <v>890</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -27438,13 +27455,13 @@
         <v>893</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -27452,7 +27469,7 @@
         <v>916</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -27466,7 +27483,7 @@
         <v>917</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -27480,7 +27497,7 @@
         <v>925</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -27494,7 +27511,7 @@
         <v>929</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -27505,7 +27522,7 @@
         <v>939</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -27519,7 +27536,7 @@
         <v>942</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -27533,7 +27550,7 @@
         <v>944</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -27547,7 +27564,7 @@
         <v>953</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -27558,7 +27575,7 @@
         <v>955</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -27569,7 +27586,7 @@
         <v>1016</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -27580,7 +27597,7 @@
         <v>1023</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -27594,7 +27611,7 @@
         <v>1056</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -27603,7 +27620,7 @@
         <v>24</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -27611,7 +27628,7 @@
         <v>1061</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -27628,13 +27645,13 @@
         <v>1071</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -27645,7 +27662,7 @@
         <v>1078</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -27656,7 +27673,7 @@
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -27673,13 +27690,13 @@
         <v>1108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -27690,7 +27707,7 @@
         <v>1119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -27704,7 +27721,7 @@
         <v>1147</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -27740,7 +27757,7 @@
         <v>1177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -27751,7 +27768,7 @@
         <v>1178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>16</v>
@@ -27765,7 +27782,7 @@
         <v>1189</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -27776,7 +27793,7 @@
         <v>1233</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -27787,7 +27804,7 @@
         <v>1234</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -27801,7 +27818,7 @@
         <v>1271</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -27815,7 +27832,7 @@
         <v>1297</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -27829,7 +27846,7 @@
         <v>1309</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -27840,7 +27857,7 @@
         <v>1324</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -27851,7 +27868,7 @@
         <v>1328</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -27865,7 +27882,7 @@
         <v>1332</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
@@ -27879,7 +27896,7 @@
         <v>1347</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -27890,7 +27907,7 @@
         <v>1358</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -27904,7 +27921,7 @@
         <v>1370</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -27915,7 +27932,7 @@
         <v>1371</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -27929,7 +27946,7 @@
         <v>1374</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -27940,7 +27957,7 @@
         <v>1392</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>16</v>
@@ -27954,7 +27971,7 @@
         <v>1400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -27968,7 +27985,7 @@
         <v>1408</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -27982,7 +27999,7 @@
         <v>1410</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -27996,7 +28013,7 @@
         <v>1417</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -28024,7 +28041,7 @@
         <v>1436</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -28038,7 +28055,7 @@
         <v>1446</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -28052,7 +28069,7 @@
         <v>1455</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -28063,7 +28080,7 @@
         <v>1461</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -28077,7 +28094,7 @@
         <v>1496</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
@@ -28091,7 +28108,7 @@
         <v>1507</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -28105,7 +28122,7 @@
         <v>1528</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
@@ -28119,7 +28136,7 @@
         <v>1529</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -28130,7 +28147,7 @@
         <v>1540</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -28141,7 +28158,7 @@
         <v>1542</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>16</v>
@@ -28155,7 +28172,7 @@
         <v>1544</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -28166,7 +28183,7 @@
         <v>1545</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -28177,7 +28194,7 @@
         <v>1554</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -28191,7 +28208,7 @@
         <v>1556</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>11</v>
@@ -28202,7 +28219,7 @@
         <v>1573</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -28216,7 +28233,7 @@
         <v>1576</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
@@ -28230,7 +28247,7 @@
         <v>1592</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>11</v>
@@ -28244,7 +28261,7 @@
         <v>1598</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>11</v>
@@ -28258,7 +28275,7 @@
         <v>1614</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
@@ -28272,7 +28289,7 @@
         <v>1624</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
@@ -28283,7 +28300,7 @@
         <v>1638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -28297,7 +28314,7 @@
         <v>1662</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>11</v>
@@ -28311,7 +28328,7 @@
         <v>1668</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>11</v>
@@ -28325,7 +28342,7 @@
         <v>1678</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
@@ -28339,7 +28356,7 @@
         <v>1684</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
@@ -28353,7 +28370,7 @@
         <v>1694</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
@@ -28367,7 +28384,7 @@
         <v>1704</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>11</v>
@@ -28384,7 +28401,7 @@
         <v>1758</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
@@ -28398,7 +28415,7 @@
         <v>1763</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
@@ -28412,7 +28429,7 @@
         <v>1768</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>11</v>
@@ -28426,7 +28443,7 @@
         <v>1784</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
@@ -28440,7 +28457,7 @@
         <v>1790</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
@@ -28454,7 +28471,7 @@
         <v>1796</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>11</v>
@@ -28468,7 +28485,7 @@
         <v>1816</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
@@ -28482,13 +28499,13 @@
         <v>1832</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -28499,7 +28516,7 @@
         <v>1844</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>11</v>
@@ -28513,7 +28530,7 @@
         <v>1859</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -28527,7 +28544,7 @@
         <v>1869</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
@@ -28541,7 +28558,7 @@
         <v>1876</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
@@ -28555,7 +28572,7 @@
         <v>1880</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
@@ -28569,7 +28586,7 @@
         <v>1897</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
@@ -28583,7 +28600,7 @@
         <v>1903</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -28597,7 +28614,7 @@
         <v>1910</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -28611,7 +28628,7 @@
         <v>1933</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
@@ -28625,13 +28642,13 @@
         <v>1935</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -28642,7 +28659,7 @@
         <v>1941</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>11</v>
@@ -28656,7 +28673,7 @@
         <v>1945</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
@@ -28670,7 +28687,7 @@
         <v>1961</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -28684,7 +28701,7 @@
         <v>1967</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
@@ -28698,7 +28715,7 @@
         <v>1974</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
@@ -28712,7 +28729,7 @@
         <v>2000</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
@@ -28726,7 +28743,7 @@
         <v>2011</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -28740,7 +28757,7 @@
         <v>2027</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
@@ -28754,7 +28771,7 @@
         <v>2042</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>11</v>
@@ -28768,7 +28785,7 @@
         <v>2062</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
@@ -28782,7 +28799,7 @@
         <v>2063</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -28796,7 +28813,7 @@
         <v>2068</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>11</v>
@@ -28810,7 +28827,7 @@
         <v>2083</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -28824,7 +28841,7 @@
         <v>2103</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>11</v>
@@ -28838,7 +28855,7 @@
         <v>2108</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -28852,7 +28869,7 @@
         <v>2109</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -28866,7 +28883,7 @@
         <v>2114</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>11</v>
@@ -28880,13 +28897,13 @@
         <v>2124</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -28897,7 +28914,7 @@
         <v>2129</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
@@ -28911,7 +28928,7 @@
         <v>2138</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>11</v>
@@ -28925,7 +28942,7 @@
         <v>2185</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>11</v>
@@ -28939,7 +28956,7 @@
         <v>2186</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -28953,7 +28970,7 @@
         <v>2194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>11</v>
@@ -28967,7 +28984,7 @@
         <v>2224</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>11</v>
@@ -28981,7 +28998,7 @@
         <v>2255</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>11</v>
@@ -28995,7 +29012,7 @@
         <v>2259</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>11</v>
@@ -29009,7 +29026,7 @@
         <v>2278</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>11</v>
@@ -29035,7 +29052,7 @@
         <v>2423</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
@@ -29049,7 +29066,7 @@
         <v>2678</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
@@ -29063,7 +29080,7 @@
         <v>2697</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -29077,7 +29094,7 @@
         <v>2710</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>11</v>
@@ -29091,7 +29108,7 @@
         <v>2744</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
@@ -29105,7 +29122,7 @@
         <v>2785</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -29119,7 +29136,7 @@
         <v>2788</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>11</v>
@@ -29133,7 +29150,7 @@
         <v>2810</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>11</v>
@@ -29976,7 +29993,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -29999,7 +30016,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -30019,7 +30036,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -30039,7 +30056,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -30059,7 +30076,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -30077,7 +30094,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -30095,7 +30112,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -30113,7 +30130,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -30133,7 +30150,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -30151,7 +30168,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -30169,7 +30186,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -30187,7 +30204,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -30205,7 +30222,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -30279,7 +30296,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -30297,7 +30314,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -30317,7 +30334,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -30329,7 +30346,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -30342,7 +30359,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -30362,7 +30379,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -30385,7 +30402,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -30406,7 +30423,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -30427,7 +30444,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -30447,7 +30464,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -30465,7 +30482,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -30483,7 +30500,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -30501,7 +30518,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -30519,7 +30536,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -30555,7 +30572,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -30575,7 +30592,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -30584,7 +30601,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -30595,7 +30612,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -30613,7 +30630,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -30635,7 +30652,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -30644,7 +30661,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -30660,7 +30677,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -30686,7 +30703,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -30701,7 +30718,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -30715,7 +30732,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -30729,7 +30746,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -30741,7 +30758,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -30755,7 +30772,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -30767,7 +30784,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -30779,7 +30796,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -30793,7 +30810,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -30807,7 +30824,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -32108,7 +32125,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -32126,7 +32143,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -32148,7 +32165,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -32168,7 +32185,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32188,7 +32205,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -32206,7 +32223,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -32224,7 +32241,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -32242,7 +32259,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -32258,7 +32275,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33699,7 +33716,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -33720,7 +33737,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -33738,7 +33755,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -33756,7 +33773,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -33774,7 +33791,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -33795,7 +33812,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -33806,7 +33823,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -33816,7 +33833,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -33837,7 +33854,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -33855,7 +33872,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33873,7 +33890,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -33891,7 +33908,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -33909,7 +33926,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -33927,7 +33944,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -33947,7 +33964,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -33968,7 +33985,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -33987,7 +34004,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -34008,7 +34025,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -34028,7 +34045,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -34046,7 +34063,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -34066,7 +34083,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -34086,7 +34103,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -34106,7 +34123,7 @@
         <v>556</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
@@ -34136,7 +34153,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -34156,7 +34173,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -34174,7 +34191,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -34192,7 +34209,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -34210,7 +34227,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -34230,7 +34247,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -34248,7 +34265,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -34266,7 +34283,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -34284,7 +34301,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -34302,7 +34319,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -34320,7 +34337,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -34338,7 +34355,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -34356,7 +34373,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -34376,7 +34393,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -34394,7 +34411,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -34412,7 +34429,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -34430,7 +34447,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -34450,7 +34467,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -34470,7 +34487,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -34491,7 +34508,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -34511,7 +34528,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -34529,7 +34546,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -34549,7 +34566,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -35799,7 +35816,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -35817,7 +35834,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -35837,7 +35854,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -35852,7 +35869,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -35867,7 +35884,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -35882,7 +35899,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -35891,10 +35908,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -35906,14 +35923,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -35924,7 +35941,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -35944,7 +35961,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -35962,7 +35979,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -35980,7 +35997,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -36000,7 +36017,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -36020,7 +36037,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -36056,7 +36073,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -36074,7 +36091,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -36092,7 +36109,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -36110,7 +36127,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -36150,7 +36167,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -36168,7 +36185,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -36188,7 +36205,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -36206,7 +36223,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -36229,7 +36246,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -36250,7 +36267,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -36269,7 +36286,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -36289,7 +36306,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -36311,7 +36328,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -36347,7 +36364,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -36367,7 +36384,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -36387,7 +36404,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -36405,7 +36422,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -36423,7 +36440,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -36441,7 +36458,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -36461,7 +36478,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -36481,7 +36498,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -36501,7 +36518,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -36510,10 +36527,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -36525,7 +36542,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -36543,7 +36560,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -36555,7 +36572,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -36567,7 +36584,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -36582,7 +36599,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -36606,7 +36623,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -36620,7 +36637,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -36632,7 +36649,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -36646,7 +36663,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -36660,7 +36677,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -36672,7 +36689,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -36684,7 +36701,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -36696,7 +36713,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -36708,7 +36725,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -36720,7 +36737,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -36732,7 +36749,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -36744,7 +36761,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -36758,7 +36775,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -36770,7 +36787,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -36782,7 +36799,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -36796,7 +36813,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -36808,7 +36825,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -36820,7 +36837,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -36832,7 +36849,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -36844,7 +36861,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -36895,7 +36912,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -36946,7 +36963,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -36999,7 +37016,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -37052,7 +37069,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -37103,7 +37120,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -37154,7 +37171,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -37205,7 +37222,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -37258,7 +37275,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -37309,7 +37326,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -37362,7 +37379,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -37413,7 +37430,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -37464,7 +37481,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -37517,7 +37534,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -37568,7 +37585,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -37621,7 +37638,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -37723,7 +37740,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -37827,7 +37844,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -37985,7 +38002,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -38038,7 +38055,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -38140,7 +38157,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -38193,7 +38210,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -38202,7 +38219,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -38302,7 +38319,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -38353,7 +38370,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -38406,7 +38423,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -38459,7 +38476,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -38563,7 +38580,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -38661,7 +38678,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -41840,7 +41857,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41857,7 +41874,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41874,7 +41891,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -41891,7 +41908,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -41910,7 +41927,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -41927,7 +41944,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -41944,7 +41961,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -41961,7 +41978,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -41980,7 +41997,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -41997,7 +42014,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -42014,7 +42031,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -42031,7 +42048,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -42048,7 +42065,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -42067,7 +42084,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -42084,7 +42101,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -42101,7 +42118,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -42686,14 +42703,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -42706,17 +42723,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -42726,7 +42743,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -42744,7 +42761,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -42760,7 +42777,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -42776,7 +42793,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -42792,7 +42809,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -42808,7 +42825,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42826,17 +42843,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42846,7 +42863,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42864,17 +42881,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -42886,17 +42903,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -42908,7 +42925,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -42916,7 +42933,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -42926,7 +42943,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -42943,7 +42960,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -42960,7 +42977,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -42979,7 +42996,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -42997,14 +43014,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -43017,14 +43034,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -43035,7 +43052,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -43051,14 +43068,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -43069,7 +43086,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -43087,7 +43104,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -43096,7 +43113,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -43107,7 +43124,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -43123,7 +43140,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -43139,7 +43156,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -43155,7 +43172,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -43171,7 +43188,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -43189,7 +43206,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -43205,7 +43222,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -43221,7 +43238,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -43237,7 +43254,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -43253,7 +43270,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -43287,14 +43304,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -43307,7 +43324,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -43323,7 +43340,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -43339,7 +43356,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -43373,7 +43390,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -43389,7 +43406,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -43407,7 +43424,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -43425,7 +43442,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -43443,13 +43460,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43460,7 +43477,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -43474,7 +43491,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -43488,7 +43505,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -43502,7 +43519,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -43514,7 +43531,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -43528,7 +43545,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -43542,7 +43559,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -43556,7 +43573,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -43570,7 +43587,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -43584,7 +43601,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -43596,7 +43613,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -43613,7 +43630,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -43625,7 +43642,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -43639,7 +43656,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -43656,7 +43673,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -43673,13 +43690,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43688,7 +43705,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -43702,7 +43719,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -43720,7 +43737,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -43734,13 +43751,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43751,7 +43768,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -43765,7 +43782,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -43779,7 +43796,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -43793,7 +43810,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -43805,7 +43822,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43823,7 +43840,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43837,13 +43854,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43854,7 +43871,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43866,7 +43883,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -43880,13 +43897,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43895,7 +43912,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -43907,7 +43924,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -43921,7 +43938,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -43933,7 +43950,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -43945,7 +43962,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -43957,7 +43974,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -43971,13 +43988,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43988,7 +44005,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -44002,7 +44019,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -44016,7 +44033,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -44054,7 +44071,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -44068,7 +44085,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -44082,7 +44099,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -44112,7 +44129,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -44126,7 +44143,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -44140,7 +44157,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -44154,7 +44171,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -44168,7 +44185,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -44182,7 +44199,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -44196,7 +44213,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -44210,13 +44227,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44227,7 +44244,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -44241,7 +44258,7 @@
         <v>2413</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -44255,7 +44272,7 @@
         <v>2469</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -44269,7 +44286,7 @@
         <v>2475</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -44283,7 +44300,7 @@
         <v>2582</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -44301,7 +44318,7 @@
         <v>2651</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -44315,7 +44332,7 @@
         <v>2652</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -44329,7 +44346,7 @@
         <v>2739</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -44343,7 +44360,7 @@
         <v>2745</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
@@ -44357,7 +44374,7 @@
         <v>2769</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -44680,7 +44697,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44912,7 +44929,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44929,7 +44946,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44948,7 +44965,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44967,7 +44984,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -44987,7 +45004,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45007,7 +45024,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45028,7 +45045,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45048,7 +45065,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45058,10 +45075,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45093,7 +45110,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45113,7 +45130,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45133,7 +45150,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45156,7 +45173,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45176,7 +45193,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45196,19 +45213,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45222,7 +45239,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45240,7 +45257,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45260,7 +45277,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45269,7 +45286,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45283,7 +45300,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45303,7 +45320,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45321,7 +45338,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45341,7 +45358,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45350,10 +45367,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45365,7 +45382,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45385,7 +45402,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45403,7 +45420,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45486,7 +45503,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45506,7 +45523,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45526,7 +45543,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45536,7 +45553,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45548,7 +45565,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45568,7 +45585,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45702,7 +45719,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45716,7 +45733,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45730,7 +45747,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45744,13 +45761,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45761,7 +45778,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45775,7 +45792,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45789,7 +45806,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -45985,7 +46002,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -46007,13 +46024,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46027,13 +46044,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46044,7 +46061,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46058,7 +46075,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46072,7 +46089,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46086,7 +46103,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46109,7 +46126,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46118,7 +46135,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46169,7 +46186,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46190,14 +46207,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46213,7 +46230,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46248,7 +46265,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46257,7 +46274,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46294,7 +46311,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46315,7 +46332,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46325,7 +46342,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47784,7 +47801,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -47799,13 +47816,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47846,7 +47863,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47861,7 +47878,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47906,7 +47923,7 @@
         <v>1371</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -47921,7 +47938,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47934,7 +47951,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47947,7 +47964,7 @@
         <v>1542</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -47959,7 +47976,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47972,7 +47989,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -47985,7 +48002,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -47998,7 +48015,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48013,7 +48030,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48028,7 +48045,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48041,7 +48058,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48056,7 +48073,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="1567">
   <si>
     <t>Date</t>
   </si>
@@ -4654,6 +4654,9 @@
   </si>
   <si>
     <t>Number of Uneual Triplets in Array</t>
+  </si>
+  <si>
+    <t>Find the Pivot Integer</t>
   </si>
   <si>
     <t>Pass the Pillow</t>
@@ -14741,7 +14744,7 @@
   <sheetPr/>
   <dimension ref="A1:AV282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
@@ -42649,10 +42652,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A115" sqref="$A115:$XFD115"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -44294,10 +44297,10 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A114" s="4">
-        <v>45137</v>
+        <v>45148</v>
       </c>
       <c r="B114" s="12">
-        <v>2582</v>
+        <v>2485</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1484</v>
@@ -44306,30 +44309,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="12"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A116" s="4">
-        <v>45147</v>
-      </c>
-      <c r="B116" s="12">
-        <v>2651</v>
-      </c>
-      <c r="C116" s="1" t="s">
+    <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A115" s="4">
+        <v>45137</v>
+      </c>
+      <c r="B115" s="12">
+        <v>2582</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="12"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A117" s="4">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B117" s="12">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1486</v>
@@ -44340,10 +44343,10 @@
     </row>
     <row r="118" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A118" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B118" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1487</v>
@@ -44353,11 +44356,11 @@
       </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A119" s="27">
-        <v>45133</v>
+      <c r="A119" s="4">
+        <v>45131</v>
       </c>
       <c r="B119" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1488</v>
@@ -44368,10 +44371,10 @@
     </row>
     <row r="120" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A120" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B120" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1489</v>
@@ -44380,9 +44383,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
+    <row r="121" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A121" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B121" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="122" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A122" s="11"/>
@@ -44391,6 +44404,10 @@
     <row r="123" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A123" s="11"/>
       <c r="B123" s="12"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A124" s="11"/>
+      <c r="B124" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -44488,7 +44505,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F123">
+  <conditionalFormatting sqref="F107:F124">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -44527,7 +44544,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G124:XFD1048576 A124:E1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A125:E1048576 G125:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44549,7 +44566,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F124:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F125:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -44610,7 +44627,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD123 A107:E123">
+  <conditionalFormatting sqref="G107:XFD124 A107:E124">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44697,7 +44714,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44929,7 +44946,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44946,7 +44963,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44965,7 +44982,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -44984,7 +45001,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -45004,7 +45021,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45024,7 +45041,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45045,7 +45062,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45065,7 +45082,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45075,10 +45092,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45110,7 +45127,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45130,7 +45147,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45150,7 +45167,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45173,7 +45190,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45193,7 +45210,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45213,19 +45230,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45239,7 +45256,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45257,7 +45274,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45277,7 +45294,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45286,7 +45303,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45300,7 +45317,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45320,7 +45337,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45338,7 +45355,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45358,7 +45375,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45367,10 +45384,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45382,7 +45399,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45402,7 +45419,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45420,7 +45437,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45503,7 +45520,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45523,7 +45540,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45543,7 +45560,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45553,7 +45570,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45565,7 +45582,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45585,7 +45602,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45719,7 +45736,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45733,7 +45750,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45747,7 +45764,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45761,13 +45778,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45778,7 +45795,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45792,7 +45809,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45806,7 +45823,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -46024,13 +46041,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46044,13 +46061,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46061,7 +46078,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46075,7 +46092,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46089,7 +46106,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46103,7 +46120,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46135,7 +46152,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46186,7 +46203,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46207,14 +46224,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46230,7 +46247,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46265,7 +46282,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46274,7 +46291,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46311,7 +46328,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46332,7 +46349,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46342,7 +46359,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47816,13 +47833,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47863,7 +47880,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47878,7 +47895,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47938,7 +47955,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47951,7 +47968,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47976,7 +47993,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -47989,7 +48006,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -48002,7 +48019,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -48015,7 +48032,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48030,7 +48047,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48045,7 +48062,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48058,7 +48075,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48073,7 +48090,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1568">
   <si>
     <t>Date</t>
   </si>
@@ -4645,6 +4645,9 @@
   </si>
   <si>
     <t>Largest Number After Digit Swaps by Parity</t>
+  </si>
+  <si>
+    <t>Count Asterisks</t>
   </si>
   <si>
     <t>Smallest Even Multiple</t>
@@ -42652,10 +42655,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -44255,10 +44258,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A111" s="4">
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="B111" s="12">
-        <v>2413</v>
+        <v>2315</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1481</v>
@@ -44269,10 +44272,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A112" s="4">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B112" s="12">
-        <v>2469</v>
+        <v>2413</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>1482</v>
@@ -44286,7 +44289,7 @@
         <v>45141</v>
       </c>
       <c r="B113" s="12">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1483</v>
@@ -44297,10 +44300,10 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A114" s="4">
-        <v>45148</v>
+        <v>45141</v>
       </c>
       <c r="B114" s="12">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1484</v>
@@ -44311,10 +44314,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A115" s="4">
-        <v>45137</v>
+        <v>45148</v>
       </c>
       <c r="B115" s="12">
-        <v>2582</v>
+        <v>2485</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1485</v>
@@ -44323,30 +44326,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="12"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A117" s="4">
-        <v>45147</v>
-      </c>
-      <c r="B117" s="12">
-        <v>2651</v>
-      </c>
-      <c r="C117" s="1" t="s">
+    <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A116" s="4">
+        <v>45137</v>
+      </c>
+      <c r="B116" s="12">
+        <v>2582</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A118" s="4">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B118" s="12">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1487</v>
@@ -44357,10 +44360,10 @@
     </row>
     <row r="119" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A119" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B119" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1488</v>
@@ -44370,11 +44373,11 @@
       </c>
     </row>
     <row r="120" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A120" s="27">
-        <v>45133</v>
+      <c r="A120" s="4">
+        <v>45131</v>
       </c>
       <c r="B120" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1489</v>
@@ -44385,10 +44388,10 @@
     </row>
     <row r="121" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A121" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B121" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1490</v>
@@ -44397,9 +44400,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
+    <row r="122" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A122" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B122" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A123" s="11"/>
@@ -44408,6 +44421,10 @@
     <row r="124" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A124" s="11"/>
       <c r="B124" s="12"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
@@ -44505,7 +44522,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F124">
+  <conditionalFormatting sqref="F107:F125">
     <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
@@ -44544,7 +44561,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A125:E1048576 G125:XFD1048576">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G126:XFD1048576 A126:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44566,7 +44583,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F125:F1048576">
+  <conditionalFormatting sqref="F1:F88 F90:F105 F126:F1048576">
     <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
     </cfRule>
@@ -44627,7 +44644,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD124 A107:E124">
+  <conditionalFormatting sqref="G107:XFD125 A107:E125">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -44714,7 +44731,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44946,7 +44963,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44963,7 +44980,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44982,7 +44999,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -45001,7 +45018,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -45021,7 +45038,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45041,7 +45058,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45062,7 +45079,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45082,7 +45099,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45092,10 +45109,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45127,7 +45144,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45147,7 +45164,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45167,7 +45184,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45190,7 +45207,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45210,7 +45227,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45230,19 +45247,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45256,7 +45273,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45274,7 +45291,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45294,7 +45311,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45303,7 +45320,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45317,7 +45334,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45337,7 +45354,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45355,7 +45372,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45375,7 +45392,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45384,10 +45401,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45399,7 +45416,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45419,7 +45436,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45437,7 +45454,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45520,7 +45537,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45540,7 +45557,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45560,7 +45577,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45570,7 +45587,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45582,7 +45599,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45602,7 +45619,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45736,7 +45753,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45750,7 +45767,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45764,7 +45781,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45778,13 +45795,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45795,7 +45812,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45809,7 +45826,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45823,7 +45840,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -46041,13 +46058,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46061,13 +46078,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46078,7 +46095,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46092,7 +46109,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46106,7 +46123,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46120,7 +46137,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46152,7 +46169,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46203,7 +46220,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46224,14 +46241,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46247,7 +46264,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46282,7 +46299,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46291,7 +46308,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46328,7 +46345,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46349,7 +46366,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46359,7 +46376,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47833,13 +47850,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47880,7 +47897,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47895,7 +47912,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47955,7 +47972,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47968,7 +47985,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -47993,7 +48010,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -48006,7 +48023,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -48019,7 +48036,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -48032,7 +48049,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48047,7 +48064,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48062,7 +48079,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48075,7 +48092,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48090,7 +48107,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="20"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="1569">
   <si>
     <t>Date</t>
   </si>
@@ -3638,6 +3638,9 @@
     <t>Percentage of Letter in String</t>
   </si>
   <si>
+    <t>Count Asterisks</t>
+  </si>
+  <si>
     <t>Remove Letter To Equalize Frequency</t>
   </si>
   <si>
@@ -4647,7 +4650,7 @@
     <t>Largest Number After Digit Swaps by Parity</t>
   </si>
   <si>
-    <t>Count Asterisks</t>
+    <t>Add Two Integers</t>
   </si>
   <si>
     <t>Smallest Even Multiple</t>
@@ -6023,14 +6026,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF66CC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF66CC"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -26301,8 +26304,8 @@
   <sheetPr/>
   <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A204" sqref="$A204:$XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -29041,8 +29044,19 @@
     <row r="203" spans="1:1">
       <c r="A203" s="36"/>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="36"/>
+    <row r="204" s="1" customFormat="1" spans="1:4">
+      <c r="A204" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B204" s="12">
+        <v>2315</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="36"/>
@@ -29058,7 +29072,7 @@
         <v>2423</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
@@ -29072,7 +29086,7 @@
         <v>2678</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
@@ -29086,7 +29100,7 @@
         <v>2697</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -29100,7 +29114,7 @@
         <v>2710</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>11</v>
@@ -29114,7 +29128,7 @@
         <v>2744</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
@@ -29128,7 +29142,7 @@
         <v>2785</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -29142,7 +29156,7 @@
         <v>2788</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>11</v>
@@ -29156,7 +29170,7 @@
         <v>2810</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>11</v>
@@ -29167,761 +29181,764 @@
     <sortCondition ref="B5"/>
   </sortState>
   <conditionalFormatting sqref="C171">
-    <cfRule type="cellIs" dxfId="0" priority="175" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="176" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="177" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="178" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="190" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="192" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="193" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="194" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="cellIs" dxfId="0" priority="170" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="171" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="172" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="173" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="174" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="185" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="187" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="188" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="189" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="containsText" dxfId="5" priority="156" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="171" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F187)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="157" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="172" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F187)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="160" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="161" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="162" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="163" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="164" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="175" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="176" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="177" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="178" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="179" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="174" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="173" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193">
-    <cfRule type="containsText" dxfId="5" priority="142" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="157" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F193)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="143" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="158" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F193)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="146" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="147" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="148" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="149" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="150" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="145" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="161" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="162" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="163" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="164" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="165" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="160" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="159" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196">
-    <cfRule type="cellIs" dxfId="0" priority="137" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="138" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="139" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="140" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="152" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="153" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="154" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="155" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="156" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F203">
-    <cfRule type="cellIs" dxfId="3" priority="96" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="88" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="111" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="103" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="71" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="63" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="40" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="55" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F203)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="32" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="47" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F204">
-    <cfRule type="cellIs" dxfId="3" priority="95" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="87" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="79" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="39" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="3" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="31" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="1" operator="between" text="Apple">
+      <formula>NOT(ISERROR(SEARCH("Apple",F204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205">
-    <cfRule type="cellIs" dxfId="3" priority="94" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="86" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="109" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="101" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="93" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="69" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="61" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="38" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="53" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="30" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="45" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F206">
-    <cfRule type="cellIs" dxfId="3" priority="93" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="85" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="77" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="108" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="100" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="68" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="60" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="37" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="52" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="29" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="44" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
-    <cfRule type="containsText" dxfId="5" priority="27" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="42" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="35" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="50" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="58" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="66" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="83" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="91" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="98" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="106" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D213">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="41" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="34" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="49" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="57" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="65" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="82" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="97" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="105" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F214">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="40" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="48" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="49" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="64" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="81" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="96" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="104" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:A211">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E47">
-    <cfRule type="cellIs" dxfId="0" priority="192" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="207" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F47">
-    <cfRule type="cellIs" dxfId="0" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="200" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F211">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="12" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="27" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 G215:XFD1048576 A215:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="191" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="193" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="194" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="196" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="208" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="209" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="210" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="211" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F215:F1048576">
-    <cfRule type="containsText" dxfId="5" priority="180" operator="between" text="Amazon">
+    <cfRule type="containsText" dxfId="5" priority="195" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="181" operator="between" text="Amazon">
+    <cfRule type="containsText" priority="196" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="197" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="183" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="198" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="184" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="186" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="187" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="188" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="189" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="199" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="202" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="203" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="204" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:XFD187 A187:E187">
-    <cfRule type="cellIs" dxfId="0" priority="165" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="166" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="167" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="168" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="169" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="180" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="182" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="183" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="184" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:XFD193 A193:E193">
-    <cfRule type="cellIs" dxfId="0" priority="151" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="152" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="153" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="154" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="167" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="168" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="169" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="170" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:XFD203 A203:E203">
-    <cfRule type="cellIs" dxfId="3" priority="136" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="128" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="120" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="112" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="151" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="143" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="135" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:XFD204 A204:E204">
-    <cfRule type="cellIs" dxfId="3" priority="135" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="127" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="111" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:XFD205 A205:E205">
-    <cfRule type="cellIs" dxfId="3" priority="134" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="126" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="118" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="149" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="141" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="133" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206:XFD206 A206:E206">
-    <cfRule type="cellIs" dxfId="3" priority="133" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="125" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="117" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="148" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="140" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="132" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:XFD211 B207:E211">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="38" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="39" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G212:XFD212 A212:E212">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="115" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="123" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="138" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="146" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:XFD213 A213:C213 E213">
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="114" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="122" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="130" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="129" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="137" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="145" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G214:XFD214 A214:E214">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="113" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="121" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="120" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="128" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="136" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="144" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
@@ -29999,7 +30016,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -30022,7 +30039,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -30042,7 +30059,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -30062,7 +30079,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -30082,7 +30099,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -30100,7 +30117,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -30118,7 +30135,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -30136,7 +30153,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -30156,7 +30173,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -30174,7 +30191,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -30192,7 +30209,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -30210,7 +30227,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -30228,7 +30245,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -30302,7 +30319,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -30320,7 +30337,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -30340,7 +30357,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -30352,7 +30369,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -30365,7 +30382,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -30385,7 +30402,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -30408,7 +30425,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -30429,7 +30446,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -30450,7 +30467,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -30470,7 +30487,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -30488,7 +30505,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -30506,7 +30523,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -30524,7 +30541,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -30542,7 +30559,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -30578,7 +30595,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -30598,7 +30615,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -30607,7 +30624,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -30618,7 +30635,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -30636,7 +30653,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -30658,7 +30675,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -30667,7 +30684,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -30683,7 +30700,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -30709,7 +30726,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -30724,7 +30741,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -30738,7 +30755,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -30752,7 +30769,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -30764,7 +30781,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -30778,7 +30795,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -30790,7 +30807,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -30802,7 +30819,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -30816,7 +30833,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -30830,7 +30847,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -32131,7 +32148,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -32149,7 +32166,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -32171,7 +32188,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -32191,7 +32208,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32211,7 +32228,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -32229,7 +32246,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -32247,7 +32264,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -32265,7 +32282,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -32281,7 +32298,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33722,7 +33739,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -33743,7 +33760,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -33761,7 +33778,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -33779,7 +33796,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -33797,7 +33814,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -33818,7 +33835,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -33829,7 +33846,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -33839,7 +33856,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -33860,7 +33877,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -33878,7 +33895,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33896,7 +33913,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -33914,7 +33931,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -33932,7 +33949,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -33950,7 +33967,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -33970,7 +33987,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -33991,7 +34008,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -34010,7 +34027,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -34031,7 +34048,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -34051,7 +34068,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -34069,7 +34086,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -34089,7 +34106,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -34109,7 +34126,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -34159,7 +34176,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -34179,7 +34196,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -34197,7 +34214,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -34215,7 +34232,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -34233,7 +34250,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -34253,7 +34270,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -34271,7 +34288,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -34289,7 +34306,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -34307,7 +34324,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -34325,7 +34342,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -34343,7 +34360,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -34361,7 +34378,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -34379,7 +34396,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -34399,7 +34416,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -34417,7 +34434,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -34435,7 +34452,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -34453,7 +34470,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -34473,7 +34490,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -34493,7 +34510,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -34514,7 +34531,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -34534,7 +34551,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -34552,7 +34569,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -34572,7 +34589,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -35822,7 +35839,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -35840,7 +35857,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -35860,7 +35877,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -35875,7 +35892,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -35890,7 +35907,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -35905,7 +35922,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -35914,10 +35931,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -35929,14 +35946,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -35947,7 +35964,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -35967,7 +35984,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -35985,7 +36002,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -36003,7 +36020,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -36023,7 +36040,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -36043,7 +36060,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -36079,7 +36096,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -36097,7 +36114,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -36115,7 +36132,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -36133,7 +36150,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -36173,7 +36190,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -36191,7 +36208,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -36211,7 +36228,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -36229,7 +36246,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -36252,7 +36269,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -36273,7 +36290,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -36292,7 +36309,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -36312,7 +36329,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -36334,7 +36351,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -36370,7 +36387,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -36390,7 +36407,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -36410,7 +36427,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -36428,7 +36445,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -36446,7 +36463,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -36464,7 +36481,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -36484,7 +36501,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -36504,7 +36521,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -36524,7 +36541,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -36533,10 +36550,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -36548,7 +36565,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -36566,7 +36583,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -36578,7 +36595,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -36590,7 +36607,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -36605,7 +36622,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -36629,7 +36646,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -36643,7 +36660,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -36655,7 +36672,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -36669,7 +36686,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -36683,7 +36700,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -36695,7 +36712,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -36707,7 +36724,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -36719,7 +36736,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -36731,7 +36748,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -36743,7 +36760,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -36755,7 +36772,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -36767,7 +36784,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -36781,7 +36798,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -36793,7 +36810,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -36805,7 +36822,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -36819,7 +36836,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -36831,7 +36848,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -36843,7 +36860,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -36855,7 +36872,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -36867,7 +36884,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -36918,7 +36935,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -36969,7 +36986,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -37022,7 +37039,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -37075,7 +37092,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -37126,7 +37143,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -37177,7 +37194,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -37228,7 +37245,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -37281,7 +37298,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -37332,7 +37349,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -37385,7 +37402,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -37436,7 +37453,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -37487,7 +37504,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -37540,7 +37557,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -37591,7 +37608,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -37644,7 +37661,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -37746,7 +37763,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -37850,7 +37867,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -38008,7 +38025,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -38061,7 +38078,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -38163,7 +38180,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -38216,7 +38233,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -38225,7 +38242,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -38325,7 +38342,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -38376,7 +38393,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -38429,7 +38446,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -38482,7 +38499,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -38586,7 +38603,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -38684,7 +38701,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -41863,7 +41880,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41880,7 +41897,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41897,7 +41914,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -41914,7 +41931,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -41933,7 +41950,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -41950,7 +41967,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -41967,7 +41984,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -41984,7 +42001,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -42003,7 +42020,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -42020,7 +42037,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -42037,7 +42054,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -42054,7 +42071,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -42071,7 +42088,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -42090,7 +42107,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -42107,7 +42124,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -42124,7 +42141,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -42568,7 +42585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="between" text="Lock">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Lock">
       <formula>NOT(ISERROR(SEARCH("Lock",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42655,10 +42672,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A112" sqref="$A112:$XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -42709,14 +42726,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -42729,17 +42746,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -42749,7 +42766,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -42767,7 +42784,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -42783,7 +42800,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -42799,7 +42816,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -42815,7 +42832,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -42831,7 +42848,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42849,17 +42866,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42869,7 +42886,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42887,17 +42904,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -42909,17 +42926,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -42931,7 +42948,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -42939,7 +42956,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -42949,7 +42966,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -42966,7 +42983,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -42983,7 +43000,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -43002,7 +43019,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -43020,14 +43037,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -43040,14 +43057,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -43058,7 +43075,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -43074,14 +43091,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -43092,7 +43109,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -43110,7 +43127,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -43119,7 +43136,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -43130,7 +43147,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -43146,7 +43163,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -43162,7 +43179,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -43178,7 +43195,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -43194,7 +43211,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -43212,7 +43229,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -43228,7 +43245,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -43244,7 +43261,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -43260,7 +43277,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -43276,7 +43293,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -43310,14 +43327,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -43330,7 +43347,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -43346,7 +43363,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -43362,7 +43379,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -43396,7 +43413,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -43412,7 +43429,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -43430,7 +43447,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -43448,7 +43465,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -43466,13 +43483,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43483,7 +43500,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -43497,7 +43514,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -43511,7 +43528,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -43525,7 +43542,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -43537,7 +43554,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -43551,7 +43568,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -43565,7 +43582,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -43579,7 +43596,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -43593,7 +43610,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -43607,7 +43624,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -43619,7 +43636,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -43636,7 +43653,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -43648,7 +43665,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -43662,7 +43679,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -43679,7 +43696,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -43696,13 +43713,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43711,7 +43728,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -43725,7 +43742,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -43743,7 +43760,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -43757,13 +43774,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43774,7 +43791,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -43788,7 +43805,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -43802,7 +43819,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -43816,7 +43833,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -43828,7 +43845,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43846,7 +43863,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43860,13 +43877,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43877,7 +43894,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43889,7 +43906,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -43903,13 +43920,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43918,7 +43935,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -43930,7 +43947,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -43944,7 +43961,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -43956,7 +43973,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -43968,7 +43985,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -43980,7 +43997,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -43994,13 +44011,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44011,7 +44028,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -44025,7 +44042,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -44039,7 +44056,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -44077,7 +44094,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -44091,7 +44108,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -44105,7 +44122,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -44135,7 +44152,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -44149,7 +44166,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -44163,7 +44180,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -44177,7 +44194,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -44191,7 +44208,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -44205,7 +44222,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -44219,7 +44236,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -44233,13 +44250,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44250,7 +44267,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -44261,35 +44278,22 @@
         <v>45149</v>
       </c>
       <c r="B111" s="12">
-        <v>2315</v>
+        <v>2235</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A112" s="4">
-        <v>45146</v>
-      </c>
-      <c r="B112" s="12">
-        <v>2413</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="112" customFormat="1" ht="14.55"/>
     <row r="113" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A113" s="4">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B113" s="12">
-        <v>2469</v>
+        <v>2413</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1483</v>
@@ -44303,7 +44307,7 @@
         <v>45141</v>
       </c>
       <c r="B114" s="12">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1484</v>
@@ -44314,10 +44318,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A115" s="4">
-        <v>45148</v>
+        <v>45141</v>
       </c>
       <c r="B115" s="12">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1485</v>
@@ -44328,10 +44332,10 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A116" s="4">
-        <v>45137</v>
+        <v>45148</v>
       </c>
       <c r="B116" s="12">
-        <v>2582</v>
+        <v>2485</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1486</v>
@@ -44340,30 +44344,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="12"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A118" s="4">
-        <v>45147</v>
-      </c>
-      <c r="B118" s="12">
-        <v>2651</v>
-      </c>
-      <c r="C118" s="1" t="s">
+    <row r="117" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A117" s="4">
+        <v>45137</v>
+      </c>
+      <c r="B117" s="12">
+        <v>2582</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A119" s="4">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B119" s="12">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1488</v>
@@ -44374,10 +44378,10 @@
     </row>
     <row r="120" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A120" s="4">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="B120" s="12">
-        <v>2739</v>
+        <v>2652</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1489</v>
@@ -44387,11 +44391,11 @@
       </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="12.85" spans="1:4">
-      <c r="A121" s="27">
-        <v>45133</v>
+      <c r="A121" s="4">
+        <v>45131</v>
       </c>
       <c r="B121" s="12">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1490</v>
@@ -44402,10 +44406,10 @@
     </row>
     <row r="122" s="1" customFormat="1" ht="12.85" spans="1:4">
       <c r="A122" s="27">
-        <v>45143</v>
+        <v>45133</v>
       </c>
       <c r="B122" s="12">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>1491</v>
@@ -44414,9 +44418,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="12.85" spans="1:2">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
+    <row r="123" s="1" customFormat="1" ht="12.85" spans="1:4">
+      <c r="A123" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B123" s="12">
+        <v>2769</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="124" s="1" customFormat="1" ht="12.85" spans="1:2">
       <c r="A124" s="11"/>
@@ -44426,6 +44440,10 @@
       <c r="A125" s="11"/>
       <c r="B125" s="12"/>
     </row>
+    <row r="126" s="1" customFormat="1" ht="12.85" spans="1:2">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E2">
     <cfRule type="cellIs" dxfId="3" priority="57" operator="between">
@@ -44456,7 +44474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="10" priority="16" operator="between" text="Apple">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F106)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="17" operator="between" text="Amazon">
@@ -44522,8 +44540,113 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F125">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="between" text="Apple">
+  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 A127:E1048576 G127:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="56" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F88 F90:F105 F127:F1048576">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="between" text="Apple">
+      <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="32" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="35" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="41" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106:XFD106 A106:E106">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="30" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107:XFD111 G113:XFD126 A113:E126 A107:E111">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107:F111 F113:F126">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="between" text="Apple">
       <formula>NOT(ISERROR(SEARCH("Apple",F107)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="2" operator="between" text="Amazon">
@@ -44557,111 +44680,6 @@
       <formula>"Medium"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E45 A1:E42 A46:E88 G1:XFD88 G90:XFD105 A90:E105 G126:XFD1048576 A126:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="54" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="56" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F88 F90:F105 F126:F1048576">
-    <cfRule type="containsText" dxfId="10" priority="31" operator="between" text="Apple">
-      <formula>NOT(ISERROR(SEARCH("Apple",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="32" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="33" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="41" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106:XFD106 A106:E106">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="28" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="30" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107:XFD125 A107:E125">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
@@ -44731,7 +44749,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -44963,7 +44981,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -44980,7 +44998,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -44999,7 +45017,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -45018,7 +45036,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -45038,7 +45056,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45058,7 +45076,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45079,7 +45097,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45099,7 +45117,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45109,10 +45127,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45144,7 +45162,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45164,7 +45182,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45184,7 +45202,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45207,7 +45225,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45227,7 +45245,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45247,19 +45265,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45273,7 +45291,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45291,7 +45309,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45311,7 +45329,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45320,7 +45338,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45334,7 +45352,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45354,7 +45372,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45372,7 +45390,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45392,7 +45410,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45401,10 +45419,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45416,7 +45434,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45436,7 +45454,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45454,7 +45472,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45537,7 +45555,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45557,7 +45575,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45577,7 +45595,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45587,7 +45605,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45599,7 +45617,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45619,7 +45637,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45753,7 +45771,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45767,7 +45785,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45781,7 +45799,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45795,13 +45813,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45812,7 +45830,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45826,7 +45844,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45840,7 +45858,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -46036,7 +46054,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -46058,13 +46076,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46078,13 +46096,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46095,7 +46113,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46109,7 +46127,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46123,7 +46141,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46137,7 +46155,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46160,7 +46178,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46169,7 +46187,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46220,7 +46238,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46241,14 +46259,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46264,7 +46282,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46299,7 +46317,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46308,7 +46326,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46345,7 +46363,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46366,7 +46384,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46376,7 +46394,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47835,7 +47853,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -47850,13 +47868,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47897,7 +47915,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47912,7 +47930,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -47972,7 +47990,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -47985,7 +48003,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -48010,7 +48028,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -48023,7 +48041,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -48036,7 +48054,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -48049,7 +48067,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48064,7 +48082,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48079,7 +48097,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48092,7 +48110,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48107,7 +48125,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1571">
   <si>
     <t>Date</t>
   </si>
@@ -3645,6 +3645,9 @@
   </si>
   <si>
     <t>Remove Letter To Equalize Frequency</t>
+  </si>
+  <si>
+    <t>Maximum Value of a String in an Array</t>
   </si>
   <si>
     <t>Number of Senior Citizens</t>
@@ -7550,7 +7553,7 @@
   <sheetPr/>
   <dimension ref="A1:AR114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
@@ -26358,10 +26361,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A204" sqref="$A204:$XFD204"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -29136,10 +29139,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="39">
-        <v>45135</v>
+        <v>45150</v>
       </c>
       <c r="B208" s="1">
-        <v>2678</v>
+        <v>2496</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1155</v>
@@ -29150,10 +29153,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="39">
-        <v>45140</v>
+        <v>45135</v>
       </c>
       <c r="B209" s="1">
-        <v>2697</v>
+        <v>2678</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1156</v>
@@ -29164,10 +29167,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="39">
-        <v>45145</v>
+        <v>45140</v>
       </c>
       <c r="B210" s="1">
-        <v>2710</v>
+        <v>2697</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1157</v>
@@ -29178,10 +29181,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="39">
-        <v>45134</v>
+        <v>45145</v>
       </c>
       <c r="B211" s="1">
-        <v>2744</v>
+        <v>2710</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>1158</v>
@@ -29192,43 +29195,57 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="39">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B212" s="1">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="39">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B213" s="1">
-        <v>2788</v>
-      </c>
-      <c r="C213" s="16" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="39">
+        <v>45131</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="39">
         <v>45144</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B215" s="1">
         <v>2810</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D214" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -29521,12 +29538,12 @@
       <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F212">
+  <conditionalFormatting sqref="F213">
     <cfRule type="containsText" dxfId="5" priority="42" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="50" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="58" operator="between">
       <formula>"Amazon"</formula>
@@ -29557,7 +29574,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D213">
+  <conditionalFormatting sqref="D214">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29579,12 +29596,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F213">
+  <conditionalFormatting sqref="F214">
     <cfRule type="containsText" dxfId="5" priority="41" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="49" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="57" operator="between">
       <formula>"Amazon"</formula>
@@ -29615,12 +29632,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F214">
+  <conditionalFormatting sqref="F215">
     <cfRule type="containsText" dxfId="5" priority="40" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F215)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="48" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F215)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="56" operator="between">
       <formula>"Amazon"</formula>
@@ -29651,7 +29668,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A211">
+  <conditionalFormatting sqref="A207:A212">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29685,7 +29702,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207:F211">
+  <conditionalFormatting sqref="F207:F212">
     <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
     </cfRule>
@@ -29721,7 +29738,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 G215:XFD1048576 A215:E1048576">
+  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 A216:E1048576 G216:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="206" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29743,7 +29760,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F215:F1048576">
+  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F216:F1048576">
     <cfRule type="containsText" dxfId="5" priority="195" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
@@ -29911,7 +29928,7 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:XFD211 B207:E211">
+  <conditionalFormatting sqref="G207:XFD212 B207:E212">
     <cfRule type="cellIs" dxfId="0" priority="35" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29933,7 +29950,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G212:XFD212 A212:E212">
+  <conditionalFormatting sqref="G213:XFD213 A213:E213">
     <cfRule type="cellIs" dxfId="0" priority="114" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29955,7 +29972,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G213:XFD213 A213:C213 E213">
+  <conditionalFormatting sqref="G214:XFD214 E214 A214:C214">
     <cfRule type="cellIs" dxfId="0" priority="113" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29977,7 +29994,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G214:XFD214 A214:E214">
+  <conditionalFormatting sqref="G215:XFD215 A215:E215">
     <cfRule type="cellIs" dxfId="0" priority="112" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30072,7 +30089,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -30095,7 +30112,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -30115,7 +30132,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -30135,7 +30152,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -30155,7 +30172,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -30173,7 +30190,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -30191,7 +30208,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -30209,7 +30226,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -30229,7 +30246,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -30247,7 +30264,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -30265,7 +30282,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -30283,7 +30300,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -30301,7 +30318,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -30375,7 +30392,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -30393,7 +30410,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -30413,7 +30430,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -30425,7 +30442,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -30438,7 +30455,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -30458,7 +30475,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -30481,7 +30498,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -30502,7 +30519,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -30523,7 +30540,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -30543,7 +30560,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -30561,7 +30578,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -30579,7 +30596,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -30597,7 +30614,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -30615,7 +30632,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -30651,7 +30668,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -30671,7 +30688,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -30680,7 +30697,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -30691,7 +30708,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -30709,7 +30726,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -30731,7 +30748,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -30740,7 +30757,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -30756,7 +30773,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -30782,7 +30799,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -30797,7 +30814,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -30811,7 +30828,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -30825,7 +30842,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -30837,7 +30854,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -30851,7 +30868,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -30863,7 +30880,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -30875,7 +30892,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -30889,7 +30906,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -30903,7 +30920,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -32204,7 +32221,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -32222,7 +32239,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -32244,7 +32261,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -32264,7 +32281,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32284,7 +32301,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -32302,7 +32319,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -32320,7 +32337,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -32338,7 +32355,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -32354,7 +32371,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33795,7 +33812,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -33816,7 +33833,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -33834,7 +33851,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -33852,7 +33869,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -33870,7 +33887,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -33891,7 +33908,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -33902,7 +33919,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -33912,7 +33929,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -33933,7 +33950,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -33951,7 +33968,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33969,7 +33986,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -33987,7 +34004,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34005,7 +34022,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34023,7 +34040,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -34043,7 +34060,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -34064,7 +34081,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -34083,7 +34100,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -34104,7 +34121,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -34124,7 +34141,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -34142,7 +34159,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -34162,7 +34179,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -34182,7 +34199,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -34232,7 +34249,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -34252,7 +34269,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -34270,7 +34287,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -34288,7 +34305,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -34306,7 +34323,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -34326,7 +34343,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -34344,7 +34361,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -34362,7 +34379,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -34380,7 +34397,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -34398,7 +34415,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -34416,7 +34433,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -34434,7 +34451,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -34452,7 +34469,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -34472,7 +34489,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -34490,7 +34507,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -34508,7 +34525,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -34526,7 +34543,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -34546,7 +34563,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -34566,7 +34583,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -34587,7 +34604,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -34607,7 +34624,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -34625,7 +34642,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -34645,7 +34662,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -35895,7 +35912,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -35913,7 +35930,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -35933,7 +35950,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -35948,7 +35965,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -35963,7 +35980,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -35978,7 +35995,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -35987,10 +36004,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -36002,14 +36019,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -36020,7 +36037,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -36040,7 +36057,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -36058,7 +36075,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -36076,7 +36093,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -36096,7 +36113,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -36116,7 +36133,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -36152,7 +36169,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -36170,7 +36187,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -36188,7 +36205,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -36206,7 +36223,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -36246,7 +36263,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -36264,7 +36281,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -36284,7 +36301,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -36302,7 +36319,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -36325,7 +36342,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -36346,7 +36363,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -36365,7 +36382,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -36385,7 +36402,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -36407,7 +36424,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -36443,7 +36460,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -36463,7 +36480,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -36483,7 +36500,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -36501,7 +36518,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -36519,7 +36536,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -36537,7 +36554,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -36557,7 +36574,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -36577,7 +36594,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -36597,7 +36614,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -36606,10 +36623,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -36621,7 +36638,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -36639,7 +36656,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -36651,7 +36668,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -36663,7 +36680,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -36678,7 +36695,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -36702,7 +36719,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -36716,7 +36733,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -36728,7 +36745,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -36742,7 +36759,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -36756,7 +36773,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -36768,7 +36785,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -36780,7 +36797,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -36792,7 +36809,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -36804,7 +36821,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -36816,7 +36833,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -36828,7 +36845,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -36840,7 +36857,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -36854,7 +36871,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -36866,7 +36883,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -36878,7 +36895,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -36892,7 +36909,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -36904,7 +36921,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -36916,7 +36933,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -36928,7 +36945,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -36940,7 +36957,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -36991,7 +37008,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -37042,7 +37059,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -37095,7 +37112,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -37148,7 +37165,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -37199,7 +37216,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -37250,7 +37267,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -37301,7 +37318,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -37354,7 +37371,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -37405,7 +37422,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -37458,7 +37475,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -37509,7 +37526,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -37560,7 +37577,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -37613,7 +37630,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -37664,7 +37681,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -37717,7 +37734,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -37819,7 +37836,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -37923,7 +37940,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -38081,7 +38098,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -38134,7 +38151,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -38236,7 +38253,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -38289,7 +38306,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -38298,7 +38315,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -38398,7 +38415,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -38449,7 +38466,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -38502,7 +38519,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -38555,7 +38572,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -38659,7 +38676,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -38757,7 +38774,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -41936,7 +41953,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41953,7 +41970,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41970,7 +41987,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -41987,7 +42004,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -42006,7 +42023,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -42023,7 +42040,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -42040,7 +42057,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -42057,7 +42074,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -42076,7 +42093,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -42093,7 +42110,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -42110,7 +42127,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -42127,7 +42144,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -42144,7 +42161,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -42163,7 +42180,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -42180,7 +42197,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -42197,7 +42214,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -42782,14 +42799,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -42802,17 +42819,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -42822,7 +42839,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -42840,7 +42857,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -42856,7 +42873,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -42872,7 +42889,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -42888,7 +42905,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -42904,7 +42921,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42922,17 +42939,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42942,7 +42959,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42960,17 +42977,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -42982,17 +42999,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -43004,7 +43021,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -43012,7 +43029,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -43022,7 +43039,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -43039,7 +43056,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -43056,7 +43073,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -43075,7 +43092,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -43093,14 +43110,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -43113,14 +43130,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -43131,7 +43148,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -43147,14 +43164,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -43165,7 +43182,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -43183,7 +43200,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -43192,7 +43209,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -43203,7 +43220,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -43219,7 +43236,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -43235,7 +43252,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -43251,7 +43268,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -43267,7 +43284,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -43285,7 +43302,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -43301,7 +43318,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -43317,7 +43334,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -43333,7 +43350,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -43349,7 +43366,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -43383,14 +43400,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -43403,7 +43420,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -43419,7 +43436,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -43435,7 +43452,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -43469,7 +43486,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -43485,7 +43502,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -43503,7 +43520,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -43521,7 +43538,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -43539,13 +43556,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43556,7 +43573,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -43570,7 +43587,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -43584,7 +43601,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -43598,7 +43615,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -43610,7 +43627,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -43624,7 +43641,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -43638,7 +43655,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -43652,7 +43669,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -43666,7 +43683,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -43680,7 +43697,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -43692,7 +43709,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -43709,7 +43726,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -43721,7 +43738,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -43735,7 +43752,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -43752,7 +43769,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -43769,13 +43786,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43784,7 +43801,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -43798,7 +43815,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -43816,7 +43833,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -43830,13 +43847,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43847,7 +43864,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -43861,7 +43878,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -43875,7 +43892,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -43889,7 +43906,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -43901,7 +43918,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43919,7 +43936,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43933,13 +43950,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43950,7 +43967,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43962,7 +43979,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -43976,13 +43993,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43991,7 +44008,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -44003,7 +44020,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -44017,7 +44034,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -44029,7 +44046,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -44041,7 +44058,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -44053,7 +44070,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -44067,13 +44084,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44084,7 +44101,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -44098,7 +44115,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -44112,7 +44129,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -44150,7 +44167,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -44164,7 +44181,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -44178,7 +44195,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -44208,7 +44225,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -44222,7 +44239,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -44236,7 +44253,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -44250,7 +44267,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -44264,7 +44281,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -44278,7 +44295,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -44292,7 +44309,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -44306,13 +44323,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44323,7 +44340,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -44337,7 +44354,7 @@
         <v>2235</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -44352,7 +44369,7 @@
         <v>2413</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -44366,7 +44383,7 @@
         <v>2469</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -44380,7 +44397,7 @@
         <v>2475</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
@@ -44394,7 +44411,7 @@
         <v>2485</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -44408,7 +44425,7 @@
         <v>2582</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -44426,7 +44443,7 @@
         <v>2651</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
@@ -44440,7 +44457,7 @@
         <v>2652</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -44454,7 +44471,7 @@
         <v>2739</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -44468,7 +44485,7 @@
         <v>2745</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -44482,7 +44499,7 @@
         <v>2769</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>11</v>
@@ -44805,7 +44822,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -45037,7 +45054,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -45054,7 +45071,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -45073,7 +45090,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -45092,7 +45109,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -45112,7 +45129,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45132,7 +45149,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45153,7 +45170,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45173,7 +45190,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45183,10 +45200,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45218,7 +45235,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45238,7 +45255,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45258,7 +45275,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45281,7 +45298,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45301,7 +45318,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45321,19 +45338,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45347,7 +45364,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45365,7 +45382,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45385,7 +45402,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45394,7 +45411,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45408,7 +45425,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45428,7 +45445,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45446,7 +45463,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45466,7 +45483,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45475,10 +45492,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45490,7 +45507,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45510,7 +45527,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45528,7 +45545,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45611,7 +45628,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45631,7 +45648,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45651,7 +45668,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45661,7 +45678,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45673,7 +45690,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45693,7 +45710,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45827,7 +45844,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45841,7 +45858,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45855,7 +45872,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45869,13 +45886,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45886,7 +45903,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45900,7 +45917,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45914,7 +45931,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -46110,7 +46127,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -46132,13 +46149,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46152,13 +46169,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46169,7 +46186,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46183,7 +46200,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46197,7 +46214,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46211,7 +46228,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46234,7 +46251,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46243,7 +46260,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46294,7 +46311,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46315,14 +46332,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46338,7 +46355,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46373,7 +46390,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46382,7 +46399,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46419,7 +46436,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46440,7 +46457,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46450,7 +46467,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47909,7 +47926,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -47924,13 +47941,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47971,7 +47988,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -47986,7 +48003,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -48046,7 +48063,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -48059,7 +48076,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -48084,7 +48101,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -48097,7 +48114,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -48110,7 +48127,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -48123,7 +48140,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48138,7 +48155,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48153,7 +48170,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48166,7 +48183,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48181,7 +48198,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="14"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1572">
   <si>
     <t>Date</t>
   </si>
@@ -4239,6 +4239,9 @@
   </si>
   <si>
     <t>Lowest Common Ancestor of a Binary Tree IV</t>
+  </si>
+  <si>
+    <t>Root Equals Sum of Children</t>
   </si>
   <si>
     <t>Ugly Number II</t>
@@ -26363,7 +26366,7 @@
   <sheetPr/>
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
@@ -35850,8 +35853,8 @@
   <sheetPr/>
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="14.1"/>
@@ -38955,10 +38958,18 @@
       <c r="AR103" s="1"/>
     </row>
     <row r="104" spans="1:44">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="A104" s="27">
+        <v>45150</v>
+      </c>
+      <c r="B104" s="12">
+        <v>2236</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -41953,7 +41964,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41970,7 +41981,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41987,7 +41998,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -42004,7 +42015,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -42023,7 +42034,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -42040,7 +42051,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -42057,7 +42068,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -42074,7 +42085,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -42093,7 +42104,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -42110,7 +42121,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -42127,7 +42138,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -42144,7 +42155,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -42161,7 +42172,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -42180,7 +42191,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -42197,7 +42208,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -42214,7 +42225,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -42799,14 +42810,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -42819,17 +42830,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -42839,7 +42850,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -42857,7 +42868,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -42873,7 +42884,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -42889,7 +42900,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -42905,7 +42916,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -42921,7 +42932,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42939,17 +42950,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42959,7 +42970,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42977,17 +42988,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -42999,17 +43010,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -43021,7 +43032,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -43029,7 +43040,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -43039,7 +43050,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -43056,7 +43067,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -43073,7 +43084,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -43092,7 +43103,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -43110,14 +43121,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -43130,14 +43141,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -43148,7 +43159,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -43164,14 +43175,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -43182,7 +43193,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -43200,7 +43211,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -43209,7 +43220,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -43220,7 +43231,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -43236,7 +43247,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -43252,7 +43263,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -43284,7 +43295,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -43302,7 +43313,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -43318,7 +43329,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -43334,7 +43345,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -43350,7 +43361,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -43366,7 +43377,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -43400,14 +43411,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -43420,7 +43431,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -43436,7 +43447,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -43452,7 +43463,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -43486,7 +43497,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -43502,7 +43513,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -43520,7 +43531,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -43538,7 +43549,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -43556,13 +43567,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43573,7 +43584,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -43587,7 +43598,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -43601,7 +43612,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -43615,7 +43626,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -43627,7 +43638,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -43641,7 +43652,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -43655,7 +43666,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -43669,7 +43680,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -43683,7 +43694,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -43697,7 +43708,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -43709,7 +43720,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -43726,7 +43737,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -43738,7 +43749,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -43752,7 +43763,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -43769,7 +43780,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -43786,13 +43797,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43801,7 +43812,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -43815,7 +43826,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -43833,7 +43844,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -43847,13 +43858,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43864,7 +43875,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -43878,7 +43889,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -43892,7 +43903,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -43906,7 +43917,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -43918,7 +43929,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43936,7 +43947,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43950,13 +43961,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43967,7 +43978,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43979,7 +43990,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -43993,13 +44004,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44008,7 +44019,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -44020,7 +44031,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -44034,7 +44045,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -44046,7 +44057,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -44058,7 +44069,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -44070,7 +44081,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -44084,13 +44095,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44101,7 +44112,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -44115,7 +44126,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -44129,7 +44140,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -44167,7 +44178,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -44181,7 +44192,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -44195,7 +44206,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -44225,7 +44236,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -44239,7 +44250,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -44253,7 +44264,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -44267,7 +44278,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -44281,7 +44292,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -44295,7 +44306,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -44309,7 +44320,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -44323,13 +44334,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44340,7 +44351,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -44354,7 +44365,7 @@
         <v>2235</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -44369,7 +44380,7 @@
         <v>2413</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -44383,7 +44394,7 @@
         <v>2469</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -44397,7 +44408,7 @@
         <v>2475</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
@@ -44411,7 +44422,7 @@
         <v>2485</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -44425,7 +44436,7 @@
         <v>2582</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -44443,7 +44454,7 @@
         <v>2651</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
@@ -44457,7 +44468,7 @@
         <v>2652</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -44471,7 +44482,7 @@
         <v>2739</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -44485,7 +44496,7 @@
         <v>2745</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -44499,7 +44510,7 @@
         <v>2769</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>11</v>
@@ -44822,7 +44833,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -45054,7 +45065,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -45071,7 +45082,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -45090,7 +45101,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -45109,7 +45120,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -45129,7 +45140,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45149,7 +45160,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45170,7 +45181,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45190,7 +45201,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45200,10 +45211,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45235,7 +45246,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45255,7 +45266,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45275,7 +45286,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45298,7 +45309,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45318,7 +45329,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45338,19 +45349,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45364,7 +45375,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45382,7 +45393,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45402,7 +45413,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45411,7 +45422,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45425,7 +45436,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45445,7 +45456,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45463,7 +45474,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45483,7 +45494,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45492,10 +45503,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45507,7 +45518,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45527,7 +45538,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45545,7 +45556,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45628,7 +45639,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45648,7 +45659,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45668,7 +45679,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45678,7 +45689,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45690,7 +45701,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45710,7 +45721,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45844,7 +45855,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45858,7 +45869,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45872,7 +45883,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45886,13 +45897,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45903,7 +45914,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45917,7 +45928,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45931,7 +45942,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -46149,13 +46160,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46169,13 +46180,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46186,7 +46197,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46200,7 +46211,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46214,7 +46225,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46228,7 +46239,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46260,7 +46271,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46311,7 +46322,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46332,14 +46343,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46355,7 +46366,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46390,7 +46401,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46399,7 +46410,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46436,7 +46447,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46457,7 +46468,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46467,7 +46478,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47941,13 +47952,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47988,7 +47999,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -48003,7 +48014,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -48063,7 +48074,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -48076,7 +48087,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -48101,7 +48112,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -48114,7 +48125,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -48127,7 +48138,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -48140,7 +48151,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48155,7 +48166,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48170,7 +48181,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48183,7 +48194,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48198,7 +48209,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="18"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="1573">
   <si>
     <t>Date</t>
   </si>
@@ -3639,6 +3639,9 @@
   </si>
   <si>
     <t>Percentage of Letter in String</t>
+  </si>
+  <si>
+    <t>Greatest English Letter in Upper and Lower Case</t>
   </si>
   <si>
     <t>Count Asterisks</t>
@@ -26366,8 +26369,8 @@
   <sheetPr/>
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -29103,8 +29106,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="36"/>
+    <row r="203" spans="1:4">
+      <c r="A203" s="39">
+        <v>45151</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2309</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="204" s="1" customFormat="1" spans="1:4">
       <c r="A204" s="4">
@@ -29114,7 +29128,7 @@
         <v>2315</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>11</v>
@@ -29134,7 +29148,7 @@
         <v>2423</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
@@ -29148,7 +29162,7 @@
         <v>2496</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>11</v>
@@ -29162,7 +29176,7 @@
         <v>2678</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -29176,7 +29190,7 @@
         <v>2697</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>11</v>
@@ -29190,7 +29204,7 @@
         <v>2710</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>11</v>
@@ -29204,7 +29218,7 @@
         <v>2744</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>11</v>
@@ -29218,7 +29232,7 @@
         <v>2785</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
@@ -29232,7 +29246,7 @@
         <v>2788</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>11</v>
@@ -29246,7 +29260,7 @@
         <v>2810</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>11</v>
@@ -30092,7 +30106,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -30115,7 +30129,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -30135,7 +30149,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -30155,7 +30169,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -30175,7 +30189,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -30193,7 +30207,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -30211,7 +30225,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -30229,7 +30243,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -30249,7 +30263,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -30267,7 +30281,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -30285,7 +30299,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -30303,7 +30317,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -30321,7 +30335,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -30395,7 +30409,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -30413,7 +30427,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -30433,7 +30447,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
@@ -30445,7 +30459,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="19"/>
@@ -30458,7 +30472,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -30478,7 +30492,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -30501,7 +30515,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -30522,7 +30536,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -30543,7 +30557,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -30563,7 +30577,7 @@
         <v>369</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -30581,7 +30595,7 @@
         <v>382</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -30599,7 +30613,7 @@
         <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -30617,7 +30631,7 @@
         <v>725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -30635,7 +30649,7 @@
         <v>817</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -30671,7 +30685,7 @@
         <v>986</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -30691,7 +30705,7 @@
         <v>1019</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -30700,7 +30714,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="19"/>
@@ -30711,7 +30725,7 @@
         <v>1171</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -30729,7 +30743,7 @@
         <v>1181</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -30751,7 +30765,7 @@
         <v>1265</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -30760,7 +30774,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -30776,7 +30790,7 @@
         <v>1290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -30802,7 +30816,7 @@
         <v>1474</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -30817,7 +30831,7 @@
         <v>1634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -30831,7 +30845,7 @@
         <v>1669</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -30845,7 +30859,7 @@
         <v>1721</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -30857,7 +30871,7 @@
         <v>1836</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -30871,7 +30885,7 @@
         <v>2046</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -30883,7 +30897,7 @@
         <v>2058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -30895,7 +30909,7 @@
         <v>2074</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -30909,7 +30923,7 @@
         <v>2130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -30923,7 +30937,7 @@
         <v>2181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -32224,7 +32238,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -32242,7 +32256,7 @@
         <v>281</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -32264,7 +32278,7 @@
         <v>346</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -32284,7 +32298,7 @@
         <v>862</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -32304,7 +32318,7 @@
         <v>933</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -32322,7 +32336,7 @@
         <v>1424</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -32340,7 +32354,7 @@
         <v>1438</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -32358,7 +32372,7 @@
         <v>1499</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -32374,7 +32388,7 @@
         <v>1696</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33815,7 +33829,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -33836,7 +33850,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -33854,7 +33868,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -33872,7 +33886,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -33890,7 +33904,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -33911,7 +33925,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -33922,7 +33936,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -33932,7 +33946,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -33953,7 +33967,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
@@ -33971,7 +33985,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -33989,7 +34003,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -34007,7 +34021,7 @@
         <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -34025,7 +34039,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -34043,7 +34057,7 @@
         <v>255</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -34063,7 +34077,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -34084,7 +34098,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -34103,7 +34117,7 @@
         <v>341</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -34124,7 +34138,7 @@
         <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -34144,7 +34158,7 @@
         <v>394</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
@@ -34162,7 +34176,7 @@
         <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -34182,7 +34196,7 @@
         <v>456</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -34202,7 +34216,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -34252,7 +34266,7 @@
         <v>636</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -34272,7 +34286,7 @@
         <v>682</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -34290,7 +34304,7 @@
         <v>726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -34308,7 +34322,7 @@
         <v>735</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -34326,7 +34340,7 @@
         <v>736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -34346,7 +34360,7 @@
         <v>739</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -34364,7 +34378,7 @@
         <v>770</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -34382,7 +34396,7 @@
         <v>772</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -34400,7 +34414,7 @@
         <v>853</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -34418,7 +34432,7 @@
         <v>856</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -34436,7 +34450,7 @@
         <v>872</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -34454,7 +34468,7 @@
         <v>895</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -34472,7 +34486,7 @@
         <v>901</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -34492,7 +34506,7 @@
         <v>921</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -34510,7 +34524,7 @@
         <v>946</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -34528,7 +34542,7 @@
         <v>1003</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -34546,7 +34560,7 @@
         <v>1019</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -34566,7 +34580,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>11</v>
@@ -34586,7 +34600,7 @@
         <v>1047</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -34607,7 +34621,7 @@
         <v>1063</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -34627,7 +34641,7 @@
         <v>1130</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -34645,7 +34659,7 @@
         <v>1190</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -34665,7 +34679,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -35853,7 +35867,7 @@
   <sheetPr/>
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A77" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
@@ -35915,7 +35929,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -35933,7 +35947,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>16</v>
@@ -35953,7 +35967,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -35968,7 +35982,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -35983,7 +35997,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -35998,7 +36012,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -36007,10 +36021,10 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -36022,14 +36036,14 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -36040,7 +36054,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -36060,7 +36074,7 @@
         <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -36078,7 +36092,7 @@
         <v>208</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -36096,7 +36110,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -36116,7 +36130,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -36136,7 +36150,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -36172,7 +36186,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -36190,7 +36204,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -36208,7 +36222,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -36226,7 +36240,7 @@
         <v>315</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -36266,7 +36280,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -36284,7 +36298,7 @@
         <v>525</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -36304,7 +36318,7 @@
         <v>530</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -36322,7 +36336,7 @@
         <v>536</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -36345,7 +36359,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -36366,7 +36380,7 @@
         <v>543</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>11</v>
@@ -36385,7 +36399,7 @@
         <v>545</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -36405,7 +36419,7 @@
         <v>548</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -36427,7 +36441,7 @@
         <v>559</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>11</v>
@@ -36463,7 +36477,7 @@
         <v>572</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>11</v>
@@ -36483,7 +36497,7 @@
         <v>589</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -36503,7 +36517,7 @@
         <v>590</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -36521,7 +36535,7 @@
         <v>606</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -36539,7 +36553,7 @@
         <v>617</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -36557,7 +36571,7 @@
         <v>623</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -36577,7 +36591,7 @@
         <v>637</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -36597,7 +36611,7 @@
         <v>652</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -36617,7 +36631,7 @@
         <v>653</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -36626,10 +36640,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="23" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -36641,7 +36655,7 @@
         <v>654</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -36659,7 +36673,7 @@
         <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -36671,7 +36685,7 @@
         <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -36683,7 +36697,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -36698,7 +36712,7 @@
         <v>677</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -36722,7 +36736,7 @@
         <v>685</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -36736,7 +36750,7 @@
         <v>687</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -36748,7 +36762,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -36762,7 +36776,7 @@
         <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -36776,7 +36790,7 @@
         <v>783</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -36788,7 +36802,7 @@
         <v>814</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -36800,7 +36814,7 @@
         <v>850</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -36812,7 +36826,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -36824,7 +36838,7 @@
         <v>866</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -36836,7 +36850,7 @@
         <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -36848,7 +36862,7 @@
         <v>897</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -36860,7 +36874,7 @@
         <v>919</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -36874,7 +36888,7 @@
         <v>938</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -36886,7 +36900,7 @@
         <v>951</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -36898,7 +36912,7 @@
         <v>958</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -36912,7 +36926,7 @@
         <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -36924,7 +36938,7 @@
         <v>971</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -36936,7 +36950,7 @@
         <v>979</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -36948,7 +36962,7 @@
         <v>987</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>13</v>
@@ -36960,7 +36974,7 @@
         <v>988</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -37011,7 +37025,7 @@
         <v>993</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -37062,7 +37076,7 @@
         <v>998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -37115,7 +37129,7 @@
         <v>1008</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -37168,7 +37182,7 @@
         <v>1022</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -37219,7 +37233,7 @@
         <v>1026</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -37270,7 +37284,7 @@
         <v>1028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
@@ -37321,7 +37335,7 @@
         <v>1032</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
@@ -37374,7 +37388,7 @@
         <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -37425,7 +37439,7 @@
         <v>1065</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -37478,7 +37492,7 @@
         <v>1080</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -37529,7 +37543,7 @@
         <v>1104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -37580,7 +37594,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -37633,7 +37647,7 @@
         <v>1123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -37684,7 +37698,7 @@
         <v>1145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -37737,7 +37751,7 @@
         <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -37839,7 +37853,7 @@
         <v>1261</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -37943,7 +37957,7 @@
         <v>1339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -38101,7 +38115,7 @@
         <v>1430</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -38154,7 +38168,7 @@
         <v>1443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -38256,7 +38270,7 @@
         <v>1457</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -38309,7 +38323,7 @@
         <v>1469</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -38318,7 +38332,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -38418,7 +38432,7 @@
         <v>1505</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
@@ -38469,7 +38483,7 @@
         <v>1506</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -38522,7 +38536,7 @@
         <v>1516</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>16</v>
@@ -38575,7 +38589,7 @@
         <v>1519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -38679,7 +38693,7 @@
         <v>1530</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -38777,7 +38791,7 @@
         <v>1676</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -38965,7 +38979,7 @@
         <v>2236</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -41964,7 +41978,7 @@
         <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -41981,7 +41995,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -41998,7 +42012,7 @@
         <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -42015,7 +42029,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -42034,7 +42048,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -42051,7 +42065,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -42068,7 +42082,7 @@
         <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -42085,7 +42099,7 @@
         <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -42104,7 +42118,7 @@
         <v>703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -42121,7 +42135,7 @@
         <v>846</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -42138,7 +42152,7 @@
         <v>855</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -42155,7 +42169,7 @@
         <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -42172,7 +42186,7 @@
         <v>871</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -42191,7 +42205,7 @@
         <v>1046</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -42208,7 +42222,7 @@
         <v>1057</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -42225,7 +42239,7 @@
         <v>1383</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -42810,14 +42824,14 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="19"/>
@@ -42830,17 +42844,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="I3" s="19"/>
     </row>
@@ -42850,7 +42864,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -42868,7 +42882,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -42884,7 +42898,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -42900,7 +42914,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -42916,7 +42930,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -42932,7 +42946,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -42950,17 +42964,17 @@
         <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -42970,7 +42984,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -42988,17 +43002,17 @@
         <v>168</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -43010,17 +43024,17 @@
         <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -43032,7 +43046,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
@@ -43040,7 +43054,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="29"/>
       <c r="H14" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="I14" s="19"/>
     </row>
@@ -43050,7 +43064,7 @@
         <v>223</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -43067,7 +43081,7 @@
         <v>233</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -43084,7 +43098,7 @@
         <v>248</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -43103,7 +43117,7 @@
         <v>258</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>11</v>
@@ -43121,14 +43135,14 @@
         <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="19"/>
@@ -43141,14 +43155,14 @@
         <v>292</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
@@ -43159,7 +43173,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -43175,14 +43189,14 @@
         <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="29" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
@@ -43193,7 +43207,7 @@
         <v>335</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -43211,7 +43225,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -43220,7 +43234,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
       <c r="I24" s="21" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -43231,7 +43245,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -43247,7 +43261,7 @@
         <v>365</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -43263,7 +43277,7 @@
         <v>372</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -43279,7 +43293,7 @@
         <v>382</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -43295,7 +43309,7 @@
         <v>386</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -43313,7 +43327,7 @@
         <v>390</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -43329,7 +43343,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -43345,7 +43359,7 @@
         <v>398</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -43361,7 +43375,7 @@
         <v>400</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -43377,7 +43391,7 @@
         <v>413</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -43411,14 +43425,14 @@
         <v>441</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="14"/>
       <c r="G36" s="29" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
@@ -43431,7 +43445,7 @@
         <v>453</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -43447,7 +43461,7 @@
         <v>458</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -43463,7 +43477,7 @@
         <v>469</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -43497,7 +43511,7 @@
         <v>478</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>13</v>
@@ -43513,7 +43527,7 @@
         <v>497</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -43531,7 +43545,7 @@
         <v>598</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>11</v>
@@ -43549,7 +43563,7 @@
         <v>628</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -43567,13 +43581,13 @@
         <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43584,7 +43598,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -43598,7 +43612,7 @@
         <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -43612,7 +43626,7 @@
         <v>892</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -43626,7 +43640,7 @@
         <v>908</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -43638,7 +43652,7 @@
         <v>910</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -43652,7 +43666,7 @@
         <v>914</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -43666,7 +43680,7 @@
         <v>1009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -43680,7 +43694,7 @@
         <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -43694,7 +43708,7 @@
         <v>1079</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -43708,7 +43722,7 @@
         <v>1103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -43720,7 +43734,7 @@
         <v>1121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -43737,7 +43751,7 @@
         <v>1128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -43749,7 +43763,7 @@
         <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -43763,7 +43777,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -43780,7 +43794,7 @@
         <v>1150</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -43797,13 +43811,13 @@
         <v>1154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43812,7 +43826,7 @@
         <v>1157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -43826,7 +43840,7 @@
         <v>1217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -43844,7 +43858,7 @@
         <v>1232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -43858,13 +43872,13 @@
         <v>1237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43875,7 +43889,7 @@
         <v>1266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -43889,7 +43903,7 @@
         <v>1281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -43903,7 +43917,7 @@
         <v>1317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -43917,7 +43931,7 @@
         <v>1323</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -43929,7 +43943,7 @@
         <v>1360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -43947,7 +43961,7 @@
         <v>1390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -43961,13 +43975,13 @@
         <v>1432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -43978,7 +43992,7 @@
         <v>1442</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -43990,7 +44004,7 @@
         <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -44004,13 +44018,13 @@
         <v>1486</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44019,7 +44033,7 @@
         <v>1492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -44031,7 +44045,7 @@
         <v>1497</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -44045,7 +44059,7 @@
         <v>1512</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -44057,7 +44071,7 @@
         <v>1513</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -44069,7 +44083,7 @@
         <v>1525</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -44081,7 +44095,7 @@
         <v>1537</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
@@ -44095,13 +44109,13 @@
         <v>1551</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44112,7 +44126,7 @@
         <v>1688</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -44126,7 +44140,7 @@
         <v>1716</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -44140,7 +44154,7 @@
         <v>1742</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -44178,7 +44192,7 @@
         <v>1806</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -44192,7 +44206,7 @@
         <v>1812</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -44206,7 +44220,7 @@
         <v>1837</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -44236,7 +44250,7 @@
         <v>1952</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -44250,7 +44264,7 @@
         <v>1980</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -44264,7 +44278,7 @@
         <v>2119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -44278,7 +44292,7 @@
         <v>2113</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -44292,7 +44306,7 @@
         <v>2139</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -44306,7 +44320,7 @@
         <v>2169</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -44320,7 +44334,7 @@
         <v>2177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -44334,13 +44348,13 @@
         <v>2180</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -44351,7 +44365,7 @@
         <v>2231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -44365,7 +44379,7 @@
         <v>2235</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -44380,7 +44394,7 @@
         <v>2413</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -44394,7 +44408,7 @@
         <v>2469</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -44408,7 +44422,7 @@
         <v>2475</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
@@ -44422,7 +44436,7 @@
         <v>2485</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -44436,7 +44450,7 @@
         <v>2582</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -44454,7 +44468,7 @@
         <v>2651</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
@@ -44468,7 +44482,7 @@
         <v>2652</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -44482,7 +44496,7 @@
         <v>2739</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -44496,7 +44510,7 @@
         <v>2745</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -44510,7 +44524,7 @@
         <v>2769</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>11</v>
@@ -44833,7 +44847,7 @@
         <v>1114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -45065,7 +45079,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -45082,7 +45096,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -45101,7 +45115,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -45120,7 +45134,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -45140,7 +45154,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -45160,7 +45174,7 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -45181,7 +45195,7 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -45201,7 +45215,7 @@
         <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -45211,10 +45225,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="16"/>
@@ -45246,7 +45260,7 @@
         <v>406</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -45266,7 +45280,7 @@
         <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -45286,7 +45300,7 @@
         <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -45309,7 +45323,7 @@
         <v>912</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -45329,7 +45343,7 @@
         <v>937</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
@@ -45349,19 +45363,19 @@
         <v>973</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="20"/>
@@ -45375,7 +45389,7 @@
         <v>976</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>11</v>
@@ -45393,7 +45407,7 @@
         <v>1054</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -45413,7 +45427,7 @@
         <v>1086</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
@@ -45422,7 +45436,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -45436,7 +45450,7 @@
         <v>1094</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -45456,7 +45470,7 @@
         <v>1122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>11</v>
@@ -45474,7 +45488,7 @@
         <v>1229</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
@@ -45494,7 +45508,7 @@
         <v>1356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>11</v>
@@ -45503,10 +45517,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -45518,7 +45532,7 @@
         <v>1365</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>11</v>
@@ -45538,7 +45552,7 @@
         <v>1387</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -45556,7 +45570,7 @@
         <v>1451</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -45639,7 +45653,7 @@
         <v>1523</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -45659,7 +45673,7 @@
         <v>1561</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -45679,7 +45693,7 @@
         <v>1588</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -45689,7 +45703,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
       <c r="J34" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="K34" s="19"/>
     </row>
@@ -45701,7 +45715,7 @@
         <v>1608</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -45721,7 +45735,7 @@
         <v>1630</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -45855,7 +45869,7 @@
         <v>1833</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -45869,7 +45883,7 @@
         <v>1874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -45883,7 +45897,7 @@
         <v>1913</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -45897,13 +45911,13 @@
         <v>2165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -45914,7 +45928,7 @@
         <v>2418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -45928,7 +45942,7 @@
         <v>2733</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -45942,7 +45956,7 @@
         <v>2740</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -46138,7 +46152,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -46160,13 +46174,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>317</v>
@@ -46180,13 +46194,13 @@
         <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12.85" spans="1:4">
@@ -46197,7 +46211,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -46211,7 +46225,7 @@
         <v>705</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -46225,7 +46239,7 @@
         <v>706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -46239,7 +46253,7 @@
         <v>716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -46262,7 +46276,7 @@
         <v>901</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -46271,7 +46285,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
@@ -46322,7 +46336,7 @@
         <v>1357</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -46343,14 +46357,14 @@
         <v>1476</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -46366,7 +46380,7 @@
         <v>1570</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -46401,7 +46415,7 @@
         <v>1756</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -46410,7 +46424,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="19"/>
@@ -46447,7 +46461,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
@@ -46468,7 +46482,7 @@
         <v>1865</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
@@ -46478,7 +46492,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
@@ -47937,7 +47951,7 @@
         <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -47952,13 +47966,13 @@
         <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12.85" spans="1:8">
@@ -47999,7 +48013,7 @@
         <v>974</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -48014,7 +48028,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -48074,7 +48088,7 @@
         <v>1442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -48087,7 +48101,7 @@
         <v>1524</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -48112,7 +48126,7 @@
         <v>1590</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -48125,7 +48139,7 @@
         <v>1658</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -48138,7 +48152,7 @@
         <v>1788</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -48151,7 +48165,7 @@
         <v>1915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -48166,7 +48180,7 @@
         <v>1983</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -48181,7 +48195,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -48194,7 +48208,7 @@
         <v>2025</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -48209,7 +48223,7 @@
         <v>2067</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="17845" windowHeight="10148" tabRatio="991" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BFS" sheetId="19" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1575">
   <si>
     <t>Date</t>
   </si>
@@ -3564,6 +3564,9 @@
   </si>
   <si>
     <t>Sum of Digits of String After Convert</t>
+  </si>
+  <si>
+    <t>Delete Characters to Make Fancy String</t>
   </si>
   <si>
     <t>Check If String Is a Prefix of Array</t>
@@ -7562,7 +7565,7 @@
   <sheetPr/>
   <dimension ref="A1:AR114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -26570,10 +26573,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10810810810811" defaultRowHeight="12.85"/>
@@ -28958,10 +28961,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="26">
-        <v>44428</v>
+        <v>45153</v>
       </c>
       <c r="B173" s="1">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1128</v>
@@ -28972,10 +28975,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="26">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B174" s="1">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1129</v>
@@ -28986,10 +28989,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="26">
-        <v>44446</v>
+        <v>44427</v>
       </c>
       <c r="B175" s="1">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1130</v>
@@ -28998,17 +29001,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B178" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C178" s="1" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="26">
+        <v>44446</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1974</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -29017,7 +29020,7 @@
         <v>44460</v>
       </c>
       <c r="B179" s="1">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1132</v>
@@ -29028,10 +29031,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="26">
-        <v>44473</v>
+        <v>44460</v>
       </c>
       <c r="B180" s="1">
-        <v>2027</v>
+        <v>2011</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>1133</v>
@@ -29040,26 +29043,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="26">
-        <v>44504</v>
-      </c>
-      <c r="B183" s="1">
-        <v>2042</v>
-      </c>
-      <c r="C183" s="1" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="26">
+        <v>44473</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2027</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="26">
-        <v>44506</v>
+        <v>44504</v>
       </c>
       <c r="B184" s="1">
-        <v>2062</v>
+        <v>2042</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>1135</v>
@@ -29073,69 +29076,69 @@
         <v>44506</v>
       </c>
       <c r="B185" s="1">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="26">
-        <v>44515</v>
+        <v>44506</v>
       </c>
       <c r="B186" s="1">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="26">
-        <v>44528</v>
+        <v>44515</v>
       </c>
       <c r="B187" s="1">
-        <v>2083</v>
+        <v>2068</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="26">
-        <v>41255</v>
-      </c>
-      <c r="B189" s="1">
-        <v>2103</v>
-      </c>
-      <c r="C189" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="26">
+        <v>44528</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2083</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>11</v>
+      <c r="D188" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="26">
-        <v>44549</v>
+        <v>41255</v>
       </c>
       <c r="B190" s="1">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>1140</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -29143,7 +29146,7 @@
         <v>44549</v>
       </c>
       <c r="B191" s="1">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>1141</v>
@@ -29154,24 +29157,24 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="26">
-        <v>44556</v>
+        <v>44549</v>
       </c>
       <c r="B192" s="1">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>1142</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="26">
-        <v>44565</v>
+        <v>44556</v>
       </c>
       <c r="B193" s="1">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>1143</v>
@@ -29179,30 +29182,30 @@
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H193" s="30" t="s">
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="26">
+        <v>44565</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2124</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="26">
-        <v>44570</v>
-      </c>
-      <c r="B194" s="1">
-        <v>2129</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H194" s="30" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="26">
-        <v>44579</v>
+        <v>44570</v>
       </c>
       <c r="B195" s="1">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>1146</v>
@@ -29213,10 +29216,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="26">
-        <v>44618</v>
+        <v>44579</v>
       </c>
       <c r="B196" s="1">
-        <v>2185</v>
+        <v>2138</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>1147</v>
@@ -29230,35 +29233,35 @@
         <v>44618</v>
       </c>
       <c r="B197" s="1">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="26">
-        <v>44625</v>
+        <v>44618</v>
       </c>
       <c r="B198" s="1">
-        <v>2194</v>
+        <v>2186</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>1149</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="26">
-        <v>44700</v>
+        <v>44625</v>
       </c>
       <c r="B199" s="1">
-        <v>2224</v>
+        <v>2194</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>1150</v>
@@ -29272,7 +29275,7 @@
         <v>44700</v>
       </c>
       <c r="B200" s="1">
-        <v>2255</v>
+        <v>2224</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>1151</v>
@@ -29286,7 +29289,7 @@
         <v>44700</v>
       </c>
       <c r="B201" s="1">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>1152</v>
@@ -29296,11 +29299,11 @@
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="39">
-        <v>44726</v>
+      <c r="A202" s="26">
+        <v>44700</v>
       </c>
       <c r="B202" s="1">
-        <v>2278</v>
+        <v>2259</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>1153</v>
@@ -29311,10 +29314,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="39">
-        <v>45151</v>
+        <v>44726</v>
       </c>
       <c r="B203" s="1">
-        <v>2309</v>
+        <v>2278</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>1154</v>
@@ -29323,12 +29326,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" spans="1:4">
-      <c r="A204" s="4">
-        <v>45149</v>
-      </c>
-      <c r="B204" s="12">
-        <v>2315</v>
+    <row r="204" spans="1:4">
+      <c r="A204" s="39">
+        <v>45151</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2309</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>1155</v>
@@ -29337,32 +29340,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="36"/>
+    <row r="205" s="1" customFormat="1" spans="1:4">
+      <c r="A205" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B205" s="12">
+        <v>2315</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="36"/>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="39">
-        <v>44838</v>
-      </c>
-      <c r="B207" s="1">
-        <v>2423</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="207" spans="1:1">
+      <c r="A207" s="36"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="39">
-        <v>45150</v>
+        <v>44838</v>
       </c>
       <c r="B208" s="1">
-        <v>2496</v>
+        <v>2423</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1157</v>
@@ -29373,10 +29376,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="39">
-        <v>45135</v>
+        <v>45150</v>
       </c>
       <c r="B209" s="1">
-        <v>2678</v>
+        <v>2496</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1158</v>
@@ -29387,10 +29390,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="39">
-        <v>45140</v>
+        <v>45135</v>
       </c>
       <c r="B210" s="1">
-        <v>2697</v>
+        <v>2678</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1159</v>
@@ -29401,10 +29404,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="39">
-        <v>45145</v>
+        <v>45140</v>
       </c>
       <c r="B211" s="1">
-        <v>2710</v>
+        <v>2697</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>1160</v>
@@ -29415,10 +29418,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="39">
-        <v>45134</v>
+        <v>45145</v>
       </c>
       <c r="B212" s="1">
-        <v>2744</v>
+        <v>2710</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>1161</v>
@@ -29429,43 +29432,57 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="39">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B213" s="1">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="39">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B214" s="1">
-        <v>2788</v>
-      </c>
-      <c r="C214" s="16" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="39">
+        <v>45131</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="39">
         <v>45144</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B216" s="1">
         <v>2810</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D215" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -29495,7 +29512,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
+  <conditionalFormatting sqref="C180">
     <cfRule type="cellIs" dxfId="0" priority="185" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29517,253 +29534,253 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
+  <conditionalFormatting sqref="F188">
     <cfRule type="containsText" dxfId="5" priority="171" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F187)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F188)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="172" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F187)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="175" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="176" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="177" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="178" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="179" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F188)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="173" operator="between">
+      <formula>"Amazon"</formula>
+      <formula>"Amazon"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="174" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="173" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="175" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="176" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="177" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="178" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="179" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="containsText" dxfId="5" priority="157" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F194)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="158" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F194)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="159" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
-    <cfRule type="containsText" dxfId="5" priority="157" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="158" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F193)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="161" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="162" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="163" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="164" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="165" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="160" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="161" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="162" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="163" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="164" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="165" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="cellIs" dxfId="0" priority="152" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="153" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="154" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="155" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="156" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F204">
+    <cfRule type="containsText" dxfId="5" priority="47" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="55" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F204)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="63" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="cellIs" dxfId="0" priority="152" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="153" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="154" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="155" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="156" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F203">
-    <cfRule type="cellIs" dxfId="3" priority="111" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="103" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="95" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="71" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="103" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="111" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F205">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="between" text="Apple">
+      <formula>NOT(ISERROR(SEARCH("Apple",F205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="3" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F205)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="55" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F203)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="47" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F203)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F204">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F206">
+    <cfRule type="containsText" dxfId="5" priority="45" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="53" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="61" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="3" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="1" operator="between" text="Apple">
-      <formula>NOT(ISERROR(SEARCH("Apple",F204)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F205">
-    <cfRule type="cellIs" dxfId="3" priority="109" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="101" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="93" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="69" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="93" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="101" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="109" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F207">
+    <cfRule type="containsText" dxfId="5" priority="44" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="52" operator="between" text="Amazon">
+      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="60" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="53" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="45" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F205)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F206">
-    <cfRule type="cellIs" dxfId="3" priority="108" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="100" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="84" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="68" operator="between">
       <formula>"Amazon"</formula>
       <formula>"Amazon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="between">
-      <formula>"Amazon"</formula>
-      <formula>"Amazon"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="52" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="44" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F206)))</formula>
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="100" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="108" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F213">
+  <conditionalFormatting sqref="F214">
     <cfRule type="containsText" dxfId="5" priority="42" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="50" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="58" operator="between">
       <formula>"Amazon"</formula>
@@ -29794,7 +29811,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D214">
+  <conditionalFormatting sqref="D215">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29816,12 +29833,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F214">
+  <conditionalFormatting sqref="F215">
     <cfRule type="containsText" dxfId="5" priority="41" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F215)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="49" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F215)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="57" operator="between">
       <formula>"Amazon"</formula>
@@ -29852,12 +29869,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F215">
+  <conditionalFormatting sqref="F216">
     <cfRule type="containsText" dxfId="5" priority="40" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F215)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F216)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="48" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F215)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F216)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="56" operator="between">
       <formula>"Amazon"</formula>
@@ -29888,7 +29905,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A212">
+  <conditionalFormatting sqref="A208:A213">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29922,12 +29939,12 @@
       <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207:F212">
+  <conditionalFormatting sqref="F208:F213">
     <cfRule type="containsText" dxfId="5" priority="26" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F208)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="27" operator="between" text="Amazon">
-      <formula>NOT(ISERROR(SEARCH("Amazon",F207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Amazon",F208)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="28" operator="between">
       <formula>"Amazon"</formula>
@@ -29958,7 +29975,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD186 A1:E170 D171:E171 A171:B171 A172:E178 D179:E179 A179:B179 A180:E186 G188:XFD192 A188:E192 A194:E195 G194:XFD202 A197:E202 D196:E196 A196:B196 A216:E1048576 G216:XFD1048576">
+  <conditionalFormatting sqref="G1:XFD187 A172:E179 A1:E170 D171:E171 A171:B171 G217:XFD1048576 A217:E1048576 A197:B197 D197:E197 A198:E203 G195:XFD203 A195:E196 A189:E193 G189:XFD193 A181:E187 A180:B180 D180:E180">
     <cfRule type="cellIs" dxfId="0" priority="206" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -29980,7 +29997,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F186 F188:F192 F194:F202 F216:F1048576">
+  <conditionalFormatting sqref="F1:F187 F217:F1048576 F195:F203 F189:F193">
     <cfRule type="containsText" dxfId="5" priority="195" operator="between" text="Amazon">
       <formula>NOT(ISERROR(SEARCH("Amazon",F1)))</formula>
     </cfRule>
@@ -30016,7 +30033,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:XFD187 A187:E187">
+  <conditionalFormatting sqref="G188:XFD188 A188:E188">
     <cfRule type="cellIs" dxfId="0" priority="180" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30038,7 +30055,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G193:XFD193 A193:E193">
+  <conditionalFormatting sqref="G194:XFD194 A194:E194">
     <cfRule type="cellIs" dxfId="0" priority="166" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30058,97 +30075,97 @@
     <cfRule type="cellIs" dxfId="3" priority="170" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G203:XFD203 A203:E203">
-    <cfRule type="cellIs" dxfId="3" priority="151" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="143" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="135" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="119" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:XFD204 A204:E204">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="135" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="143" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="151" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:XFD205 A205:E205">
-    <cfRule type="cellIs" dxfId="3" priority="149" operator="between">
-      <formula>"Easy"</formula>
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="141" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="133" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="125" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="117" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206:XFD206 A206:E206">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="133" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="141" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="149" operator="between">
+      <formula>"Easy"</formula>
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G207:XFD207 A207:E207">
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="between">
+      <formula>"Lock"</formula>
+      <formula>"Lock"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="132" operator="between">
+      <formula>"Hard"</formula>
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="140" operator="between">
+      <formula>"Medium"</formula>
+      <formula>"Medium"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="148" operator="between">
       <formula>"Easy"</formula>
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="140" operator="between">
-      <formula>"Medium"</formula>
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="132" operator="between">
-      <formula>"Hard"</formula>
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="124" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="116" operator="between">
-      <formula>"Lock"</formula>
-      <formula>"Lock"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:XFD212 B207:E212">
+  <conditionalFormatting sqref="G208:XFD213 B208:E213">
     <cfRule type="cellIs" dxfId="0" priority="35" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30170,7 +30187,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G213:XFD213 A213:E213">
+  <conditionalFormatting sqref="G214:XFD214 A214:E214">
     <cfRule type="cellIs" dxfId="0" priority="114" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30192,7 +30209,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G214:XFD214 E214 A214:C214">
+  <conditionalFormatting sqref="G215:XFD215 A215:C215 E215">
     <cfRule type="cellIs" dxfId="0" priority="113" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30214,7 +30231,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G215:XFD215 A215:E215">
+  <conditionalFormatting sqref="G216:XFD216 A216:E216">
     <cfRule type="cellIs" dxfId="0" priority="112" operator="between">
       <formula>"Lock"</formula>
       <formula>"Lock"</formula>
@@ -30309,7 +30326,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -30332,7 +30349,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -30352,7 +30369,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -30372,7 +30389,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -30392,7 +30409,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>11</v>
@@ -30410,7 +30427,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>16</v>
@@ -30428,7 +30445,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
@@ -30446,7 +30463,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
@@ -30466,7 +30483,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -30484,7 +30501,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -30502,7 +30519,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
@@ -30520,7 +30537,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
@@ -30538,7 +30555,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -30612,7 +30629,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
@@ -30630,7 +30647,7 @@
         <v>147</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v